--- a/CBP_params.xlsx
+++ b/CBP_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pneumonia" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
   <si>
     <t>CBP RESISTANCE MODEL DATA</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>1996 intervention: vaccination of adults &gt;60 yo against S. pneumonia in Brazil; used % cases averted compared to base case as % reduction in CBP use over 5 years</t>
+  </si>
+  <si>
+    <t>Pittet, 2000</t>
+  </si>
+  <si>
+    <t>1994-1998 study in Geneva:  hand-hygeien promotion program beginning in 1995 (posters, promotional material)</t>
   </si>
 </sst>
 </file>
@@ -636,27 +642,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -665,6 +650,27 @@
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,58 +980,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="52" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
       <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
@@ -1077,25 +1083,25 @@
       <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1670,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2516,7 @@
       <c r="B19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="38">
@@ -2527,12 +2533,12 @@
       <c r="A22" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="50">
         <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B23">
@@ -2543,12 +2549,12 @@
       <c r="A24" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="50">
         <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B25">
@@ -2559,12 +2565,12 @@
       <c r="A26" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="50">
         <v>0.22</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B27">
@@ -2575,12 +2581,12 @@
       <c r="A28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="50">
         <v>0.22</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B29">
@@ -2602,7 +2608,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B32">
@@ -2624,11 +2630,11 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B35">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.25">
@@ -2646,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,7 +2682,7 @@
       <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="48" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2690,7 +2696,7 @@
       <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2704,7 +2710,7 @@
       <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="48" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2718,7 +2724,7 @@
       <c r="E5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2850,7 +2856,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B20" t="s">
@@ -2866,7 +2872,7 @@
       <c r="A22" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="50" t="s">
         <v>94</v>
       </c>
       <c r="C22" t="s">
@@ -2874,7 +2880,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2884,7 +2890,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2900,7 +2906,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2910,7 +2916,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2931,22 +2937,28 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
         <v>74</v>
       </c>
     </row>

--- a/CBP_params.xlsx
+++ b/CBP_params.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="134">
   <si>
     <t>Van Hollebeke, 2016</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Economic Analysis</t>
   </si>
   <si>
-    <t>CBP Consumption (DDDs)</t>
-  </si>
-  <si>
     <t>Pneumonia patients prescribed CBP</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>cIAI prevalence</t>
   </si>
   <si>
-    <t>CBP consumption among pneumonia patients (DDDs)</t>
-  </si>
-  <si>
     <t>CBP consumption among cIAI patients (DDDs)</t>
   </si>
   <si>
@@ -334,6 +328,111 @@
   </si>
   <si>
     <t>abdominal infections</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>CBP prescribed to E. coli</t>
+  </si>
+  <si>
+    <t>Hawser, 2015</t>
+  </si>
+  <si>
+    <t>Klebsiella pseudomonas</t>
+  </si>
+  <si>
+    <t>cIAI patients prescribed CBP</t>
+  </si>
+  <si>
+    <t>Treatment length for cIAI</t>
+  </si>
+  <si>
+    <t>Utility weight for cIAI (QALY while sick)</t>
+  </si>
+  <si>
+    <t>E. Coli</t>
+  </si>
+  <si>
+    <t>CBP consumption among UTI patients (DDDs)</t>
+  </si>
+  <si>
+    <t>CBP prescribed to UTIs</t>
+  </si>
+  <si>
+    <t>UTI patients prescribed CBP</t>
+  </si>
+  <si>
+    <t>Treatment length for UTI</t>
+  </si>
+  <si>
+    <t>Utility weight for UTI (QALY while sick)</t>
+  </si>
+  <si>
+    <t>UTI prevalence</t>
+  </si>
+  <si>
+    <t>CBP prescribed to PM</t>
+  </si>
+  <si>
+    <t>CBP prescribed to CS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Citrobacter spp.</t>
+  </si>
+  <si>
+    <t>Proteus mirabilis</t>
+  </si>
+  <si>
+    <t>Gordon, 2003</t>
+  </si>
+  <si>
+    <t>Results from SENTRY program (2000)</t>
+  </si>
+  <si>
+    <t>CBP consumption among bacteremia patients (DDDs)</t>
+  </si>
+  <si>
+    <t>Treatment length for bacteremia</t>
+  </si>
+  <si>
+    <t>Utility weight for bacteremia (QALY while sick)</t>
+  </si>
+  <si>
+    <t>Bacteremia prevalence</t>
+  </si>
+  <si>
+    <t>CBP prescribed to bacteremia</t>
+  </si>
+  <si>
+    <t>Bacteremia patients prescribed CBP</t>
+  </si>
+  <si>
+    <t>Jary, 2012</t>
+  </si>
+  <si>
+    <t>teaching hospital (2010 data)</t>
+  </si>
+  <si>
+    <t>CBP prescribed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBP prescribed to </t>
+  </si>
+  <si>
+    <t>Indirect productivity costs for caregivers</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>CBP consumption- pneumonia patients (DDDs)</t>
   </si>
 </sst>
 </file>
@@ -454,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,6 +615,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,22 +901,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK67"/>
+  <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="9" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375" style="8"/>
-    <col min="1026" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="51.28515625" style="9" customWidth="1"/>
+    <col min="2" max="10" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="1025" width="8.7109375" style="9"/>
+    <col min="1026" max="16384" width="8.7109375" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B1" s="10">
         <v>2000</v>
@@ -859,175 +969,175 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3230</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3459</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3697</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3733</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4616</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4696</v>
-      </c>
-      <c r="H3" s="5">
-        <v>4158</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3732</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3745</v>
-      </c>
-      <c r="K3" s="8">
-        <v>3286</v>
-      </c>
-      <c r="L3" s="8">
-        <v>3039</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2503</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1173</v>
-      </c>
-      <c r="O3" s="8">
-        <v>6162</v>
-      </c>
-      <c r="P3" s="8">
-        <v>6395</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="37">
+        <v>681</v>
+      </c>
+      <c r="C3" s="37">
+        <v>887</v>
+      </c>
+      <c r="D3" s="37">
+        <v>955</v>
+      </c>
+      <c r="E3" s="37">
+        <v>998</v>
+      </c>
+      <c r="F3" s="37">
+        <v>1187</v>
+      </c>
+      <c r="G3" s="37">
+        <v>1143</v>
+      </c>
+      <c r="H3" s="37">
+        <v>890</v>
+      </c>
+      <c r="I3" s="9">
+        <v>860</v>
+      </c>
+      <c r="J3" s="9">
+        <v>757</v>
+      </c>
+      <c r="K3" s="9">
+        <v>603</v>
+      </c>
+      <c r="L3" s="9">
+        <v>419</v>
+      </c>
+      <c r="M3" s="9">
+        <v>365</v>
+      </c>
+      <c r="N3" s="9">
+        <v>163</v>
+      </c>
+      <c r="O3" s="9">
+        <v>831</v>
+      </c>
+      <c r="P3" s="9">
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>46.96</v>
-      </c>
-      <c r="H4" s="5">
-        <v>41.58</v>
-      </c>
-      <c r="I4" s="5">
-        <v>74.64</v>
-      </c>
-      <c r="J4" s="5">
-        <v>187.25</v>
-      </c>
-      <c r="K4" s="8">
-        <v>164.3</v>
-      </c>
-      <c r="L4" s="8">
-        <v>151.94999999999999</v>
-      </c>
-      <c r="M4" s="8">
-        <v>175.21</v>
-      </c>
-      <c r="N4" s="8">
-        <v>117.3</v>
-      </c>
-      <c r="O4" s="8">
-        <f>0.1*O3</f>
-        <v>616.20000000000005</v>
-      </c>
-      <c r="P4" s="8">
-        <f>0.08*P3</f>
-        <v>511.6</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
+        <v>61.29</v>
+      </c>
+      <c r="C4" s="9">
+        <v>124.18</v>
+      </c>
+      <c r="D4" s="9">
+        <v>191</v>
+      </c>
+      <c r="E4" s="9">
+        <v>179.64</v>
+      </c>
+      <c r="F4" s="9">
+        <v>213.66</v>
+      </c>
+      <c r="G4" s="9">
+        <v>262.89</v>
+      </c>
+      <c r="H4" s="9">
+        <v>186.9</v>
+      </c>
+      <c r="I4" s="9">
+        <v>301</v>
+      </c>
+      <c r="J4" s="9">
+        <v>295.23</v>
+      </c>
+      <c r="K4" s="9">
+        <v>301.5</v>
+      </c>
+      <c r="L4" s="9">
+        <v>184.36</v>
+      </c>
+      <c r="M4" s="9">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="N4" s="9">
+        <v>70.09</v>
+      </c>
+      <c r="O4" s="9">
+        <f>0.54*O3</f>
+        <v>448.74</v>
+      </c>
+      <c r="P4" s="9">
+        <f>0.49*P3</f>
+        <v>361.62</v>
       </c>
     </row>
     <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="37">
         <v>2486</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="37">
         <v>2727</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="37">
         <v>2822</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="37">
         <v>3101</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="37">
         <v>3537</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="37">
         <v>3076</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="37">
         <v>2714</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="37">
         <v>2267</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <v>2107</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>1829</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <v>1631</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
         <v>1488</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <v>615</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="9">
         <v>6849</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="9">
         <v>6578</v>
       </c>
     </row>
@@ -1035,258 +1145,258 @@
       <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="37">
         <v>323.18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="37">
         <v>436.32</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="37">
         <v>507.96</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="37">
         <v>589.19000000000005</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="37">
         <v>707.4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="37">
         <v>522.91999999999996</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="37">
         <v>488.52</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="37">
         <v>385.39</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="37">
         <v>379.26</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="37">
         <v>310.93</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="37">
         <v>326.2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="37">
         <v>282.72000000000003</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="37">
         <v>153.75</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <f>0.2*O5</f>
         <v>1369.8000000000002</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <f>0.19*P5</f>
         <v>1249.82</v>
       </c>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>681</v>
-      </c>
-      <c r="C7" s="5">
-        <v>887</v>
-      </c>
-      <c r="D7" s="5">
-        <v>955</v>
-      </c>
-      <c r="E7" s="5">
-        <v>998</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1187</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1143</v>
-      </c>
-      <c r="H7" s="5">
-        <v>890</v>
-      </c>
-      <c r="I7" s="8">
-        <v>860</v>
-      </c>
-      <c r="J7" s="8">
-        <v>757</v>
-      </c>
-      <c r="K7" s="8">
-        <v>603</v>
-      </c>
-      <c r="L7" s="8">
-        <v>419</v>
-      </c>
-      <c r="M7" s="8">
-        <v>365</v>
-      </c>
-      <c r="N7" s="8">
-        <v>163</v>
-      </c>
-      <c r="O7" s="8">
-        <v>831</v>
-      </c>
-      <c r="P7" s="8">
-        <v>738</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="37">
+        <v>3230</v>
+      </c>
+      <c r="C7" s="37">
+        <v>3459</v>
+      </c>
+      <c r="D7" s="37">
+        <v>3697</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3733</v>
+      </c>
+      <c r="F7" s="37">
+        <v>4616</v>
+      </c>
+      <c r="G7" s="37">
+        <v>4696</v>
+      </c>
+      <c r="H7" s="37">
+        <v>4158</v>
+      </c>
+      <c r="I7" s="37">
+        <v>3732</v>
+      </c>
+      <c r="J7" s="37">
+        <v>3745</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3286</v>
+      </c>
+      <c r="L7" s="9">
+        <v>3039</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2503</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1173</v>
+      </c>
+      <c r="O7" s="9">
+        <v>6162</v>
+      </c>
+      <c r="P7" s="9">
+        <v>6395</v>
       </c>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8">
-        <v>61.29</v>
-      </c>
-      <c r="C8" s="8">
-        <v>124.18</v>
-      </c>
-      <c r="D8" s="8">
-        <v>191</v>
-      </c>
-      <c r="E8" s="8">
-        <v>179.64</v>
-      </c>
-      <c r="F8" s="8">
-        <v>213.66</v>
-      </c>
-      <c r="G8" s="8">
-        <v>262.89</v>
-      </c>
-      <c r="H8" s="8">
-        <v>186.9</v>
-      </c>
-      <c r="I8" s="8">
-        <v>301</v>
-      </c>
-      <c r="J8" s="8">
-        <v>295.23</v>
-      </c>
-      <c r="K8" s="8">
-        <v>301.5</v>
-      </c>
-      <c r="L8" s="8">
-        <v>184.36</v>
-      </c>
-      <c r="M8" s="8">
-        <v>135.05000000000001</v>
-      </c>
-      <c r="N8" s="8">
-        <v>70.09</v>
-      </c>
-      <c r="O8" s="8">
-        <f>0.54*O7</f>
-        <v>448.74</v>
-      </c>
-      <c r="P8" s="8">
-        <f>0.49*P7</f>
-        <v>361.62</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>46.96</v>
+      </c>
+      <c r="H8" s="37">
+        <v>41.58</v>
+      </c>
+      <c r="I8" s="37">
+        <v>74.64</v>
+      </c>
+      <c r="J8" s="37">
+        <v>187.25</v>
+      </c>
+      <c r="K8" s="9">
+        <v>164.3</v>
+      </c>
+      <c r="L8" s="9">
+        <v>151.94999999999999</v>
+      </c>
+      <c r="M8" s="9">
+        <v>175.21</v>
+      </c>
+      <c r="N8" s="9">
+        <v>117.3</v>
+      </c>
+      <c r="O8" s="9">
+        <f>0.1*O7</f>
+        <v>616.20000000000005</v>
+      </c>
+      <c r="P8" s="9">
+        <f>0.08*P7</f>
+        <v>511.6</v>
       </c>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>2184</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>2167</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>2182</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>2272</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>2563</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>2617</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>2144</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>1967</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>1837</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>1553</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
         <v>1322</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>980</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <v>331</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <v>3276</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="9">
         <v>3300</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <f>0.01*I9</f>
         <v>19.670000000000002</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>15.53</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="9">
         <v>13.22</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <f>0.06*M9</f>
         <v>58.8</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="9">
         <f>0.07*N9</f>
         <v>23.17</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="9">
         <f>0.06*O9</f>
         <v>196.56</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="9">
         <f>0.05*P9</f>
         <v>165</v>
       </c>
@@ -1295,21 +1405,21 @@
       <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -2372,51 +2482,51 @@
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="8">
+        <v>133</v>
+      </c>
+      <c r="B13" s="9">
         <v>5.116795146E-2</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>5.545251382E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>6.4058763709999994E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>6.3038341819999996E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>6.9081833790000005E-2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>7.2866838119999999E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>8.1495325930000001E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>8.2100477039999994E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="9">
         <v>8.4872943630000003E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>8.1556849720000005E-2</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="9">
         <v>9.3080891629999996E-2</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <v>9.1138155499999998E-2</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="9">
         <v>9.7227641840000004E-2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="9">
         <v>9.4034273060000007E-2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="9">
         <v>9.8938662489999996E-2</v>
       </c>
     </row>
@@ -2424,133 +2534,130 @@
       <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <f>29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <f t="shared" ref="C14:P14" si="0">29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="9">
+        <f>29/156</f>
+        <v>0.1858974358974359</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="O14" s="11">
+      <c r="P14" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="P14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
-      </c>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>26</v>
+      <c r="A15" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="12">
-        <f>33/209</f>
-        <v>0.15789473684210525</v>
+        <f>22/209</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:P15" si="1">33/209</f>
-        <v>0.15789473684210525</v>
+        <f t="shared" ref="C15:P15" si="1">22/209</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="H15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="L15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="N15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="O15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="P15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>8</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
@@ -2618,72 +2725,75 @@
         <v>0.24880382775119617</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>29</v>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="12">
-        <f>22/209</f>
-        <v>0.10526315789473684</v>
+        <f>33/209</f>
+        <v>0.15789473684210525</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:P17" si="3">22/209</f>
-        <v>0.10526315789473684</v>
+        <f t="shared" ref="C17:P17" si="3">33/209</f>
+        <v>0.15789473684210525</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="L17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="N17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="P17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
@@ -2748,27 +2858,27 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
@@ -2776,129 +2886,122 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="39">
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="36">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="39">
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="36">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="39">
         <v>0.22</v>
       </c>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="36">
         <v>2018</v>
       </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="39">
         <v>0.22</v>
       </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="36">
         <v>2020</v>
       </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B30"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="36">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="36">
         <v>2022</v>
       </c>
-      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B33"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="36"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="36">
         <v>2020</v>
       </c>
-      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
@@ -2908,21 +3011,21 @@
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="31">
         <f>44/398</f>
@@ -2931,59 +3034,52 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="31">
         <v>7.5</v>
       </c>
-      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="32">
+        <v>92</v>
+      </c>
+      <c r="B40" s="31">
         <v>0.96899999999999997</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="K40" s="9"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="33">
-        <v>4893</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="33">
-        <v>2877</v>
-      </c>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="B42" s="40">
+        <v>4893</v>
+      </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="B43" s="40">
+        <v>2877</v>
+      </c>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
@@ -2991,9 +3087,9 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B44" s="40"/>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
@@ -3001,138 +3097,148 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>77</v>
+      <c r="A47" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>84</v>
+      <c r="A59" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0.46700000000000003</v>
+      <c r="A60" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.30399999999999999</v>
+        <v>84</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3146,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,7 +3296,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -3198,12 +3304,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3214,11 +3320,11 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,38 +3334,38 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>43</v>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3326,8 +3432,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>26</v>
+      <c r="A15" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -3348,8 +3454,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>29</v>
+      <c r="A17" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -3468,12 +3574,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>46</v>
       </c>
@@ -3484,12 +3590,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>67</v>
       </c>
@@ -3502,12 +3608,12 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>70</v>
       </c>
       <c r="C37" s="6"/>
       <c r="F37" s="9"/>
@@ -3517,7 +3623,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
@@ -3525,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="32"/>
@@ -3534,7 +3640,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -3546,15 +3652,15 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="32"/>
@@ -3563,46 +3669,1061 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="9"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="8"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="8"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="8"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="8"/>
+      <c r="BP41" s="8"/>
+      <c r="BQ41" s="8"/>
+      <c r="BR41" s="8"/>
+      <c r="BS41" s="8"/>
+      <c r="BT41" s="8"/>
+      <c r="BU41" s="8"/>
+      <c r="BV41" s="8"/>
+      <c r="BW41" s="8"/>
+      <c r="BX41" s="8"/>
+      <c r="BY41" s="8"/>
+      <c r="BZ41" s="8"/>
+      <c r="CA41" s="8"/>
+      <c r="CB41" s="8"/>
+      <c r="CC41" s="8"/>
+      <c r="CD41" s="8"/>
+      <c r="CE41" s="8"/>
+      <c r="CF41" s="8"/>
+      <c r="CG41" s="8"/>
+      <c r="CH41" s="8"/>
+      <c r="CI41" s="8"/>
+      <c r="CJ41" s="8"/>
+      <c r="CK41" s="8"/>
+      <c r="CL41" s="8"/>
+      <c r="CM41" s="8"/>
+      <c r="CN41" s="8"/>
+      <c r="CO41" s="8"/>
+      <c r="CP41" s="8"/>
+      <c r="CQ41" s="8"/>
+      <c r="CR41" s="8"/>
+      <c r="CS41" s="8"/>
+      <c r="CT41" s="8"/>
+      <c r="CU41" s="8"/>
+      <c r="CV41" s="8"/>
+      <c r="CW41" s="8"/>
+      <c r="CX41" s="8"/>
+      <c r="CY41" s="8"/>
+      <c r="CZ41" s="8"/>
+      <c r="DA41" s="8"/>
+      <c r="DB41" s="8"/>
+      <c r="DC41" s="8"/>
+      <c r="DD41" s="8"/>
+      <c r="DE41" s="8"/>
+      <c r="DF41" s="8"/>
+      <c r="DG41" s="8"/>
+      <c r="DH41" s="8"/>
+      <c r="DI41" s="8"/>
+      <c r="DJ41" s="8"/>
+      <c r="DK41" s="8"/>
+      <c r="DL41" s="8"/>
+      <c r="DM41" s="8"/>
+      <c r="DN41" s="8"/>
+      <c r="DO41" s="8"/>
+      <c r="DP41" s="8"/>
+      <c r="DQ41" s="8"/>
+      <c r="DR41" s="8"/>
+      <c r="DS41" s="8"/>
+      <c r="DT41" s="8"/>
+      <c r="DU41" s="8"/>
+      <c r="DV41" s="8"/>
+      <c r="DW41" s="8"/>
+      <c r="DX41" s="8"/>
+      <c r="DY41" s="8"/>
+      <c r="DZ41" s="8"/>
+      <c r="EA41" s="8"/>
+      <c r="EB41" s="8"/>
+      <c r="EC41" s="8"/>
+      <c r="ED41" s="8"/>
+      <c r="EE41" s="8"/>
+      <c r="EF41" s="8"/>
+      <c r="EG41" s="8"/>
+      <c r="EH41" s="8"/>
+      <c r="EI41" s="8"/>
+      <c r="EJ41" s="8"/>
+      <c r="EK41" s="8"/>
+      <c r="EL41" s="8"/>
+      <c r="EM41" s="8"/>
+      <c r="EN41" s="8"/>
+      <c r="EO41" s="8"/>
+      <c r="EP41" s="8"/>
+      <c r="EQ41" s="8"/>
+      <c r="ER41" s="8"/>
+      <c r="ES41" s="8"/>
+      <c r="ET41" s="8"/>
+      <c r="EU41" s="8"/>
+      <c r="EV41" s="8"/>
+      <c r="EW41" s="8"/>
+      <c r="EX41" s="8"/>
+      <c r="EY41" s="8"/>
+      <c r="EZ41" s="8"/>
+      <c r="FA41" s="8"/>
+      <c r="FB41" s="8"/>
+      <c r="FC41" s="8"/>
+      <c r="FD41" s="8"/>
+      <c r="FE41" s="8"/>
+      <c r="FF41" s="8"/>
+      <c r="FG41" s="8"/>
+      <c r="FH41" s="8"/>
+      <c r="FI41" s="8"/>
+      <c r="FJ41" s="8"/>
+      <c r="FK41" s="8"/>
+      <c r="FL41" s="8"/>
+      <c r="FM41" s="8"/>
+      <c r="FN41" s="8"/>
+      <c r="FO41" s="8"/>
+      <c r="FP41" s="8"/>
+      <c r="FQ41" s="8"/>
+      <c r="FR41" s="8"/>
+      <c r="FS41" s="8"/>
+      <c r="FT41" s="8"/>
+      <c r="FU41" s="8"/>
+      <c r="FV41" s="8"/>
+      <c r="FW41" s="8"/>
+      <c r="FX41" s="8"/>
+      <c r="FY41" s="8"/>
+      <c r="FZ41" s="8"/>
+      <c r="GA41" s="8"/>
+      <c r="GB41" s="8"/>
+      <c r="GC41" s="8"/>
+      <c r="GD41" s="8"/>
+      <c r="GE41" s="8"/>
+      <c r="GF41" s="8"/>
+      <c r="GG41" s="8"/>
+      <c r="GH41" s="8"/>
+      <c r="GI41" s="8"/>
+      <c r="GJ41" s="8"/>
+      <c r="GK41" s="8"/>
+      <c r="GL41" s="8"/>
+      <c r="GM41" s="8"/>
+      <c r="GN41" s="8"/>
+      <c r="GO41" s="8"/>
+      <c r="GP41" s="8"/>
+      <c r="GQ41" s="8"/>
+      <c r="GR41" s="8"/>
+      <c r="GS41" s="8"/>
+      <c r="GT41" s="8"/>
+      <c r="GU41" s="8"/>
+      <c r="GV41" s="8"/>
+      <c r="GW41" s="8"/>
+      <c r="GX41" s="8"/>
+      <c r="GY41" s="8"/>
+      <c r="GZ41" s="8"/>
+      <c r="HA41" s="8"/>
+      <c r="HB41" s="8"/>
+      <c r="HC41" s="8"/>
+      <c r="HD41" s="8"/>
+      <c r="HE41" s="8"/>
+      <c r="HF41" s="8"/>
+      <c r="HG41" s="8"/>
+      <c r="HH41" s="8"/>
+      <c r="HI41" s="8"/>
+      <c r="HJ41" s="8"/>
+      <c r="HK41" s="8"/>
+      <c r="HL41" s="8"/>
+      <c r="HM41" s="8"/>
+      <c r="HN41" s="8"/>
+      <c r="HO41" s="8"/>
+      <c r="HP41" s="8"/>
+      <c r="HQ41" s="8"/>
+      <c r="HR41" s="8"/>
+      <c r="HS41" s="8"/>
+      <c r="HT41" s="8"/>
+      <c r="HU41" s="8"/>
+      <c r="HV41" s="8"/>
+      <c r="HW41" s="8"/>
+      <c r="HX41" s="8"/>
+      <c r="HY41" s="8"/>
+      <c r="HZ41" s="8"/>
+      <c r="IA41" s="8"/>
+      <c r="IB41" s="8"/>
+      <c r="IC41" s="8"/>
+      <c r="ID41" s="8"/>
+      <c r="IE41" s="8"/>
+      <c r="IF41" s="8"/>
+      <c r="IG41" s="8"/>
+      <c r="IH41" s="8"/>
+      <c r="II41" s="8"/>
+      <c r="IJ41" s="8"/>
+      <c r="IK41" s="8"/>
+      <c r="IL41" s="8"/>
+      <c r="IM41" s="8"/>
+      <c r="IN41" s="8"/>
+      <c r="IO41" s="8"/>
+      <c r="IP41" s="8"/>
+      <c r="IQ41" s="8"/>
+      <c r="IR41" s="8"/>
+      <c r="IS41" s="8"/>
+      <c r="IT41" s="8"/>
+      <c r="IU41" s="8"/>
+      <c r="IV41" s="8"/>
+      <c r="IW41" s="8"/>
+      <c r="IX41" s="8"/>
+      <c r="IY41" s="8"/>
+      <c r="IZ41" s="8"/>
+      <c r="JA41" s="8"/>
+      <c r="JB41" s="8"/>
+      <c r="JC41" s="8"/>
+      <c r="JD41" s="8"/>
+      <c r="JE41" s="8"/>
+      <c r="JF41" s="8"/>
+      <c r="JG41" s="8"/>
+      <c r="JH41" s="8"/>
+      <c r="JI41" s="8"/>
+      <c r="JJ41" s="8"/>
+      <c r="JK41" s="8"/>
+      <c r="JL41" s="8"/>
+      <c r="JM41" s="8"/>
+      <c r="JN41" s="8"/>
+      <c r="JO41" s="8"/>
+      <c r="JP41" s="8"/>
+      <c r="JQ41" s="8"/>
+      <c r="JR41" s="8"/>
+      <c r="JS41" s="8"/>
+      <c r="JT41" s="8"/>
+      <c r="JU41" s="8"/>
+      <c r="JV41" s="8"/>
+      <c r="JW41" s="8"/>
+      <c r="JX41" s="8"/>
+      <c r="JY41" s="8"/>
+      <c r="JZ41" s="8"/>
+      <c r="KA41" s="8"/>
+      <c r="KB41" s="8"/>
+      <c r="KC41" s="8"/>
+      <c r="KD41" s="8"/>
+      <c r="KE41" s="8"/>
+      <c r="KF41" s="8"/>
+      <c r="KG41" s="8"/>
+      <c r="KH41" s="8"/>
+      <c r="KI41" s="8"/>
+      <c r="KJ41" s="8"/>
+      <c r="KK41" s="8"/>
+      <c r="KL41" s="8"/>
+      <c r="KM41" s="8"/>
+      <c r="KN41" s="8"/>
+      <c r="KO41" s="8"/>
+      <c r="KP41" s="8"/>
+      <c r="KQ41" s="8"/>
+      <c r="KR41" s="8"/>
+      <c r="KS41" s="8"/>
+      <c r="KT41" s="8"/>
+      <c r="KU41" s="8"/>
+      <c r="KV41" s="8"/>
+      <c r="KW41" s="8"/>
+      <c r="KX41" s="8"/>
+      <c r="KY41" s="8"/>
+      <c r="KZ41" s="8"/>
+      <c r="LA41" s="8"/>
+      <c r="LB41" s="8"/>
+      <c r="LC41" s="8"/>
+      <c r="LD41" s="8"/>
+      <c r="LE41" s="8"/>
+      <c r="LF41" s="8"/>
+      <c r="LG41" s="8"/>
+      <c r="LH41" s="8"/>
+      <c r="LI41" s="8"/>
+      <c r="LJ41" s="8"/>
+      <c r="LK41" s="8"/>
+      <c r="LL41" s="8"/>
+      <c r="LM41" s="8"/>
+      <c r="LN41" s="8"/>
+      <c r="LO41" s="8"/>
+      <c r="LP41" s="8"/>
+      <c r="LQ41" s="8"/>
+      <c r="LR41" s="8"/>
+      <c r="LS41" s="8"/>
+      <c r="LT41" s="8"/>
+      <c r="LU41" s="8"/>
+      <c r="LV41" s="8"/>
+      <c r="LW41" s="8"/>
+      <c r="LX41" s="8"/>
+      <c r="LY41" s="8"/>
+      <c r="LZ41" s="8"/>
+      <c r="MA41" s="8"/>
+      <c r="MB41" s="8"/>
+      <c r="MC41" s="8"/>
+      <c r="MD41" s="8"/>
+      <c r="ME41" s="8"/>
+      <c r="MF41" s="8"/>
+      <c r="MG41" s="8"/>
+      <c r="MH41" s="8"/>
+      <c r="MI41" s="8"/>
+      <c r="MJ41" s="8"/>
+      <c r="MK41" s="8"/>
+      <c r="ML41" s="8"/>
+      <c r="MM41" s="8"/>
+      <c r="MN41" s="8"/>
+      <c r="MO41" s="8"/>
+      <c r="MP41" s="8"/>
+      <c r="MQ41" s="8"/>
+      <c r="MR41" s="8"/>
+      <c r="MS41" s="8"/>
+      <c r="MT41" s="8"/>
+      <c r="MU41" s="8"/>
+      <c r="MV41" s="8"/>
+      <c r="MW41" s="8"/>
+      <c r="MX41" s="8"/>
+      <c r="MY41" s="8"/>
+      <c r="MZ41" s="8"/>
+      <c r="NA41" s="8"/>
+      <c r="NB41" s="8"/>
+      <c r="NC41" s="8"/>
+      <c r="ND41" s="8"/>
+      <c r="NE41" s="8"/>
+      <c r="NF41" s="8"/>
+      <c r="NG41" s="8"/>
+      <c r="NH41" s="8"/>
+      <c r="NI41" s="8"/>
+      <c r="NJ41" s="8"/>
+      <c r="NK41" s="8"/>
+      <c r="NL41" s="8"/>
+      <c r="NM41" s="8"/>
+      <c r="NN41" s="8"/>
+      <c r="NO41" s="8"/>
+      <c r="NP41" s="8"/>
+      <c r="NQ41" s="8"/>
+      <c r="NR41" s="8"/>
+      <c r="NS41" s="8"/>
+      <c r="NT41" s="8"/>
+      <c r="NU41" s="8"/>
+      <c r="NV41" s="8"/>
+      <c r="NW41" s="8"/>
+      <c r="NX41" s="8"/>
+      <c r="NY41" s="8"/>
+      <c r="NZ41" s="8"/>
+      <c r="OA41" s="8"/>
+      <c r="OB41" s="8"/>
+      <c r="OC41" s="8"/>
+      <c r="OD41" s="8"/>
+      <c r="OE41" s="8"/>
+      <c r="OF41" s="8"/>
+      <c r="OG41" s="8"/>
+      <c r="OH41" s="8"/>
+      <c r="OI41" s="8"/>
+      <c r="OJ41" s="8"/>
+      <c r="OK41" s="8"/>
+      <c r="OL41" s="8"/>
+      <c r="OM41" s="8"/>
+      <c r="ON41" s="8"/>
+      <c r="OO41" s="8"/>
+      <c r="OP41" s="8"/>
+      <c r="OQ41" s="8"/>
+      <c r="OR41" s="8"/>
+      <c r="OS41" s="8"/>
+      <c r="OT41" s="8"/>
+      <c r="OU41" s="8"/>
+      <c r="OV41" s="8"/>
+      <c r="OW41" s="8"/>
+      <c r="OX41" s="8"/>
+      <c r="OY41" s="8"/>
+      <c r="OZ41" s="8"/>
+      <c r="PA41" s="8"/>
+      <c r="PB41" s="8"/>
+      <c r="PC41" s="8"/>
+      <c r="PD41" s="8"/>
+      <c r="PE41" s="8"/>
+      <c r="PF41" s="8"/>
+      <c r="PG41" s="8"/>
+      <c r="PH41" s="8"/>
+      <c r="PI41" s="8"/>
+      <c r="PJ41" s="8"/>
+      <c r="PK41" s="8"/>
+      <c r="PL41" s="8"/>
+      <c r="PM41" s="8"/>
+      <c r="PN41" s="8"/>
+      <c r="PO41" s="8"/>
+      <c r="PP41" s="8"/>
+      <c r="PQ41" s="8"/>
+      <c r="PR41" s="8"/>
+      <c r="PS41" s="8"/>
+      <c r="PT41" s="8"/>
+      <c r="PU41" s="8"/>
+      <c r="PV41" s="8"/>
+      <c r="PW41" s="8"/>
+      <c r="PX41" s="8"/>
+      <c r="PY41" s="8"/>
+      <c r="PZ41" s="8"/>
+      <c r="QA41" s="8"/>
+      <c r="QB41" s="8"/>
+      <c r="QC41" s="8"/>
+      <c r="QD41" s="8"/>
+      <c r="QE41" s="8"/>
+      <c r="QF41" s="8"/>
+      <c r="QG41" s="8"/>
+      <c r="QH41" s="8"/>
+      <c r="QI41" s="8"/>
+      <c r="QJ41" s="8"/>
+      <c r="QK41" s="8"/>
+      <c r="QL41" s="8"/>
+      <c r="QM41" s="8"/>
+      <c r="QN41" s="8"/>
+      <c r="QO41" s="8"/>
+      <c r="QP41" s="8"/>
+      <c r="QQ41" s="8"/>
+      <c r="QR41" s="8"/>
+      <c r="QS41" s="8"/>
+      <c r="QT41" s="8"/>
+      <c r="QU41" s="8"/>
+      <c r="QV41" s="8"/>
+      <c r="QW41" s="8"/>
+      <c r="QX41" s="8"/>
+      <c r="QY41" s="8"/>
+      <c r="QZ41" s="8"/>
+      <c r="RA41" s="8"/>
+      <c r="RB41" s="8"/>
+      <c r="RC41" s="8"/>
+      <c r="RD41" s="8"/>
+      <c r="RE41" s="8"/>
+      <c r="RF41" s="8"/>
+      <c r="RG41" s="8"/>
+      <c r="RH41" s="8"/>
+      <c r="RI41" s="8"/>
+      <c r="RJ41" s="8"/>
+      <c r="RK41" s="8"/>
+      <c r="RL41" s="8"/>
+      <c r="RM41" s="8"/>
+      <c r="RN41" s="8"/>
+      <c r="RO41" s="8"/>
+      <c r="RP41" s="8"/>
+      <c r="RQ41" s="8"/>
+      <c r="RR41" s="8"/>
+      <c r="RS41" s="8"/>
+      <c r="RT41" s="8"/>
+      <c r="RU41" s="8"/>
+      <c r="RV41" s="8"/>
+      <c r="RW41" s="8"/>
+      <c r="RX41" s="8"/>
+      <c r="RY41" s="8"/>
+      <c r="RZ41" s="8"/>
+      <c r="SA41" s="8"/>
+      <c r="SB41" s="8"/>
+      <c r="SC41" s="8"/>
+      <c r="SD41" s="8"/>
+      <c r="SE41" s="8"/>
+      <c r="SF41" s="8"/>
+      <c r="SG41" s="8"/>
+      <c r="SH41" s="8"/>
+      <c r="SI41" s="8"/>
+      <c r="SJ41" s="8"/>
+      <c r="SK41" s="8"/>
+      <c r="SL41" s="8"/>
+      <c r="SM41" s="8"/>
+      <c r="SN41" s="8"/>
+      <c r="SO41" s="8"/>
+      <c r="SP41" s="8"/>
+      <c r="SQ41" s="8"/>
+      <c r="SR41" s="8"/>
+      <c r="SS41" s="8"/>
+      <c r="ST41" s="8"/>
+      <c r="SU41" s="8"/>
+      <c r="SV41" s="8"/>
+      <c r="SW41" s="8"/>
+      <c r="SX41" s="8"/>
+      <c r="SY41" s="8"/>
+      <c r="SZ41" s="8"/>
+      <c r="TA41" s="8"/>
+      <c r="TB41" s="8"/>
+      <c r="TC41" s="8"/>
+      <c r="TD41" s="8"/>
+      <c r="TE41" s="8"/>
+      <c r="TF41" s="8"/>
+      <c r="TG41" s="8"/>
+      <c r="TH41" s="8"/>
+      <c r="TI41" s="8"/>
+      <c r="TJ41" s="8"/>
+      <c r="TK41" s="8"/>
+      <c r="TL41" s="8"/>
+      <c r="TM41" s="8"/>
+      <c r="TN41" s="8"/>
+      <c r="TO41" s="8"/>
+      <c r="TP41" s="8"/>
+      <c r="TQ41" s="8"/>
+      <c r="TR41" s="8"/>
+      <c r="TS41" s="8"/>
+      <c r="TT41" s="8"/>
+      <c r="TU41" s="8"/>
+      <c r="TV41" s="8"/>
+      <c r="TW41" s="8"/>
+      <c r="TX41" s="8"/>
+      <c r="TY41" s="8"/>
+      <c r="TZ41" s="8"/>
+      <c r="UA41" s="8"/>
+      <c r="UB41" s="8"/>
+      <c r="UC41" s="8"/>
+      <c r="UD41" s="8"/>
+      <c r="UE41" s="8"/>
+      <c r="UF41" s="8"/>
+      <c r="UG41" s="8"/>
+      <c r="UH41" s="8"/>
+      <c r="UI41" s="8"/>
+      <c r="UJ41" s="8"/>
+      <c r="UK41" s="8"/>
+      <c r="UL41" s="8"/>
+      <c r="UM41" s="8"/>
+      <c r="UN41" s="8"/>
+      <c r="UO41" s="8"/>
+      <c r="UP41" s="8"/>
+      <c r="UQ41" s="8"/>
+      <c r="UR41" s="8"/>
+      <c r="US41" s="8"/>
+      <c r="UT41" s="8"/>
+      <c r="UU41" s="8"/>
+      <c r="UV41" s="8"/>
+      <c r="UW41" s="8"/>
+      <c r="UX41" s="8"/>
+      <c r="UY41" s="8"/>
+      <c r="UZ41" s="8"/>
+      <c r="VA41" s="8"/>
+      <c r="VB41" s="8"/>
+      <c r="VC41" s="8"/>
+      <c r="VD41" s="8"/>
+      <c r="VE41" s="8"/>
+      <c r="VF41" s="8"/>
+      <c r="VG41" s="8"/>
+      <c r="VH41" s="8"/>
+      <c r="VI41" s="8"/>
+      <c r="VJ41" s="8"/>
+      <c r="VK41" s="8"/>
+      <c r="VL41" s="8"/>
+      <c r="VM41" s="8"/>
+      <c r="VN41" s="8"/>
+      <c r="VO41" s="8"/>
+      <c r="VP41" s="8"/>
+      <c r="VQ41" s="8"/>
+      <c r="VR41" s="8"/>
+      <c r="VS41" s="8"/>
+      <c r="VT41" s="8"/>
+      <c r="VU41" s="8"/>
+      <c r="VV41" s="8"/>
+      <c r="VW41" s="8"/>
+      <c r="VX41" s="8"/>
+      <c r="VY41" s="8"/>
+      <c r="VZ41" s="8"/>
+      <c r="WA41" s="8"/>
+      <c r="WB41" s="8"/>
+      <c r="WC41" s="8"/>
+      <c r="WD41" s="8"/>
+      <c r="WE41" s="8"/>
+      <c r="WF41" s="8"/>
+      <c r="WG41" s="8"/>
+      <c r="WH41" s="8"/>
+      <c r="WI41" s="8"/>
+      <c r="WJ41" s="8"/>
+      <c r="WK41" s="8"/>
+      <c r="WL41" s="8"/>
+      <c r="WM41" s="8"/>
+      <c r="WN41" s="8"/>
+      <c r="WO41" s="8"/>
+      <c r="WP41" s="8"/>
+      <c r="WQ41" s="8"/>
+      <c r="WR41" s="8"/>
+      <c r="WS41" s="8"/>
+      <c r="WT41" s="8"/>
+      <c r="WU41" s="8"/>
+      <c r="WV41" s="8"/>
+      <c r="WW41" s="8"/>
+      <c r="WX41" s="8"/>
+      <c r="WY41" s="8"/>
+      <c r="WZ41" s="8"/>
+      <c r="XA41" s="8"/>
+      <c r="XB41" s="8"/>
+      <c r="XC41" s="8"/>
+      <c r="XD41" s="8"/>
+      <c r="XE41" s="8"/>
+      <c r="XF41" s="8"/>
+      <c r="XG41" s="8"/>
+      <c r="XH41" s="8"/>
+      <c r="XI41" s="8"/>
+      <c r="XJ41" s="8"/>
+      <c r="XK41" s="8"/>
+      <c r="XL41" s="8"/>
+      <c r="XM41" s="8"/>
+      <c r="XN41" s="8"/>
+      <c r="XO41" s="8"/>
+      <c r="XP41" s="8"/>
+      <c r="XQ41" s="8"/>
+      <c r="XR41" s="8"/>
+      <c r="XS41" s="8"/>
+      <c r="XT41" s="8"/>
+      <c r="XU41" s="8"/>
+      <c r="XV41" s="8"/>
+      <c r="XW41" s="8"/>
+      <c r="XX41" s="8"/>
+      <c r="XY41" s="8"/>
+      <c r="XZ41" s="8"/>
+      <c r="YA41" s="8"/>
+      <c r="YB41" s="8"/>
+      <c r="YC41" s="8"/>
+      <c r="YD41" s="8"/>
+      <c r="YE41" s="8"/>
+      <c r="YF41" s="8"/>
+      <c r="YG41" s="8"/>
+      <c r="YH41" s="8"/>
+      <c r="YI41" s="8"/>
+      <c r="YJ41" s="8"/>
+      <c r="YK41" s="8"/>
+      <c r="YL41" s="8"/>
+      <c r="YM41" s="8"/>
+      <c r="YN41" s="8"/>
+      <c r="YO41" s="8"/>
+      <c r="YP41" s="8"/>
+      <c r="YQ41" s="8"/>
+      <c r="YR41" s="8"/>
+      <c r="YS41" s="8"/>
+      <c r="YT41" s="8"/>
+      <c r="YU41" s="8"/>
+      <c r="YV41" s="8"/>
+      <c r="YW41" s="8"/>
+      <c r="YX41" s="8"/>
+      <c r="YY41" s="8"/>
+      <c r="YZ41" s="8"/>
+      <c r="ZA41" s="8"/>
+      <c r="ZB41" s="8"/>
+      <c r="ZC41" s="8"/>
+      <c r="ZD41" s="8"/>
+      <c r="ZE41" s="8"/>
+      <c r="ZF41" s="8"/>
+      <c r="ZG41" s="8"/>
+      <c r="ZH41" s="8"/>
+      <c r="ZI41" s="8"/>
+      <c r="ZJ41" s="8"/>
+      <c r="ZK41" s="8"/>
+      <c r="ZL41" s="8"/>
+      <c r="ZM41" s="8"/>
+      <c r="ZN41" s="8"/>
+      <c r="ZO41" s="8"/>
+      <c r="ZP41" s="8"/>
+      <c r="ZQ41" s="8"/>
+      <c r="ZR41" s="8"/>
+      <c r="ZS41" s="8"/>
+      <c r="ZT41" s="8"/>
+      <c r="ZU41" s="8"/>
+      <c r="ZV41" s="8"/>
+      <c r="ZW41" s="8"/>
+      <c r="ZX41" s="8"/>
+      <c r="ZY41" s="8"/>
+      <c r="ZZ41" s="8"/>
+      <c r="AAA41" s="8"/>
+      <c r="AAB41" s="8"/>
+      <c r="AAC41" s="8"/>
+      <c r="AAD41" s="8"/>
+      <c r="AAE41" s="8"/>
+      <c r="AAF41" s="8"/>
+      <c r="AAG41" s="8"/>
+      <c r="AAH41" s="8"/>
+      <c r="AAI41" s="8"/>
+      <c r="AAJ41" s="8"/>
+      <c r="AAK41" s="8"/>
+      <c r="AAL41" s="8"/>
+      <c r="AAM41" s="8"/>
+      <c r="AAN41" s="8"/>
+      <c r="AAO41" s="8"/>
+      <c r="AAP41" s="8"/>
+      <c r="AAQ41" s="8"/>
+      <c r="AAR41" s="8"/>
+      <c r="AAS41" s="8"/>
+      <c r="AAT41" s="8"/>
+      <c r="AAU41" s="8"/>
+      <c r="AAV41" s="8"/>
+      <c r="AAW41" s="8"/>
+      <c r="AAX41" s="8"/>
+      <c r="AAY41" s="8"/>
+      <c r="AAZ41" s="8"/>
+      <c r="ABA41" s="8"/>
+      <c r="ABB41" s="8"/>
+      <c r="ABC41" s="8"/>
+      <c r="ABD41" s="8"/>
+      <c r="ABE41" s="8"/>
+      <c r="ABF41" s="8"/>
+      <c r="ABG41" s="8"/>
+      <c r="ABH41" s="8"/>
+      <c r="ABI41" s="8"/>
+      <c r="ABJ41" s="8"/>
+      <c r="ABK41" s="8"/>
+      <c r="ABL41" s="8"/>
+      <c r="ABM41" s="8"/>
+      <c r="ABN41" s="8"/>
+      <c r="ABO41" s="8"/>
+      <c r="ABP41" s="8"/>
+      <c r="ABQ41" s="8"/>
+      <c r="ABR41" s="8"/>
+      <c r="ABS41" s="8"/>
+      <c r="ABT41" s="8"/>
+      <c r="ABU41" s="8"/>
+      <c r="ABV41" s="8"/>
+      <c r="ABW41" s="8"/>
+      <c r="ABX41" s="8"/>
+      <c r="ABY41" s="8"/>
+      <c r="ABZ41" s="8"/>
+      <c r="ACA41" s="8"/>
+      <c r="ACB41" s="8"/>
+      <c r="ACC41" s="8"/>
+      <c r="ACD41" s="8"/>
+      <c r="ACE41" s="8"/>
+      <c r="ACF41" s="8"/>
+      <c r="ACG41" s="8"/>
+      <c r="ACH41" s="8"/>
+      <c r="ACI41" s="8"/>
+      <c r="ACJ41" s="8"/>
+      <c r="ACK41" s="8"/>
+      <c r="ACL41" s="8"/>
+      <c r="ACM41" s="8"/>
+      <c r="ACN41" s="8"/>
+      <c r="ACO41" s="8"/>
+      <c r="ACP41" s="8"/>
+      <c r="ACQ41" s="8"/>
+      <c r="ACR41" s="8"/>
+      <c r="ACS41" s="8"/>
+      <c r="ACT41" s="8"/>
+      <c r="ACU41" s="8"/>
+      <c r="ACV41" s="8"/>
+      <c r="ACW41" s="8"/>
+      <c r="ACX41" s="8"/>
+      <c r="ACY41" s="8"/>
+      <c r="ACZ41" s="8"/>
+      <c r="ADA41" s="8"/>
+      <c r="ADB41" s="8"/>
+      <c r="ADC41" s="8"/>
+      <c r="ADD41" s="8"/>
+      <c r="ADE41" s="8"/>
+      <c r="ADF41" s="8"/>
+      <c r="ADG41" s="8"/>
+      <c r="ADH41" s="8"/>
+      <c r="ADI41" s="8"/>
+      <c r="ADJ41" s="8"/>
+      <c r="ADK41" s="8"/>
+      <c r="ADL41" s="8"/>
+      <c r="ADM41" s="8"/>
+      <c r="ADN41" s="8"/>
+      <c r="ADO41" s="8"/>
+      <c r="ADP41" s="8"/>
+      <c r="ADQ41" s="8"/>
+      <c r="ADR41" s="8"/>
+      <c r="ADS41" s="8"/>
+      <c r="ADT41" s="8"/>
+      <c r="ADU41" s="8"/>
+      <c r="ADV41" s="8"/>
+      <c r="ADW41" s="8"/>
+      <c r="ADX41" s="8"/>
+      <c r="ADY41" s="8"/>
+      <c r="ADZ41" s="8"/>
+      <c r="AEA41" s="8"/>
+      <c r="AEB41" s="8"/>
+      <c r="AEC41" s="8"/>
+      <c r="AED41" s="8"/>
+      <c r="AEE41" s="8"/>
+      <c r="AEF41" s="8"/>
+      <c r="AEG41" s="8"/>
+      <c r="AEH41" s="8"/>
+      <c r="AEI41" s="8"/>
+      <c r="AEJ41" s="8"/>
+      <c r="AEK41" s="8"/>
+      <c r="AEL41" s="8"/>
+      <c r="AEM41" s="8"/>
+      <c r="AEN41" s="8"/>
+      <c r="AEO41" s="8"/>
+      <c r="AEP41" s="8"/>
+      <c r="AEQ41" s="8"/>
+      <c r="AER41" s="8"/>
+      <c r="AES41" s="8"/>
+      <c r="AET41" s="8"/>
+      <c r="AEU41" s="8"/>
+      <c r="AEV41" s="8"/>
+      <c r="AEW41" s="8"/>
+      <c r="AEX41" s="8"/>
+      <c r="AEY41" s="8"/>
+      <c r="AEZ41" s="8"/>
+      <c r="AFA41" s="8"/>
+      <c r="AFB41" s="8"/>
+      <c r="AFC41" s="8"/>
+      <c r="AFD41" s="8"/>
+      <c r="AFE41" s="8"/>
+      <c r="AFF41" s="8"/>
+      <c r="AFG41" s="8"/>
+      <c r="AFH41" s="8"/>
+      <c r="AFI41" s="8"/>
+      <c r="AFJ41" s="8"/>
+      <c r="AFK41" s="8"/>
+      <c r="AFL41" s="8"/>
+      <c r="AFM41" s="8"/>
+      <c r="AFN41" s="8"/>
+      <c r="AFO41" s="8"/>
+      <c r="AFP41" s="8"/>
+      <c r="AFQ41" s="8"/>
+      <c r="AFR41" s="8"/>
+      <c r="AFS41" s="8"/>
+      <c r="AFT41" s="8"/>
+      <c r="AFU41" s="8"/>
+      <c r="AFV41" s="8"/>
+      <c r="AFW41" s="8"/>
+      <c r="AFX41" s="8"/>
+      <c r="AFY41" s="8"/>
+      <c r="AFZ41" s="8"/>
+      <c r="AGA41" s="8"/>
+      <c r="AGB41" s="8"/>
+      <c r="AGC41" s="8"/>
+      <c r="AGD41" s="8"/>
+      <c r="AGE41" s="8"/>
+      <c r="AGF41" s="8"/>
+      <c r="AGG41" s="8"/>
+      <c r="AGH41" s="8"/>
+      <c r="AGI41" s="8"/>
+      <c r="AGJ41" s="8"/>
+      <c r="AGK41" s="8"/>
+      <c r="AGL41" s="8"/>
+      <c r="AGM41" s="8"/>
+      <c r="AGN41" s="8"/>
+      <c r="AGO41" s="8"/>
+      <c r="AGP41" s="8"/>
+      <c r="AGQ41" s="8"/>
+      <c r="AGR41" s="8"/>
+      <c r="AGS41" s="8"/>
+      <c r="AGT41" s="8"/>
+      <c r="AGU41" s="8"/>
+      <c r="AGV41" s="8"/>
+      <c r="AGW41" s="8"/>
+      <c r="AGX41" s="8"/>
+      <c r="AGY41" s="8"/>
+      <c r="AGZ41" s="8"/>
+      <c r="AHA41" s="8"/>
+      <c r="AHB41" s="8"/>
+      <c r="AHC41" s="8"/>
+      <c r="AHD41" s="8"/>
+      <c r="AHE41" s="8"/>
+      <c r="AHF41" s="8"/>
+      <c r="AHG41" s="8"/>
+      <c r="AHH41" s="8"/>
+      <c r="AHI41" s="8"/>
+      <c r="AHJ41" s="8"/>
+      <c r="AHK41" s="8"/>
+      <c r="AHL41" s="8"/>
+      <c r="AHM41" s="8"/>
+      <c r="AHN41" s="8"/>
+      <c r="AHO41" s="8"/>
+      <c r="AHP41" s="8"/>
+      <c r="AHQ41" s="8"/>
+      <c r="AHR41" s="8"/>
+      <c r="AHS41" s="8"/>
+      <c r="AHT41" s="8"/>
+      <c r="AHU41" s="8"/>
+      <c r="AHV41" s="8"/>
+      <c r="AHW41" s="8"/>
+      <c r="AHX41" s="8"/>
+      <c r="AHY41" s="8"/>
+      <c r="AHZ41" s="8"/>
+      <c r="AIA41" s="8"/>
+      <c r="AIB41" s="8"/>
+      <c r="AIC41" s="8"/>
+      <c r="AID41" s="8"/>
+      <c r="AIE41" s="8"/>
+      <c r="AIF41" s="8"/>
+      <c r="AIG41" s="8"/>
+      <c r="AIH41" s="8"/>
+      <c r="AII41" s="8"/>
+      <c r="AIJ41" s="8"/>
+      <c r="AIK41" s="8"/>
+      <c r="AIL41" s="8"/>
+      <c r="AIM41" s="8"/>
+      <c r="AIN41" s="8"/>
+      <c r="AIO41" s="8"/>
+      <c r="AIP41" s="8"/>
+      <c r="AIQ41" s="8"/>
+      <c r="AIR41" s="8"/>
+      <c r="AIS41" s="8"/>
+      <c r="AIT41" s="8"/>
+      <c r="AIU41" s="8"/>
+      <c r="AIV41" s="8"/>
+      <c r="AIW41" s="8"/>
+      <c r="AIX41" s="8"/>
+      <c r="AIY41" s="8"/>
+      <c r="AIZ41" s="8"/>
+      <c r="AJA41" s="8"/>
+      <c r="AJB41" s="8"/>
+      <c r="AJC41" s="8"/>
+      <c r="AJD41" s="8"/>
+      <c r="AJE41" s="8"/>
+      <c r="AJF41" s="8"/>
+      <c r="AJG41" s="8"/>
+      <c r="AJH41" s="8"/>
+      <c r="AJI41" s="8"/>
+      <c r="AJJ41" s="8"/>
+      <c r="AJK41" s="8"/>
+      <c r="AJL41" s="8"/>
+      <c r="AJM41" s="8"/>
+      <c r="AJN41" s="8"/>
+      <c r="AJO41" s="8"/>
+      <c r="AJP41" s="8"/>
+      <c r="AJQ41" s="8"/>
+      <c r="AJR41" s="8"/>
+      <c r="AJS41" s="8"/>
+      <c r="AJT41" s="8"/>
+      <c r="AJU41" s="8"/>
+      <c r="AJV41" s="8"/>
+      <c r="AJW41" s="8"/>
+      <c r="AJX41" s="8"/>
+      <c r="AJY41" s="8"/>
+      <c r="AJZ41" s="8"/>
+      <c r="AKA41" s="8"/>
+      <c r="AKB41" s="8"/>
+      <c r="AKC41" s="8"/>
+      <c r="AKD41" s="8"/>
+      <c r="AKE41" s="8"/>
+      <c r="AKF41" s="8"/>
+      <c r="AKG41" s="8"/>
+      <c r="AKH41" s="8"/>
+      <c r="AKI41" s="8"/>
+      <c r="AKJ41" s="8"/>
+      <c r="AKK41" s="8"/>
+      <c r="AKL41" s="8"/>
+      <c r="AKM41" s="8"/>
+      <c r="AKN41" s="8"/>
+      <c r="AKO41" s="8"/>
+      <c r="AKP41" s="8"/>
+      <c r="AKQ41" s="8"/>
+      <c r="AKR41" s="8"/>
+      <c r="AKS41" s="8"/>
+      <c r="AKT41" s="8"/>
+      <c r="AKU41" s="8"/>
+      <c r="AKV41" s="8"/>
+      <c r="AKW41" s="8"/>
+      <c r="AKX41" s="8"/>
+      <c r="AKY41" s="8"/>
+      <c r="AKZ41" s="8"/>
+      <c r="ALA41" s="8"/>
+      <c r="ALB41" s="8"/>
+      <c r="ALC41" s="8"/>
+      <c r="ALD41" s="8"/>
+      <c r="ALE41" s="8"/>
+      <c r="ALF41" s="8"/>
+      <c r="ALG41" s="8"/>
+      <c r="ALH41" s="8"/>
+      <c r="ALI41" s="8"/>
+      <c r="ALJ41" s="8"/>
+      <c r="ALK41" s="8"/>
+      <c r="ALL41" s="8"/>
+      <c r="ALM41" s="8"/>
+      <c r="ALN41" s="8"/>
+      <c r="ALO41" s="8"/>
+      <c r="ALP41" s="8"/>
+      <c r="ALQ41" s="8"/>
+      <c r="ALR41" s="8"/>
+      <c r="ALS41" s="8"/>
+      <c r="ALT41" s="8"/>
+      <c r="ALU41" s="8"/>
+      <c r="ALV41" s="8"/>
+      <c r="ALW41" s="8"/>
+      <c r="ALX41" s="8"/>
+      <c r="ALY41" s="8"/>
+      <c r="ALZ41" s="8"/>
+      <c r="AMA41" s="8"/>
+      <c r="AMB41" s="8"/>
+      <c r="AMC41" s="8"/>
+      <c r="AMD41" s="8"/>
+      <c r="AME41" s="8"/>
+      <c r="AMF41" s="8"/>
+      <c r="AMG41" s="8"/>
+      <c r="AMH41" s="8"/>
+      <c r="AMI41" s="8"/>
+      <c r="AMJ41" s="8"/>
+      <c r="AMK41" s="8"/>
+    </row>
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="8"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="33"/>
@@ -3611,9 +4732,12 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="33"/>
@@ -3622,9 +4746,9 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -3633,8 +4757,8 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="9"/>
@@ -3644,9 +4768,9 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>77</v>
+    <row r="47" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -3655,9 +4779,9 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -3667,55 +4791,47 @@
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="A49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="A51" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="9"/>
+        <v>79</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -3724,10 +4840,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3735,10 +4855,8 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="8"/>
+        <v>82</v>
+      </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -3746,10 +4864,8 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="8"/>
+        <v>80</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -3757,10 +4873,8 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="8"/>
+        <v>88</v>
+      </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -3768,72 +4882,81 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>84</v>
+      <c r="A59" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>15</v>
+      <c r="A60" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>95</v>
+      <c r="G61" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +4969,7 @@
   <dimension ref="A1:AMK67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +5483,7 @@
     </row>
     <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5389,12 +6512,12 @@
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="11">
         <f>22/156</f>
@@ -5459,86 +6582,206 @@
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.39</v>
+      </c>
       <c r="W15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="B18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -5714,12 +6957,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="31">
-        <f>44/398</f>
-        <v>0.11055276381909548</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B37" s="31"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -5727,11 +6967,9 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="32">
-        <v>7.5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B38" s="32"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -5743,11 +6981,9 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="32">
-        <v>0.96899999999999997</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B40" s="32"/>
       <c r="C40" s="4"/>
       <c r="K40" s="9"/>
     </row>
@@ -5773,7 +7009,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="33"/>
       <c r="V43" s="10"/>
@@ -5783,7 +7019,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="33"/>
       <c r="V44" s="10"/>
@@ -5793,33 +7029,33 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>42</v>
@@ -5827,20 +7063,17 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0.27800000000000002</v>
+        <v>81</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>8</v>
@@ -5848,87 +7081,82 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0.46700000000000003</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.30399999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="N10" formula="1"/>
   </ignoredErrors>
@@ -5940,12 +7168,12 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -5957,7 +7185,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6006,10 +7236,10 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6020,10 +7250,10 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6034,10 +7264,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6085,69 +7315,57 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6165,7 +7383,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -6285,11 +7503,9 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="6"/>
       <c r="F37" s="9"/>
       <c r="G37" s="31"/>
@@ -6300,14 +7516,9 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="F38" s="9"/>
       <c r="G38" s="32"/>
       <c r="H38" s="8"/>
@@ -6329,14 +7540,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="34"/>
       <c r="F40" s="9"/>
       <c r="G40" s="32"/>
       <c r="H40" s="8"/>
@@ -6380,7 +7587,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -6394,7 +7601,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="33"/>
@@ -6405,7 +7612,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -6416,7 +7623,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="33"/>
@@ -6427,7 +7634,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -6438,7 +7645,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -6449,13 +7656,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>42</v>
@@ -6466,7 +7673,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
@@ -6477,7 +7684,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="8"/>
@@ -6488,14 +7695,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="9"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -6505,7 +7708,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="8"/>
@@ -6516,7 +7719,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
@@ -6527,7 +7730,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
@@ -6538,7 +7741,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="8"/>
@@ -6549,44 +7752,36 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>15</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -6594,27 +7789,27 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6626,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7141,53 +8336,23 @@
     </row>
     <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9">
-        <v>717555</v>
-      </c>
-      <c r="C12" s="9">
-        <v>788109</v>
-      </c>
-      <c r="D12" s="9">
-        <v>834650</v>
-      </c>
-      <c r="E12" s="9">
-        <v>876869</v>
-      </c>
-      <c r="F12" s="9">
-        <v>866690</v>
-      </c>
-      <c r="G12" s="9">
-        <v>904668</v>
-      </c>
-      <c r="H12" s="9">
-        <v>901797</v>
-      </c>
-      <c r="I12" s="9">
-        <v>937806</v>
-      </c>
-      <c r="J12" s="9">
-        <v>982396</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1083783</v>
-      </c>
-      <c r="L12" s="9">
-        <v>973020</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1049066</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1005895</v>
-      </c>
-      <c r="O12" s="9">
-        <v>953924</v>
-      </c>
-      <c r="P12" s="9">
-        <v>958682</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8200,182 +9365,137 @@
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5.116795146E-2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5.545251382E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>6.4058763709999994E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>6.3038341819999996E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>6.9081833790000005E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.2866838119999999E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>8.1495325930000001E-2</v>
-      </c>
-      <c r="I13" s="8">
-        <v>8.2100477039999994E-2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>8.4872943630000003E-2</v>
-      </c>
-      <c r="K13" s="8">
-        <v>8.1556849720000005E-2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>9.3080891629999996E-2</v>
-      </c>
-      <c r="M13" s="8">
-        <v>9.1138155499999998E-2</v>
-      </c>
-      <c r="N13" s="8">
-        <v>9.7227641840000004E-2</v>
-      </c>
-      <c r="O13" s="8">
-        <v>9.4034273060000007E-2</v>
-      </c>
-      <c r="P13" s="8">
-        <v>9.8938662489999996E-2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B14" s="11">
-        <f>29/156</f>
-        <v>0.1858974358974359</v>
+        <f>23/99</f>
+        <v>0.23232323232323232</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:P14" si="0">29/156</f>
-        <v>0.1858974358974359</v>
+        <f t="shared" ref="C14:P14" si="0">23/99</f>
+        <v>0.23232323232323232</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
-      </c>
-      <c r="L14" s="11">
+        <v>0.23232323232323232</v>
+      </c>
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
-      </c>
-      <c r="N14" s="8">
+        <v>0.23232323232323232</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.23232323232323232</v>
       </c>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12">
-        <f>33/209</f>
-        <v>0.15789473684210525</v>
+        <v>100</v>
+      </c>
+      <c r="B15" s="9">
+        <f>635/1466</f>
+        <v>0.43315143246930421</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:P15" si="1">33/209</f>
-        <v>0.15789473684210525</v>
+        <f t="shared" ref="C15:P15" si="1">635/1466</f>
+        <v>0.43315143246930421</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="H15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="L15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="N15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="O15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="P15" s="12">
         <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
+        <v>0.43315143246930421</v>
       </c>
       <c r="W15" s="8" t="s">
         <v>8</v>
@@ -8383,197 +9503,197 @@
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12">
-        <f>52/209</f>
-        <v>0.24880382775119617</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="9">
+        <f>62/1466</f>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" ref="C16:P16" si="2">52/209</f>
-        <v>0.24880382775119617</v>
+        <f t="shared" ref="C16:P16" si="2">62/1466</f>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="E16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="L16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="N16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="O16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
       <c r="P16" s="12">
         <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
+        <v>4.229195088676671E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="12">
-        <f>22/209</f>
-        <v>0.10526315789473684</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="9">
+        <f>106/1466</f>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:P17" si="3">22/209</f>
-        <v>0.10526315789473684</v>
+        <f t="shared" ref="C17:P17" si="3">106/1466</f>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="L17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="N17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
       <c r="P17" s="12">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>7.2305593451568895E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="13">
-        <f>6/56</f>
-        <v>0.10714285714285714</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="30">
+        <f>52/1466</f>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="C18" s="13">
-        <f t="shared" ref="C18:P18" si="4">6/56</f>
-        <v>0.10714285714285714</v>
+        <f t="shared" ref="C18:P18" si="4">52/1466</f>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="N18" s="30">
+        <v>3.5470668485675309E-2</v>
+      </c>
+      <c r="N18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
+        <v>3.5470668485675309E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -8750,12 +9870,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="31">
-        <f>44/398</f>
-        <v>0.11055276381909548</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B37" s="31"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -8763,11 +9880,9 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="32">
-        <v>7.5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B38" s="32"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -8779,11 +9894,9 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="32">
-        <v>0.96899999999999997</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B40" s="32"/>
       <c r="C40" s="4"/>
       <c r="K40" s="9"/>
     </row>
@@ -8809,7 +9922,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="33"/>
       <c r="V43" s="10"/>
@@ -8819,7 +9932,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="33"/>
       <c r="V44" s="10"/>
@@ -8829,54 +9942,51 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="E49" s="10" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0.27800000000000002</v>
+        <v>81</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>8</v>
@@ -8884,83 +9994,77 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0.46700000000000003</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.30399999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8973,12 +10077,12 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -8990,7 +10094,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -9039,10 +10145,10 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9053,10 +10159,10 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9067,10 +10173,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9081,10 +10187,10 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9118,79 +10224,72 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -9208,7 +10307,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -9328,11 +10427,9 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>70</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="6"/>
       <c r="F37" s="9"/>
       <c r="G37" s="31"/>
@@ -9343,14 +10440,9 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="F38" s="9"/>
       <c r="G38" s="32"/>
       <c r="H38" s="8"/>
@@ -9372,14 +10464,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>74</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="34"/>
       <c r="F40" s="9"/>
       <c r="G40" s="32"/>
       <c r="H40" s="8"/>
@@ -9423,7 +10511,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -9437,7 +10525,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="33"/>
@@ -9448,7 +10536,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -9459,7 +10547,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="33"/>
@@ -9470,7 +10558,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -9481,7 +10569,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -9492,16 +10580,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="H49" s="10" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -9509,7 +10597,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
@@ -9520,7 +10608,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="8"/>
@@ -9531,14 +10619,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="9"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -9548,7 +10632,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="8"/>
@@ -9559,7 +10643,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
@@ -9570,7 +10654,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
@@ -9581,7 +10665,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="8"/>
@@ -9592,44 +10676,36 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>15</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -9637,27 +10713,27 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9670,7 +10746,7 @@
   <dimension ref="A1:AMK67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10184,53 +11260,23 @@
     </row>
     <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9">
-        <v>717555</v>
-      </c>
-      <c r="C12" s="9">
-        <v>788109</v>
-      </c>
-      <c r="D12" s="9">
-        <v>834650</v>
-      </c>
-      <c r="E12" s="9">
-        <v>876869</v>
-      </c>
-      <c r="F12" s="9">
-        <v>866690</v>
-      </c>
-      <c r="G12" s="9">
-        <v>904668</v>
-      </c>
-      <c r="H12" s="9">
-        <v>901797</v>
-      </c>
-      <c r="I12" s="9">
-        <v>937806</v>
-      </c>
-      <c r="J12" s="9">
-        <v>982396</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1083783</v>
-      </c>
-      <c r="L12" s="9">
-        <v>973020</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1049066</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1005895</v>
-      </c>
-      <c r="O12" s="9">
-        <v>953924</v>
-      </c>
-      <c r="P12" s="9">
-        <v>958682</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -11243,381 +12289,156 @@
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5.116795146E-2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5.545251382E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>6.4058763709999994E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>6.3038341819999996E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>6.9081833790000005E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>7.2866838119999999E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>8.1495325930000001E-2</v>
-      </c>
-      <c r="I13" s="8">
-        <v>8.2100477039999994E-2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>8.4872943630000003E-2</v>
-      </c>
-      <c r="K13" s="8">
-        <v>8.1556849720000005E-2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>9.3080891629999996E-2</v>
-      </c>
-      <c r="M13" s="8">
-        <v>9.1138155499999998E-2</v>
-      </c>
-      <c r="N13" s="8">
-        <v>9.7227641840000004E-2</v>
-      </c>
-      <c r="O13" s="8">
-        <v>9.4034273060000007E-2</v>
-      </c>
-      <c r="P13" s="8">
-        <v>9.8938662489999996E-2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="11">
-        <f>29/156</f>
-        <v>0.1858974358974359</v>
+        <v>125</v>
+      </c>
+      <c r="B14" s="8">
+        <f>11/99</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:P14" si="0">29/156</f>
-        <v>0.1858974358974359</v>
+        <f t="shared" ref="C14:P14" si="0">11/99</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
-      </c>
-      <c r="N14" s="8">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="0"/>
-        <v>0.1858974358974359</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12">
-        <f>33/209</f>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:P15" si="1">33/209</f>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="L15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="P15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210525</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
       <c r="W15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12">
-        <f>52/209</f>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" ref="C16:P16" si="2">52/209</f>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="L16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="M16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="N16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="O16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
-      <c r="P16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.24880382775119617</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="12">
-        <f>22/209</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" ref="C17:P17" si="3">22/209</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="K17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="L17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="M17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="N17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="O17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="P17" s="12">
-        <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="13">
-        <f>6/56</f>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" ref="C18:P18" si="4">6/56</f>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="N18" s="30">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.10714285714285714</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -11793,12 +12614,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="31">
-        <f>44/398</f>
-        <v>0.11055276381909548</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B37" s="31"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -11806,11 +12624,9 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="32">
-        <v>7.5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B38" s="32"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -11822,11 +12638,9 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="32">
-        <v>0.96899999999999997</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B40" s="32"/>
       <c r="C40" s="4"/>
       <c r="K40" s="9"/>
     </row>
@@ -11852,7 +12666,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="33"/>
       <c r="V43" s="10"/>
@@ -11862,7 +12676,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="33"/>
       <c r="V44" s="10"/>
@@ -11872,54 +12686,43 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0.27800000000000002</v>
+        <v>81</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>8</v>
@@ -11927,83 +12730,77 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0.46700000000000003</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.30399999999999999</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -12016,12 +12813,12 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -12033,7 +12830,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -12081,12 +12880,7 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -12095,12 +12889,7 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -12109,12 +12898,7 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -12123,12 +12907,7 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -12161,79 +12940,45 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -12251,7 +12996,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -12371,11 +13116,9 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>70</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="6"/>
       <c r="F37" s="9"/>
       <c r="G37" s="31"/>
@@ -12386,14 +13129,9 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="F38" s="9"/>
       <c r="G38" s="32"/>
       <c r="H38" s="8"/>
@@ -12415,14 +13153,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>74</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="34"/>
       <c r="F40" s="9"/>
       <c r="G40" s="32"/>
       <c r="H40" s="8"/>
@@ -12466,7 +13200,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -12480,7 +13214,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="33"/>
@@ -12491,7 +13225,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -12502,7 +13236,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="33"/>
@@ -12513,7 +13247,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -12524,7 +13258,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -12535,13 +13269,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>42</v>
@@ -12552,7 +13286,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
@@ -12563,7 +13297,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="8"/>
@@ -12574,14 +13308,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="9"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -12591,7 +13321,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="8"/>
@@ -12602,7 +13332,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
@@ -12613,7 +13343,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
@@ -12624,7 +13354,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="8"/>
@@ -12635,44 +13365,36 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>15</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -12680,27 +13402,27 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/CBP_params.xlsx
+++ b/CBP_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pneumonia-Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="215">
   <si>
     <t>Van Hollebeke, 2016</t>
   </si>
@@ -129,9 +129,6 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated from CDDEP data using World Bank population, dosing, and pneumonia prevalence estimates </t>
-  </si>
-  <si>
     <t>Reduction by year n</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>Cost of alternative (1 dose)</t>
   </si>
   <si>
-    <t>N (0.969, 0.046)</t>
-  </si>
-  <si>
     <t>Proportion on CBP combination therapy</t>
   </si>
   <si>
@@ -652,6 +646,36 @@
   </si>
   <si>
     <t>2014 data (acute care hospitals + long-term acute care )- central line associated only</t>
+  </si>
+  <si>
+    <t>https://www.drugs.com/condition/urinary-tract-infection.html</t>
+  </si>
+  <si>
+    <t>Median= 114; Range = (66,135)</t>
+  </si>
+  <si>
+    <t>Treatment duration (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated from CDDEP data using World Bank population, dosing, treatment duration, and pneumonia prevalence estimates </t>
+  </si>
+  <si>
+    <t>N (0.969, 0.046) (non-VAP)</t>
+  </si>
+  <si>
+    <t>Average life expectancy in the US</t>
+  </si>
+  <si>
+    <t>Life expec</t>
+  </si>
+  <si>
+    <t>Average age at death (pneumonia)</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/nchs/data/hus/hus15.pdf#015</t>
+  </si>
+  <si>
+    <t>2014 data</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK86"/>
+  <dimension ref="A1:AMK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10">
         <v>2000</v>
@@ -1243,7 +1267,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="50">
         <v>2486</v>
@@ -1293,7 +1317,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="50">
         <v>323.18</v>
@@ -1345,7 +1369,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -1367,7 +1391,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -1395,7 +1419,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -1423,7 +1447,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" s="50">
         <v>3230</v>
@@ -1473,7 +1497,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="50">
         <v>0</v>
@@ -1525,7 +1549,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -1545,7 +1569,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -1571,7 +1595,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -1597,7 +1621,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="50">
         <v>681</v>
@@ -1647,7 +1671,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="51">
         <v>61.29</v>
@@ -1699,7 +1723,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M15" s="9">
         <v>63.5</v>
@@ -1710,7 +1734,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M16" s="9">
         <v>69</v>
@@ -1727,7 +1751,7 @@
     </row>
     <row r="17" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M17" s="9">
         <v>57.2</v>
@@ -1744,7 +1768,7 @@
     </row>
     <row r="18" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" s="51">
         <v>2184</v>
@@ -1795,7 +1819,7 @@
     </row>
     <row r="19" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="51">
         <v>0</v>
@@ -1850,7 +1874,7 @@
     </row>
     <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M20" s="9">
         <v>1.9</v>
@@ -1861,7 +1885,7 @@
     </row>
     <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M21" s="9">
         <v>3.9</v>
@@ -1878,7 +1902,7 @@
     </row>
     <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M22" s="9">
         <v>3</v>
@@ -1895,7 +1919,7 @@
     </row>
     <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" s="51">
         <v>8228</v>
@@ -1945,7 +1969,7 @@
     </row>
     <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" s="51">
         <v>0</v>
@@ -1998,7 +2022,7 @@
     </row>
     <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M25" s="9">
         <v>1.1000000000000001</v>
@@ -2009,7 +2033,7 @@
     </row>
     <row r="26" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M26" s="9">
         <v>1.2</v>
@@ -2026,7 +2050,7 @@
     </row>
     <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M27" s="9">
         <v>1.3</v>
@@ -2062,53 +2086,11 @@
       <c r="P28" s="27"/>
     </row>
     <row r="29" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="9">
-        <v>717555</v>
-      </c>
-      <c r="C29" s="9">
-        <v>788109</v>
-      </c>
-      <c r="D29" s="9">
-        <v>834650</v>
-      </c>
-      <c r="E29" s="9">
-        <v>876869</v>
-      </c>
-      <c r="F29" s="9">
-        <v>866690</v>
-      </c>
-      <c r="G29" s="9">
-        <v>904668</v>
-      </c>
-      <c r="H29" s="9">
-        <v>901797</v>
-      </c>
-      <c r="I29" s="9">
-        <v>937806</v>
-      </c>
-      <c r="J29" s="9">
-        <v>982396</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1083783</v>
-      </c>
-      <c r="L29" s="9">
-        <v>973020</v>
-      </c>
-      <c r="M29" s="9">
-        <v>1049066</v>
-      </c>
-      <c r="N29" s="9">
-        <v>1005895</v>
-      </c>
-      <c r="O29" s="9">
-        <v>953924</v>
-      </c>
-      <c r="P29" s="9">
-        <v>958682</v>
+      <c r="A29" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="20">
+        <v>7.5</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
@@ -3120,156 +3102,1189 @@
       <c r="AMJ29" s="9"/>
       <c r="AMK29" s="9"/>
     </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9">
-        <v>5.116795146E-2</v>
+        <v>717555</v>
       </c>
       <c r="C30" s="9">
-        <v>5.545251382E-2</v>
+        <v>788109</v>
       </c>
       <c r="D30" s="9">
-        <v>6.4058763709999994E-2</v>
+        <v>834650</v>
       </c>
       <c r="E30" s="9">
-        <v>6.3038341819999996E-2</v>
+        <v>876869</v>
       </c>
       <c r="F30" s="9">
-        <v>6.9081833790000005E-2</v>
+        <v>866690</v>
       </c>
       <c r="G30" s="9">
-        <v>7.2866838119999999E-2</v>
+        <v>904668</v>
       </c>
       <c r="H30" s="9">
-        <v>8.1495325930000001E-2</v>
+        <v>901797</v>
       </c>
       <c r="I30" s="9">
-        <v>8.2100477039999994E-2</v>
+        <v>937806</v>
       </c>
       <c r="J30" s="9">
-        <v>8.4872943630000003E-2</v>
+        <v>982396</v>
       </c>
       <c r="K30" s="9">
-        <v>8.1556849720000005E-2</v>
+        <v>1083783</v>
       </c>
       <c r="L30" s="9">
-        <v>9.3080891629999996E-2</v>
+        <v>973020</v>
       </c>
       <c r="M30" s="9">
-        <v>9.1138155499999998E-2</v>
+        <v>1049066</v>
       </c>
       <c r="N30" s="9">
-        <v>9.7227641840000004E-2</v>
+        <v>1005895</v>
       </c>
       <c r="O30" s="9">
-        <v>9.4034273060000007E-2</v>
+        <v>953924</v>
       </c>
       <c r="P30" s="9">
-        <v>9.8938662489999996E-2</v>
-      </c>
+        <v>958682</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="9"/>
+      <c r="BE30" s="9"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="9"/>
+      <c r="BH30" s="9"/>
+      <c r="BI30" s="9"/>
+      <c r="BJ30" s="9"/>
+      <c r="BK30" s="9"/>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="9"/>
+      <c r="BN30" s="9"/>
+      <c r="BO30" s="9"/>
+      <c r="BP30" s="9"/>
+      <c r="BQ30" s="9"/>
+      <c r="BR30" s="9"/>
+      <c r="BS30" s="9"/>
+      <c r="BT30" s="9"/>
+      <c r="BU30" s="9"/>
+      <c r="BV30" s="9"/>
+      <c r="BW30" s="9"/>
+      <c r="BX30" s="9"/>
+      <c r="BY30" s="9"/>
+      <c r="BZ30" s="9"/>
+      <c r="CA30" s="9"/>
+      <c r="CB30" s="9"/>
+      <c r="CC30" s="9"/>
+      <c r="CD30" s="9"/>
+      <c r="CE30" s="9"/>
+      <c r="CF30" s="9"/>
+      <c r="CG30" s="9"/>
+      <c r="CH30" s="9"/>
+      <c r="CI30" s="9"/>
+      <c r="CJ30" s="9"/>
+      <c r="CK30" s="9"/>
+      <c r="CL30" s="9"/>
+      <c r="CM30" s="9"/>
+      <c r="CN30" s="9"/>
+      <c r="CO30" s="9"/>
+      <c r="CP30" s="9"/>
+      <c r="CQ30" s="9"/>
+      <c r="CR30" s="9"/>
+      <c r="CS30" s="9"/>
+      <c r="CT30" s="9"/>
+      <c r="CU30" s="9"/>
+      <c r="CV30" s="9"/>
+      <c r="CW30" s="9"/>
+      <c r="CX30" s="9"/>
+      <c r="CY30" s="9"/>
+      <c r="CZ30" s="9"/>
+      <c r="DA30" s="9"/>
+      <c r="DB30" s="9"/>
+      <c r="DC30" s="9"/>
+      <c r="DD30" s="9"/>
+      <c r="DE30" s="9"/>
+      <c r="DF30" s="9"/>
+      <c r="DG30" s="9"/>
+      <c r="DH30" s="9"/>
+      <c r="DI30" s="9"/>
+      <c r="DJ30" s="9"/>
+      <c r="DK30" s="9"/>
+      <c r="DL30" s="9"/>
+      <c r="DM30" s="9"/>
+      <c r="DN30" s="9"/>
+      <c r="DO30" s="9"/>
+      <c r="DP30" s="9"/>
+      <c r="DQ30" s="9"/>
+      <c r="DR30" s="9"/>
+      <c r="DS30" s="9"/>
+      <c r="DT30" s="9"/>
+      <c r="DU30" s="9"/>
+      <c r="DV30" s="9"/>
+      <c r="DW30" s="9"/>
+      <c r="DX30" s="9"/>
+      <c r="DY30" s="9"/>
+      <c r="DZ30" s="9"/>
+      <c r="EA30" s="9"/>
+      <c r="EB30" s="9"/>
+      <c r="EC30" s="9"/>
+      <c r="ED30" s="9"/>
+      <c r="EE30" s="9"/>
+      <c r="EF30" s="9"/>
+      <c r="EG30" s="9"/>
+      <c r="EH30" s="9"/>
+      <c r="EI30" s="9"/>
+      <c r="EJ30" s="9"/>
+      <c r="EK30" s="9"/>
+      <c r="EL30" s="9"/>
+      <c r="EM30" s="9"/>
+      <c r="EN30" s="9"/>
+      <c r="EO30" s="9"/>
+      <c r="EP30" s="9"/>
+      <c r="EQ30" s="9"/>
+      <c r="ER30" s="9"/>
+      <c r="ES30" s="9"/>
+      <c r="ET30" s="9"/>
+      <c r="EU30" s="9"/>
+      <c r="EV30" s="9"/>
+      <c r="EW30" s="9"/>
+      <c r="EX30" s="9"/>
+      <c r="EY30" s="9"/>
+      <c r="EZ30" s="9"/>
+      <c r="FA30" s="9"/>
+      <c r="FB30" s="9"/>
+      <c r="FC30" s="9"/>
+      <c r="FD30" s="9"/>
+      <c r="FE30" s="9"/>
+      <c r="FF30" s="9"/>
+      <c r="FG30" s="9"/>
+      <c r="FH30" s="9"/>
+      <c r="FI30" s="9"/>
+      <c r="FJ30" s="9"/>
+      <c r="FK30" s="9"/>
+      <c r="FL30" s="9"/>
+      <c r="FM30" s="9"/>
+      <c r="FN30" s="9"/>
+      <c r="FO30" s="9"/>
+      <c r="FP30" s="9"/>
+      <c r="FQ30" s="9"/>
+      <c r="FR30" s="9"/>
+      <c r="FS30" s="9"/>
+      <c r="FT30" s="9"/>
+      <c r="FU30" s="9"/>
+      <c r="FV30" s="9"/>
+      <c r="FW30" s="9"/>
+      <c r="FX30" s="9"/>
+      <c r="FY30" s="9"/>
+      <c r="FZ30" s="9"/>
+      <c r="GA30" s="9"/>
+      <c r="GB30" s="9"/>
+      <c r="GC30" s="9"/>
+      <c r="GD30" s="9"/>
+      <c r="GE30" s="9"/>
+      <c r="GF30" s="9"/>
+      <c r="GG30" s="9"/>
+      <c r="GH30" s="9"/>
+      <c r="GI30" s="9"/>
+      <c r="GJ30" s="9"/>
+      <c r="GK30" s="9"/>
+      <c r="GL30" s="9"/>
+      <c r="GM30" s="9"/>
+      <c r="GN30" s="9"/>
+      <c r="GO30" s="9"/>
+      <c r="GP30" s="9"/>
+      <c r="GQ30" s="9"/>
+      <c r="GR30" s="9"/>
+      <c r="GS30" s="9"/>
+      <c r="GT30" s="9"/>
+      <c r="GU30" s="9"/>
+      <c r="GV30" s="9"/>
+      <c r="GW30" s="9"/>
+      <c r="GX30" s="9"/>
+      <c r="GY30" s="9"/>
+      <c r="GZ30" s="9"/>
+      <c r="HA30" s="9"/>
+      <c r="HB30" s="9"/>
+      <c r="HC30" s="9"/>
+      <c r="HD30" s="9"/>
+      <c r="HE30" s="9"/>
+      <c r="HF30" s="9"/>
+      <c r="HG30" s="9"/>
+      <c r="HH30" s="9"/>
+      <c r="HI30" s="9"/>
+      <c r="HJ30" s="9"/>
+      <c r="HK30" s="9"/>
+      <c r="HL30" s="9"/>
+      <c r="HM30" s="9"/>
+      <c r="HN30" s="9"/>
+      <c r="HO30" s="9"/>
+      <c r="HP30" s="9"/>
+      <c r="HQ30" s="9"/>
+      <c r="HR30" s="9"/>
+      <c r="HS30" s="9"/>
+      <c r="HT30" s="9"/>
+      <c r="HU30" s="9"/>
+      <c r="HV30" s="9"/>
+      <c r="HW30" s="9"/>
+      <c r="HX30" s="9"/>
+      <c r="HY30" s="9"/>
+      <c r="HZ30" s="9"/>
+      <c r="IA30" s="9"/>
+      <c r="IB30" s="9"/>
+      <c r="IC30" s="9"/>
+      <c r="ID30" s="9"/>
+      <c r="IE30" s="9"/>
+      <c r="IF30" s="9"/>
+      <c r="IG30" s="9"/>
+      <c r="IH30" s="9"/>
+      <c r="II30" s="9"/>
+      <c r="IJ30" s="9"/>
+      <c r="IK30" s="9"/>
+      <c r="IL30" s="9"/>
+      <c r="IM30" s="9"/>
+      <c r="IN30" s="9"/>
+      <c r="IO30" s="9"/>
+      <c r="IP30" s="9"/>
+      <c r="IQ30" s="9"/>
+      <c r="IR30" s="9"/>
+      <c r="IS30" s="9"/>
+      <c r="IT30" s="9"/>
+      <c r="IU30" s="9"/>
+      <c r="IV30" s="9"/>
+      <c r="IW30" s="9"/>
+      <c r="IX30" s="9"/>
+      <c r="IY30" s="9"/>
+      <c r="IZ30" s="9"/>
+      <c r="JA30" s="9"/>
+      <c r="JB30" s="9"/>
+      <c r="JC30" s="9"/>
+      <c r="JD30" s="9"/>
+      <c r="JE30" s="9"/>
+      <c r="JF30" s="9"/>
+      <c r="JG30" s="9"/>
+      <c r="JH30" s="9"/>
+      <c r="JI30" s="9"/>
+      <c r="JJ30" s="9"/>
+      <c r="JK30" s="9"/>
+      <c r="JL30" s="9"/>
+      <c r="JM30" s="9"/>
+      <c r="JN30" s="9"/>
+      <c r="JO30" s="9"/>
+      <c r="JP30" s="9"/>
+      <c r="JQ30" s="9"/>
+      <c r="JR30" s="9"/>
+      <c r="JS30" s="9"/>
+      <c r="JT30" s="9"/>
+      <c r="JU30" s="9"/>
+      <c r="JV30" s="9"/>
+      <c r="JW30" s="9"/>
+      <c r="JX30" s="9"/>
+      <c r="JY30" s="9"/>
+      <c r="JZ30" s="9"/>
+      <c r="KA30" s="9"/>
+      <c r="KB30" s="9"/>
+      <c r="KC30" s="9"/>
+      <c r="KD30" s="9"/>
+      <c r="KE30" s="9"/>
+      <c r="KF30" s="9"/>
+      <c r="KG30" s="9"/>
+      <c r="KH30" s="9"/>
+      <c r="KI30" s="9"/>
+      <c r="KJ30" s="9"/>
+      <c r="KK30" s="9"/>
+      <c r="KL30" s="9"/>
+      <c r="KM30" s="9"/>
+      <c r="KN30" s="9"/>
+      <c r="KO30" s="9"/>
+      <c r="KP30" s="9"/>
+      <c r="KQ30" s="9"/>
+      <c r="KR30" s="9"/>
+      <c r="KS30" s="9"/>
+      <c r="KT30" s="9"/>
+      <c r="KU30" s="9"/>
+      <c r="KV30" s="9"/>
+      <c r="KW30" s="9"/>
+      <c r="KX30" s="9"/>
+      <c r="KY30" s="9"/>
+      <c r="KZ30" s="9"/>
+      <c r="LA30" s="9"/>
+      <c r="LB30" s="9"/>
+      <c r="LC30" s="9"/>
+      <c r="LD30" s="9"/>
+      <c r="LE30" s="9"/>
+      <c r="LF30" s="9"/>
+      <c r="LG30" s="9"/>
+      <c r="LH30" s="9"/>
+      <c r="LI30" s="9"/>
+      <c r="LJ30" s="9"/>
+      <c r="LK30" s="9"/>
+      <c r="LL30" s="9"/>
+      <c r="LM30" s="9"/>
+      <c r="LN30" s="9"/>
+      <c r="LO30" s="9"/>
+      <c r="LP30" s="9"/>
+      <c r="LQ30" s="9"/>
+      <c r="LR30" s="9"/>
+      <c r="LS30" s="9"/>
+      <c r="LT30" s="9"/>
+      <c r="LU30" s="9"/>
+      <c r="LV30" s="9"/>
+      <c r="LW30" s="9"/>
+      <c r="LX30" s="9"/>
+      <c r="LY30" s="9"/>
+      <c r="LZ30" s="9"/>
+      <c r="MA30" s="9"/>
+      <c r="MB30" s="9"/>
+      <c r="MC30" s="9"/>
+      <c r="MD30" s="9"/>
+      <c r="ME30" s="9"/>
+      <c r="MF30" s="9"/>
+      <c r="MG30" s="9"/>
+      <c r="MH30" s="9"/>
+      <c r="MI30" s="9"/>
+      <c r="MJ30" s="9"/>
+      <c r="MK30" s="9"/>
+      <c r="ML30" s="9"/>
+      <c r="MM30" s="9"/>
+      <c r="MN30" s="9"/>
+      <c r="MO30" s="9"/>
+      <c r="MP30" s="9"/>
+      <c r="MQ30" s="9"/>
+      <c r="MR30" s="9"/>
+      <c r="MS30" s="9"/>
+      <c r="MT30" s="9"/>
+      <c r="MU30" s="9"/>
+      <c r="MV30" s="9"/>
+      <c r="MW30" s="9"/>
+      <c r="MX30" s="9"/>
+      <c r="MY30" s="9"/>
+      <c r="MZ30" s="9"/>
+      <c r="NA30" s="9"/>
+      <c r="NB30" s="9"/>
+      <c r="NC30" s="9"/>
+      <c r="ND30" s="9"/>
+      <c r="NE30" s="9"/>
+      <c r="NF30" s="9"/>
+      <c r="NG30" s="9"/>
+      <c r="NH30" s="9"/>
+      <c r="NI30" s="9"/>
+      <c r="NJ30" s="9"/>
+      <c r="NK30" s="9"/>
+      <c r="NL30" s="9"/>
+      <c r="NM30" s="9"/>
+      <c r="NN30" s="9"/>
+      <c r="NO30" s="9"/>
+      <c r="NP30" s="9"/>
+      <c r="NQ30" s="9"/>
+      <c r="NR30" s="9"/>
+      <c r="NS30" s="9"/>
+      <c r="NT30" s="9"/>
+      <c r="NU30" s="9"/>
+      <c r="NV30" s="9"/>
+      <c r="NW30" s="9"/>
+      <c r="NX30" s="9"/>
+      <c r="NY30" s="9"/>
+      <c r="NZ30" s="9"/>
+      <c r="OA30" s="9"/>
+      <c r="OB30" s="9"/>
+      <c r="OC30" s="9"/>
+      <c r="OD30" s="9"/>
+      <c r="OE30" s="9"/>
+      <c r="OF30" s="9"/>
+      <c r="OG30" s="9"/>
+      <c r="OH30" s="9"/>
+      <c r="OI30" s="9"/>
+      <c r="OJ30" s="9"/>
+      <c r="OK30" s="9"/>
+      <c r="OL30" s="9"/>
+      <c r="OM30" s="9"/>
+      <c r="ON30" s="9"/>
+      <c r="OO30" s="9"/>
+      <c r="OP30" s="9"/>
+      <c r="OQ30" s="9"/>
+      <c r="OR30" s="9"/>
+      <c r="OS30" s="9"/>
+      <c r="OT30" s="9"/>
+      <c r="OU30" s="9"/>
+      <c r="OV30" s="9"/>
+      <c r="OW30" s="9"/>
+      <c r="OX30" s="9"/>
+      <c r="OY30" s="9"/>
+      <c r="OZ30" s="9"/>
+      <c r="PA30" s="9"/>
+      <c r="PB30" s="9"/>
+      <c r="PC30" s="9"/>
+      <c r="PD30" s="9"/>
+      <c r="PE30" s="9"/>
+      <c r="PF30" s="9"/>
+      <c r="PG30" s="9"/>
+      <c r="PH30" s="9"/>
+      <c r="PI30" s="9"/>
+      <c r="PJ30" s="9"/>
+      <c r="PK30" s="9"/>
+      <c r="PL30" s="9"/>
+      <c r="PM30" s="9"/>
+      <c r="PN30" s="9"/>
+      <c r="PO30" s="9"/>
+      <c r="PP30" s="9"/>
+      <c r="PQ30" s="9"/>
+      <c r="PR30" s="9"/>
+      <c r="PS30" s="9"/>
+      <c r="PT30" s="9"/>
+      <c r="PU30" s="9"/>
+      <c r="PV30" s="9"/>
+      <c r="PW30" s="9"/>
+      <c r="PX30" s="9"/>
+      <c r="PY30" s="9"/>
+      <c r="PZ30" s="9"/>
+      <c r="QA30" s="9"/>
+      <c r="QB30" s="9"/>
+      <c r="QC30" s="9"/>
+      <c r="QD30" s="9"/>
+      <c r="QE30" s="9"/>
+      <c r="QF30" s="9"/>
+      <c r="QG30" s="9"/>
+      <c r="QH30" s="9"/>
+      <c r="QI30" s="9"/>
+      <c r="QJ30" s="9"/>
+      <c r="QK30" s="9"/>
+      <c r="QL30" s="9"/>
+      <c r="QM30" s="9"/>
+      <c r="QN30" s="9"/>
+      <c r="QO30" s="9"/>
+      <c r="QP30" s="9"/>
+      <c r="QQ30" s="9"/>
+      <c r="QR30" s="9"/>
+      <c r="QS30" s="9"/>
+      <c r="QT30" s="9"/>
+      <c r="QU30" s="9"/>
+      <c r="QV30" s="9"/>
+      <c r="QW30" s="9"/>
+      <c r="QX30" s="9"/>
+      <c r="QY30" s="9"/>
+      <c r="QZ30" s="9"/>
+      <c r="RA30" s="9"/>
+      <c r="RB30" s="9"/>
+      <c r="RC30" s="9"/>
+      <c r="RD30" s="9"/>
+      <c r="RE30" s="9"/>
+      <c r="RF30" s="9"/>
+      <c r="RG30" s="9"/>
+      <c r="RH30" s="9"/>
+      <c r="RI30" s="9"/>
+      <c r="RJ30" s="9"/>
+      <c r="RK30" s="9"/>
+      <c r="RL30" s="9"/>
+      <c r="RM30" s="9"/>
+      <c r="RN30" s="9"/>
+      <c r="RO30" s="9"/>
+      <c r="RP30" s="9"/>
+      <c r="RQ30" s="9"/>
+      <c r="RR30" s="9"/>
+      <c r="RS30" s="9"/>
+      <c r="RT30" s="9"/>
+      <c r="RU30" s="9"/>
+      <c r="RV30" s="9"/>
+      <c r="RW30" s="9"/>
+      <c r="RX30" s="9"/>
+      <c r="RY30" s="9"/>
+      <c r="RZ30" s="9"/>
+      <c r="SA30" s="9"/>
+      <c r="SB30" s="9"/>
+      <c r="SC30" s="9"/>
+      <c r="SD30" s="9"/>
+      <c r="SE30" s="9"/>
+      <c r="SF30" s="9"/>
+      <c r="SG30" s="9"/>
+      <c r="SH30" s="9"/>
+      <c r="SI30" s="9"/>
+      <c r="SJ30" s="9"/>
+      <c r="SK30" s="9"/>
+      <c r="SL30" s="9"/>
+      <c r="SM30" s="9"/>
+      <c r="SN30" s="9"/>
+      <c r="SO30" s="9"/>
+      <c r="SP30" s="9"/>
+      <c r="SQ30" s="9"/>
+      <c r="SR30" s="9"/>
+      <c r="SS30" s="9"/>
+      <c r="ST30" s="9"/>
+      <c r="SU30" s="9"/>
+      <c r="SV30" s="9"/>
+      <c r="SW30" s="9"/>
+      <c r="SX30" s="9"/>
+      <c r="SY30" s="9"/>
+      <c r="SZ30" s="9"/>
+      <c r="TA30" s="9"/>
+      <c r="TB30" s="9"/>
+      <c r="TC30" s="9"/>
+      <c r="TD30" s="9"/>
+      <c r="TE30" s="9"/>
+      <c r="TF30" s="9"/>
+      <c r="TG30" s="9"/>
+      <c r="TH30" s="9"/>
+      <c r="TI30" s="9"/>
+      <c r="TJ30" s="9"/>
+      <c r="TK30" s="9"/>
+      <c r="TL30" s="9"/>
+      <c r="TM30" s="9"/>
+      <c r="TN30" s="9"/>
+      <c r="TO30" s="9"/>
+      <c r="TP30" s="9"/>
+      <c r="TQ30" s="9"/>
+      <c r="TR30" s="9"/>
+      <c r="TS30" s="9"/>
+      <c r="TT30" s="9"/>
+      <c r="TU30" s="9"/>
+      <c r="TV30" s="9"/>
+      <c r="TW30" s="9"/>
+      <c r="TX30" s="9"/>
+      <c r="TY30" s="9"/>
+      <c r="TZ30" s="9"/>
+      <c r="UA30" s="9"/>
+      <c r="UB30" s="9"/>
+      <c r="UC30" s="9"/>
+      <c r="UD30" s="9"/>
+      <c r="UE30" s="9"/>
+      <c r="UF30" s="9"/>
+      <c r="UG30" s="9"/>
+      <c r="UH30" s="9"/>
+      <c r="UI30" s="9"/>
+      <c r="UJ30" s="9"/>
+      <c r="UK30" s="9"/>
+      <c r="UL30" s="9"/>
+      <c r="UM30" s="9"/>
+      <c r="UN30" s="9"/>
+      <c r="UO30" s="9"/>
+      <c r="UP30" s="9"/>
+      <c r="UQ30" s="9"/>
+      <c r="UR30" s="9"/>
+      <c r="US30" s="9"/>
+      <c r="UT30" s="9"/>
+      <c r="UU30" s="9"/>
+      <c r="UV30" s="9"/>
+      <c r="UW30" s="9"/>
+      <c r="UX30" s="9"/>
+      <c r="UY30" s="9"/>
+      <c r="UZ30" s="9"/>
+      <c r="VA30" s="9"/>
+      <c r="VB30" s="9"/>
+      <c r="VC30" s="9"/>
+      <c r="VD30" s="9"/>
+      <c r="VE30" s="9"/>
+      <c r="VF30" s="9"/>
+      <c r="VG30" s="9"/>
+      <c r="VH30" s="9"/>
+      <c r="VI30" s="9"/>
+      <c r="VJ30" s="9"/>
+      <c r="VK30" s="9"/>
+      <c r="VL30" s="9"/>
+      <c r="VM30" s="9"/>
+      <c r="VN30" s="9"/>
+      <c r="VO30" s="9"/>
+      <c r="VP30" s="9"/>
+      <c r="VQ30" s="9"/>
+      <c r="VR30" s="9"/>
+      <c r="VS30" s="9"/>
+      <c r="VT30" s="9"/>
+      <c r="VU30" s="9"/>
+      <c r="VV30" s="9"/>
+      <c r="VW30" s="9"/>
+      <c r="VX30" s="9"/>
+      <c r="VY30" s="9"/>
+      <c r="VZ30" s="9"/>
+      <c r="WA30" s="9"/>
+      <c r="WB30" s="9"/>
+      <c r="WC30" s="9"/>
+      <c r="WD30" s="9"/>
+      <c r="WE30" s="9"/>
+      <c r="WF30" s="9"/>
+      <c r="WG30" s="9"/>
+      <c r="WH30" s="9"/>
+      <c r="WI30" s="9"/>
+      <c r="WJ30" s="9"/>
+      <c r="WK30" s="9"/>
+      <c r="WL30" s="9"/>
+      <c r="WM30" s="9"/>
+      <c r="WN30" s="9"/>
+      <c r="WO30" s="9"/>
+      <c r="WP30" s="9"/>
+      <c r="WQ30" s="9"/>
+      <c r="WR30" s="9"/>
+      <c r="WS30" s="9"/>
+      <c r="WT30" s="9"/>
+      <c r="WU30" s="9"/>
+      <c r="WV30" s="9"/>
+      <c r="WW30" s="9"/>
+      <c r="WX30" s="9"/>
+      <c r="WY30" s="9"/>
+      <c r="WZ30" s="9"/>
+      <c r="XA30" s="9"/>
+      <c r="XB30" s="9"/>
+      <c r="XC30" s="9"/>
+      <c r="XD30" s="9"/>
+      <c r="XE30" s="9"/>
+      <c r="XF30" s="9"/>
+      <c r="XG30" s="9"/>
+      <c r="XH30" s="9"/>
+      <c r="XI30" s="9"/>
+      <c r="XJ30" s="9"/>
+      <c r="XK30" s="9"/>
+      <c r="XL30" s="9"/>
+      <c r="XM30" s="9"/>
+      <c r="XN30" s="9"/>
+      <c r="XO30" s="9"/>
+      <c r="XP30" s="9"/>
+      <c r="XQ30" s="9"/>
+      <c r="XR30" s="9"/>
+      <c r="XS30" s="9"/>
+      <c r="XT30" s="9"/>
+      <c r="XU30" s="9"/>
+      <c r="XV30" s="9"/>
+      <c r="XW30" s="9"/>
+      <c r="XX30" s="9"/>
+      <c r="XY30" s="9"/>
+      <c r="XZ30" s="9"/>
+      <c r="YA30" s="9"/>
+      <c r="YB30" s="9"/>
+      <c r="YC30" s="9"/>
+      <c r="YD30" s="9"/>
+      <c r="YE30" s="9"/>
+      <c r="YF30" s="9"/>
+      <c r="YG30" s="9"/>
+      <c r="YH30" s="9"/>
+      <c r="YI30" s="9"/>
+      <c r="YJ30" s="9"/>
+      <c r="YK30" s="9"/>
+      <c r="YL30" s="9"/>
+      <c r="YM30" s="9"/>
+      <c r="YN30" s="9"/>
+      <c r="YO30" s="9"/>
+      <c r="YP30" s="9"/>
+      <c r="YQ30" s="9"/>
+      <c r="YR30" s="9"/>
+      <c r="YS30" s="9"/>
+      <c r="YT30" s="9"/>
+      <c r="YU30" s="9"/>
+      <c r="YV30" s="9"/>
+      <c r="YW30" s="9"/>
+      <c r="YX30" s="9"/>
+      <c r="YY30" s="9"/>
+      <c r="YZ30" s="9"/>
+      <c r="ZA30" s="9"/>
+      <c r="ZB30" s="9"/>
+      <c r="ZC30" s="9"/>
+      <c r="ZD30" s="9"/>
+      <c r="ZE30" s="9"/>
+      <c r="ZF30" s="9"/>
+      <c r="ZG30" s="9"/>
+      <c r="ZH30" s="9"/>
+      <c r="ZI30" s="9"/>
+      <c r="ZJ30" s="9"/>
+      <c r="ZK30" s="9"/>
+      <c r="ZL30" s="9"/>
+      <c r="ZM30" s="9"/>
+      <c r="ZN30" s="9"/>
+      <c r="ZO30" s="9"/>
+      <c r="ZP30" s="9"/>
+      <c r="ZQ30" s="9"/>
+      <c r="ZR30" s="9"/>
+      <c r="ZS30" s="9"/>
+      <c r="ZT30" s="9"/>
+      <c r="ZU30" s="9"/>
+      <c r="ZV30" s="9"/>
+      <c r="ZW30" s="9"/>
+      <c r="ZX30" s="9"/>
+      <c r="ZY30" s="9"/>
+      <c r="ZZ30" s="9"/>
+      <c r="AAA30" s="9"/>
+      <c r="AAB30" s="9"/>
+      <c r="AAC30" s="9"/>
+      <c r="AAD30" s="9"/>
+      <c r="AAE30" s="9"/>
+      <c r="AAF30" s="9"/>
+      <c r="AAG30" s="9"/>
+      <c r="AAH30" s="9"/>
+      <c r="AAI30" s="9"/>
+      <c r="AAJ30" s="9"/>
+      <c r="AAK30" s="9"/>
+      <c r="AAL30" s="9"/>
+      <c r="AAM30" s="9"/>
+      <c r="AAN30" s="9"/>
+      <c r="AAO30" s="9"/>
+      <c r="AAP30" s="9"/>
+      <c r="AAQ30" s="9"/>
+      <c r="AAR30" s="9"/>
+      <c r="AAS30" s="9"/>
+      <c r="AAT30" s="9"/>
+      <c r="AAU30" s="9"/>
+      <c r="AAV30" s="9"/>
+      <c r="AAW30" s="9"/>
+      <c r="AAX30" s="9"/>
+      <c r="AAY30" s="9"/>
+      <c r="AAZ30" s="9"/>
+      <c r="ABA30" s="9"/>
+      <c r="ABB30" s="9"/>
+      <c r="ABC30" s="9"/>
+      <c r="ABD30" s="9"/>
+      <c r="ABE30" s="9"/>
+      <c r="ABF30" s="9"/>
+      <c r="ABG30" s="9"/>
+      <c r="ABH30" s="9"/>
+      <c r="ABI30" s="9"/>
+      <c r="ABJ30" s="9"/>
+      <c r="ABK30" s="9"/>
+      <c r="ABL30" s="9"/>
+      <c r="ABM30" s="9"/>
+      <c r="ABN30" s="9"/>
+      <c r="ABO30" s="9"/>
+      <c r="ABP30" s="9"/>
+      <c r="ABQ30" s="9"/>
+      <c r="ABR30" s="9"/>
+      <c r="ABS30" s="9"/>
+      <c r="ABT30" s="9"/>
+      <c r="ABU30" s="9"/>
+      <c r="ABV30" s="9"/>
+      <c r="ABW30" s="9"/>
+      <c r="ABX30" s="9"/>
+      <c r="ABY30" s="9"/>
+      <c r="ABZ30" s="9"/>
+      <c r="ACA30" s="9"/>
+      <c r="ACB30" s="9"/>
+      <c r="ACC30" s="9"/>
+      <c r="ACD30" s="9"/>
+      <c r="ACE30" s="9"/>
+      <c r="ACF30" s="9"/>
+      <c r="ACG30" s="9"/>
+      <c r="ACH30" s="9"/>
+      <c r="ACI30" s="9"/>
+      <c r="ACJ30" s="9"/>
+      <c r="ACK30" s="9"/>
+      <c r="ACL30" s="9"/>
+      <c r="ACM30" s="9"/>
+      <c r="ACN30" s="9"/>
+      <c r="ACO30" s="9"/>
+      <c r="ACP30" s="9"/>
+      <c r="ACQ30" s="9"/>
+      <c r="ACR30" s="9"/>
+      <c r="ACS30" s="9"/>
+      <c r="ACT30" s="9"/>
+      <c r="ACU30" s="9"/>
+      <c r="ACV30" s="9"/>
+      <c r="ACW30" s="9"/>
+      <c r="ACX30" s="9"/>
+      <c r="ACY30" s="9"/>
+      <c r="ACZ30" s="9"/>
+      <c r="ADA30" s="9"/>
+      <c r="ADB30" s="9"/>
+      <c r="ADC30" s="9"/>
+      <c r="ADD30" s="9"/>
+      <c r="ADE30" s="9"/>
+      <c r="ADF30" s="9"/>
+      <c r="ADG30" s="9"/>
+      <c r="ADH30" s="9"/>
+      <c r="ADI30" s="9"/>
+      <c r="ADJ30" s="9"/>
+      <c r="ADK30" s="9"/>
+      <c r="ADL30" s="9"/>
+      <c r="ADM30" s="9"/>
+      <c r="ADN30" s="9"/>
+      <c r="ADO30" s="9"/>
+      <c r="ADP30" s="9"/>
+      <c r="ADQ30" s="9"/>
+      <c r="ADR30" s="9"/>
+      <c r="ADS30" s="9"/>
+      <c r="ADT30" s="9"/>
+      <c r="ADU30" s="9"/>
+      <c r="ADV30" s="9"/>
+      <c r="ADW30" s="9"/>
+      <c r="ADX30" s="9"/>
+      <c r="ADY30" s="9"/>
+      <c r="ADZ30" s="9"/>
+      <c r="AEA30" s="9"/>
+      <c r="AEB30" s="9"/>
+      <c r="AEC30" s="9"/>
+      <c r="AED30" s="9"/>
+      <c r="AEE30" s="9"/>
+      <c r="AEF30" s="9"/>
+      <c r="AEG30" s="9"/>
+      <c r="AEH30" s="9"/>
+      <c r="AEI30" s="9"/>
+      <c r="AEJ30" s="9"/>
+      <c r="AEK30" s="9"/>
+      <c r="AEL30" s="9"/>
+      <c r="AEM30" s="9"/>
+      <c r="AEN30" s="9"/>
+      <c r="AEO30" s="9"/>
+      <c r="AEP30" s="9"/>
+      <c r="AEQ30" s="9"/>
+      <c r="AER30" s="9"/>
+      <c r="AES30" s="9"/>
+      <c r="AET30" s="9"/>
+      <c r="AEU30" s="9"/>
+      <c r="AEV30" s="9"/>
+      <c r="AEW30" s="9"/>
+      <c r="AEX30" s="9"/>
+      <c r="AEY30" s="9"/>
+      <c r="AEZ30" s="9"/>
+      <c r="AFA30" s="9"/>
+      <c r="AFB30" s="9"/>
+      <c r="AFC30" s="9"/>
+      <c r="AFD30" s="9"/>
+      <c r="AFE30" s="9"/>
+      <c r="AFF30" s="9"/>
+      <c r="AFG30" s="9"/>
+      <c r="AFH30" s="9"/>
+      <c r="AFI30" s="9"/>
+      <c r="AFJ30" s="9"/>
+      <c r="AFK30" s="9"/>
+      <c r="AFL30" s="9"/>
+      <c r="AFM30" s="9"/>
+      <c r="AFN30" s="9"/>
+      <c r="AFO30" s="9"/>
+      <c r="AFP30" s="9"/>
+      <c r="AFQ30" s="9"/>
+      <c r="AFR30" s="9"/>
+      <c r="AFS30" s="9"/>
+      <c r="AFT30" s="9"/>
+      <c r="AFU30" s="9"/>
+      <c r="AFV30" s="9"/>
+      <c r="AFW30" s="9"/>
+      <c r="AFX30" s="9"/>
+      <c r="AFY30" s="9"/>
+      <c r="AFZ30" s="9"/>
+      <c r="AGA30" s="9"/>
+      <c r="AGB30" s="9"/>
+      <c r="AGC30" s="9"/>
+      <c r="AGD30" s="9"/>
+      <c r="AGE30" s="9"/>
+      <c r="AGF30" s="9"/>
+      <c r="AGG30" s="9"/>
+      <c r="AGH30" s="9"/>
+      <c r="AGI30" s="9"/>
+      <c r="AGJ30" s="9"/>
+      <c r="AGK30" s="9"/>
+      <c r="AGL30" s="9"/>
+      <c r="AGM30" s="9"/>
+      <c r="AGN30" s="9"/>
+      <c r="AGO30" s="9"/>
+      <c r="AGP30" s="9"/>
+      <c r="AGQ30" s="9"/>
+      <c r="AGR30" s="9"/>
+      <c r="AGS30" s="9"/>
+      <c r="AGT30" s="9"/>
+      <c r="AGU30" s="9"/>
+      <c r="AGV30" s="9"/>
+      <c r="AGW30" s="9"/>
+      <c r="AGX30" s="9"/>
+      <c r="AGY30" s="9"/>
+      <c r="AGZ30" s="9"/>
+      <c r="AHA30" s="9"/>
+      <c r="AHB30" s="9"/>
+      <c r="AHC30" s="9"/>
+      <c r="AHD30" s="9"/>
+      <c r="AHE30" s="9"/>
+      <c r="AHF30" s="9"/>
+      <c r="AHG30" s="9"/>
+      <c r="AHH30" s="9"/>
+      <c r="AHI30" s="9"/>
+      <c r="AHJ30" s="9"/>
+      <c r="AHK30" s="9"/>
+      <c r="AHL30" s="9"/>
+      <c r="AHM30" s="9"/>
+      <c r="AHN30" s="9"/>
+      <c r="AHO30" s="9"/>
+      <c r="AHP30" s="9"/>
+      <c r="AHQ30" s="9"/>
+      <c r="AHR30" s="9"/>
+      <c r="AHS30" s="9"/>
+      <c r="AHT30" s="9"/>
+      <c r="AHU30" s="9"/>
+      <c r="AHV30" s="9"/>
+      <c r="AHW30" s="9"/>
+      <c r="AHX30" s="9"/>
+      <c r="AHY30" s="9"/>
+      <c r="AHZ30" s="9"/>
+      <c r="AIA30" s="9"/>
+      <c r="AIB30" s="9"/>
+      <c r="AIC30" s="9"/>
+      <c r="AID30" s="9"/>
+      <c r="AIE30" s="9"/>
+      <c r="AIF30" s="9"/>
+      <c r="AIG30" s="9"/>
+      <c r="AIH30" s="9"/>
+      <c r="AII30" s="9"/>
+      <c r="AIJ30" s="9"/>
+      <c r="AIK30" s="9"/>
+      <c r="AIL30" s="9"/>
+      <c r="AIM30" s="9"/>
+      <c r="AIN30" s="9"/>
+      <c r="AIO30" s="9"/>
+      <c r="AIP30" s="9"/>
+      <c r="AIQ30" s="9"/>
+      <c r="AIR30" s="9"/>
+      <c r="AIS30" s="9"/>
+      <c r="AIT30" s="9"/>
+      <c r="AIU30" s="9"/>
+      <c r="AIV30" s="9"/>
+      <c r="AIW30" s="9"/>
+      <c r="AIX30" s="9"/>
+      <c r="AIY30" s="9"/>
+      <c r="AIZ30" s="9"/>
+      <c r="AJA30" s="9"/>
+      <c r="AJB30" s="9"/>
+      <c r="AJC30" s="9"/>
+      <c r="AJD30" s="9"/>
+      <c r="AJE30" s="9"/>
+      <c r="AJF30" s="9"/>
+      <c r="AJG30" s="9"/>
+      <c r="AJH30" s="9"/>
+      <c r="AJI30" s="9"/>
+      <c r="AJJ30" s="9"/>
+      <c r="AJK30" s="9"/>
+      <c r="AJL30" s="9"/>
+      <c r="AJM30" s="9"/>
+      <c r="AJN30" s="9"/>
+      <c r="AJO30" s="9"/>
+      <c r="AJP30" s="9"/>
+      <c r="AJQ30" s="9"/>
+      <c r="AJR30" s="9"/>
+      <c r="AJS30" s="9"/>
+      <c r="AJT30" s="9"/>
+      <c r="AJU30" s="9"/>
+      <c r="AJV30" s="9"/>
+      <c r="AJW30" s="9"/>
+      <c r="AJX30" s="9"/>
+      <c r="AJY30" s="9"/>
+      <c r="AJZ30" s="9"/>
+      <c r="AKA30" s="9"/>
+      <c r="AKB30" s="9"/>
+      <c r="AKC30" s="9"/>
+      <c r="AKD30" s="9"/>
+      <c r="AKE30" s="9"/>
+      <c r="AKF30" s="9"/>
+      <c r="AKG30" s="9"/>
+      <c r="AKH30" s="9"/>
+      <c r="AKI30" s="9"/>
+      <c r="AKJ30" s="9"/>
+      <c r="AKK30" s="9"/>
+      <c r="AKL30" s="9"/>
+      <c r="AKM30" s="9"/>
+      <c r="AKN30" s="9"/>
+      <c r="AKO30" s="9"/>
+      <c r="AKP30" s="9"/>
+      <c r="AKQ30" s="9"/>
+      <c r="AKR30" s="9"/>
+      <c r="AKS30" s="9"/>
+      <c r="AKT30" s="9"/>
+      <c r="AKU30" s="9"/>
+      <c r="AKV30" s="9"/>
+      <c r="AKW30" s="9"/>
+      <c r="AKX30" s="9"/>
+      <c r="AKY30" s="9"/>
+      <c r="AKZ30" s="9"/>
+      <c r="ALA30" s="9"/>
+      <c r="ALB30" s="9"/>
+      <c r="ALC30" s="9"/>
+      <c r="ALD30" s="9"/>
+      <c r="ALE30" s="9"/>
+      <c r="ALF30" s="9"/>
+      <c r="ALG30" s="9"/>
+      <c r="ALH30" s="9"/>
+      <c r="ALI30" s="9"/>
+      <c r="ALJ30" s="9"/>
+      <c r="ALK30" s="9"/>
+      <c r="ALL30" s="9"/>
+      <c r="ALM30" s="9"/>
+      <c r="ALN30" s="9"/>
+      <c r="ALO30" s="9"/>
+      <c r="ALP30" s="9"/>
+      <c r="ALQ30" s="9"/>
+      <c r="ALR30" s="9"/>
+      <c r="ALS30" s="9"/>
+      <c r="ALT30" s="9"/>
+      <c r="ALU30" s="9"/>
+      <c r="ALV30" s="9"/>
+      <c r="ALW30" s="9"/>
+      <c r="ALX30" s="9"/>
+      <c r="ALY30" s="9"/>
+      <c r="ALZ30" s="9"/>
+      <c r="AMA30" s="9"/>
+      <c r="AMB30" s="9"/>
+      <c r="AMC30" s="9"/>
+      <c r="AMD30" s="9"/>
+      <c r="AME30" s="9"/>
+      <c r="AMF30" s="9"/>
+      <c r="AMG30" s="9"/>
+      <c r="AMH30" s="9"/>
+      <c r="AMI30" s="9"/>
+      <c r="AMJ30" s="9"/>
+      <c r="AMK30" s="9"/>
     </row>
     <row r="31" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>6.8223935269999994E-2</v>
+      </c>
+      <c r="C31">
+        <v>7.3936685089999996E-2</v>
+      </c>
+      <c r="D31">
+        <v>8.5411684939999996E-2</v>
+      </c>
+      <c r="E31">
+        <v>8.405112243E-2</v>
+      </c>
+      <c r="F31">
+        <v>9.2109111719999998E-2</v>
+      </c>
+      <c r="G31">
+        <v>9.7155784159999994E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.10866043459999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1094673027</v>
+      </c>
+      <c r="J31">
+        <v>0.1131639248</v>
+      </c>
+      <c r="K31">
+        <v>0.10874246630000001</v>
+      </c>
+      <c r="L31">
+        <v>0.1241078555</v>
+      </c>
+      <c r="M31">
+        <v>0.1215175407</v>
+      </c>
+      <c r="N31">
+        <v>0.12963685580000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1253790307</v>
+      </c>
+      <c r="P31">
+        <v>0.13191821670000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B32" s="12">
         <f>29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="C31" s="12">
-        <f t="shared" ref="C31:P31" si="0">29/156</f>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:P32" si="0">29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N32" s="9">
         <f>29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P32" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-    </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>139</v>
+      <c r="A33" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="9">
-        <v>7.1999999999999995E-2</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -3279,26 +4294,23 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="9">
-        <v>0.10199999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N33" s="9">
-        <v>0.10199999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
-      <c r="W33" s="9" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="9">
-        <v>6.9000000000000006E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -3308,310 +4320,327 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N34" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
+      <c r="W34" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="30">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N35" s="30">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N35" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9">
+        <v>130</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="30">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N36" s="30">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9">
         <v>0.05</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="9">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N37" s="9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="B38" s="38"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="9">
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="36"/>
-    </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="36"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B43" s="39">
         <v>0.95</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="36">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="39">
+        <v>0.22</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="36">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="39">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="36">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="36">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="39">
-        <v>0.22</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="36">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="39">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="36">
+      <c r="B49" s="36"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="36">
+        <v>9.5699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="36"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="36">
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="36"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="36">
-        <v>9.5699999999999993E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="36">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="36"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="36">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="31">
+      <c r="B56" s="31">
         <f>44/398</f>
         <v>0.11055276381909548</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="31">
-        <v>7.5</v>
-      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="B57" s="31">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="B58" s="31">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>78.8</v>
+      </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="B59" s="31"/>
-      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="40">
-        <v>4893</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B60" s="31">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="40">
-        <v>2877</v>
-      </c>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="40"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B62" s="40">
+        <v>4893</v>
+      </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="B63" s="40">
+        <v>2877</v>
+      </c>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
@@ -3619,138 +4648,160 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="40">
+        <v>107.5</v>
+      </c>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="40"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="9">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="D81" s="9">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="9">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="9">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3764,10 +4815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK86"/>
+  <dimension ref="A1:AMK88"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,7 +4859,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -3816,7 +4867,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3824,36 +4875,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
         <v>182</v>
       </c>
-      <c r="C5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>184</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>3</v>
@@ -3861,19 +4912,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>2</v>
@@ -3881,21 +4932,21 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -3904,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>4</v>
@@ -3912,44 +4963,44 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -3957,7 +5008,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -3965,43 +5016,43 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -4009,7 +5060,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -4017,43 +5068,43 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
         <v>180</v>
       </c>
-      <c r="B22" t="s">
-        <v>182</v>
-      </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -4061,7 +5112,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -4069,35 +5120,35 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,263 +5165,262 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>59</v>
+      <c r="A29" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
         <v>139</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C53" t="s">
         <v>57</v>
       </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="54" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
+      <c r="A54" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="8"/>
+      <c r="A55" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="6"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="32"/>
       <c r="H57" s="8"/>
@@ -4380,14 +5430,9 @@
     </row>
     <row r="58" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>68</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B58" s="3"/>
       <c r="F58" s="9"/>
       <c r="G58" s="32"/>
       <c r="H58" s="8"/>
@@ -4395,1086 +5440,1095 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:1025" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="8"/>
-      <c r="AE59" s="8"/>
-      <c r="AF59" s="8"/>
-      <c r="AG59" s="8"/>
-      <c r="AH59" s="8"/>
-      <c r="AI59" s="8"/>
-      <c r="AJ59" s="8"/>
-      <c r="AK59" s="8"/>
-      <c r="AL59" s="8"/>
-      <c r="AM59" s="8"/>
-      <c r="AN59" s="8"/>
-      <c r="AO59" s="8"/>
-      <c r="AP59" s="8"/>
-      <c r="AQ59" s="8"/>
-      <c r="AR59" s="8"/>
-      <c r="AS59" s="8"/>
-      <c r="AT59" s="8"/>
-      <c r="AU59" s="8"/>
-      <c r="AV59" s="8"/>
-      <c r="AW59" s="8"/>
-      <c r="AX59" s="8"/>
-      <c r="AY59" s="8"/>
-      <c r="AZ59" s="8"/>
-      <c r="BA59" s="8"/>
-      <c r="BB59" s="8"/>
-      <c r="BC59" s="8"/>
-      <c r="BD59" s="8"/>
-      <c r="BE59" s="8"/>
-      <c r="BF59" s="8"/>
-      <c r="BG59" s="8"/>
-      <c r="BH59" s="8"/>
-      <c r="BI59" s="8"/>
-      <c r="BJ59" s="8"/>
-      <c r="BK59" s="8"/>
-      <c r="BL59" s="8"/>
-      <c r="BM59" s="8"/>
-      <c r="BN59" s="8"/>
-      <c r="BO59" s="8"/>
-      <c r="BP59" s="8"/>
-      <c r="BQ59" s="8"/>
-      <c r="BR59" s="8"/>
-      <c r="BS59" s="8"/>
-      <c r="BT59" s="8"/>
-      <c r="BU59" s="8"/>
-      <c r="BV59" s="8"/>
-      <c r="BW59" s="8"/>
-      <c r="BX59" s="8"/>
-      <c r="BY59" s="8"/>
-      <c r="BZ59" s="8"/>
-      <c r="CA59" s="8"/>
-      <c r="CB59" s="8"/>
-      <c r="CC59" s="8"/>
-      <c r="CD59" s="8"/>
-      <c r="CE59" s="8"/>
-      <c r="CF59" s="8"/>
-      <c r="CG59" s="8"/>
-      <c r="CH59" s="8"/>
-      <c r="CI59" s="8"/>
-      <c r="CJ59" s="8"/>
-      <c r="CK59" s="8"/>
-      <c r="CL59" s="8"/>
-      <c r="CM59" s="8"/>
-      <c r="CN59" s="8"/>
-      <c r="CO59" s="8"/>
-      <c r="CP59" s="8"/>
-      <c r="CQ59" s="8"/>
-      <c r="CR59" s="8"/>
-      <c r="CS59" s="8"/>
-      <c r="CT59" s="8"/>
-      <c r="CU59" s="8"/>
-      <c r="CV59" s="8"/>
-      <c r="CW59" s="8"/>
-      <c r="CX59" s="8"/>
-      <c r="CY59" s="8"/>
-      <c r="CZ59" s="8"/>
-      <c r="DA59" s="8"/>
-      <c r="DB59" s="8"/>
-      <c r="DC59" s="8"/>
-      <c r="DD59" s="8"/>
-      <c r="DE59" s="8"/>
-      <c r="DF59" s="8"/>
-      <c r="DG59" s="8"/>
-      <c r="DH59" s="8"/>
-      <c r="DI59" s="8"/>
-      <c r="DJ59" s="8"/>
-      <c r="DK59" s="8"/>
-      <c r="DL59" s="8"/>
-      <c r="DM59" s="8"/>
-      <c r="DN59" s="8"/>
-      <c r="DO59" s="8"/>
-      <c r="DP59" s="8"/>
-      <c r="DQ59" s="8"/>
-      <c r="DR59" s="8"/>
-      <c r="DS59" s="8"/>
-      <c r="DT59" s="8"/>
-      <c r="DU59" s="8"/>
-      <c r="DV59" s="8"/>
-      <c r="DW59" s="8"/>
-      <c r="DX59" s="8"/>
-      <c r="DY59" s="8"/>
-      <c r="DZ59" s="8"/>
-      <c r="EA59" s="8"/>
-      <c r="EB59" s="8"/>
-      <c r="EC59" s="8"/>
-      <c r="ED59" s="8"/>
-      <c r="EE59" s="8"/>
-      <c r="EF59" s="8"/>
-      <c r="EG59" s="8"/>
-      <c r="EH59" s="8"/>
-      <c r="EI59" s="8"/>
-      <c r="EJ59" s="8"/>
-      <c r="EK59" s="8"/>
-      <c r="EL59" s="8"/>
-      <c r="EM59" s="8"/>
-      <c r="EN59" s="8"/>
-      <c r="EO59" s="8"/>
-      <c r="EP59" s="8"/>
-      <c r="EQ59" s="8"/>
-      <c r="ER59" s="8"/>
-      <c r="ES59" s="8"/>
-      <c r="ET59" s="8"/>
-      <c r="EU59" s="8"/>
-      <c r="EV59" s="8"/>
-      <c r="EW59" s="8"/>
-      <c r="EX59" s="8"/>
-      <c r="EY59" s="8"/>
-      <c r="EZ59" s="8"/>
-      <c r="FA59" s="8"/>
-      <c r="FB59" s="8"/>
-      <c r="FC59" s="8"/>
-      <c r="FD59" s="8"/>
-      <c r="FE59" s="8"/>
-      <c r="FF59" s="8"/>
-      <c r="FG59" s="8"/>
-      <c r="FH59" s="8"/>
-      <c r="FI59" s="8"/>
-      <c r="FJ59" s="8"/>
-      <c r="FK59" s="8"/>
-      <c r="FL59" s="8"/>
-      <c r="FM59" s="8"/>
-      <c r="FN59" s="8"/>
-      <c r="FO59" s="8"/>
-      <c r="FP59" s="8"/>
-      <c r="FQ59" s="8"/>
-      <c r="FR59" s="8"/>
-      <c r="FS59" s="8"/>
-      <c r="FT59" s="8"/>
-      <c r="FU59" s="8"/>
-      <c r="FV59" s="8"/>
-      <c r="FW59" s="8"/>
-      <c r="FX59" s="8"/>
-      <c r="FY59" s="8"/>
-      <c r="FZ59" s="8"/>
-      <c r="GA59" s="8"/>
-      <c r="GB59" s="8"/>
-      <c r="GC59" s="8"/>
-      <c r="GD59" s="8"/>
-      <c r="GE59" s="8"/>
-      <c r="GF59" s="8"/>
-      <c r="GG59" s="8"/>
-      <c r="GH59" s="8"/>
-      <c r="GI59" s="8"/>
-      <c r="GJ59" s="8"/>
-      <c r="GK59" s="8"/>
-      <c r="GL59" s="8"/>
-      <c r="GM59" s="8"/>
-      <c r="GN59" s="8"/>
-      <c r="GO59" s="8"/>
-      <c r="GP59" s="8"/>
-      <c r="GQ59" s="8"/>
-      <c r="GR59" s="8"/>
-      <c r="GS59" s="8"/>
-      <c r="GT59" s="8"/>
-      <c r="GU59" s="8"/>
-      <c r="GV59" s="8"/>
-      <c r="GW59" s="8"/>
-      <c r="GX59" s="8"/>
-      <c r="GY59" s="8"/>
-      <c r="GZ59" s="8"/>
-      <c r="HA59" s="8"/>
-      <c r="HB59" s="8"/>
-      <c r="HC59" s="8"/>
-      <c r="HD59" s="8"/>
-      <c r="HE59" s="8"/>
-      <c r="HF59" s="8"/>
-      <c r="HG59" s="8"/>
-      <c r="HH59" s="8"/>
-      <c r="HI59" s="8"/>
-      <c r="HJ59" s="8"/>
-      <c r="HK59" s="8"/>
-      <c r="HL59" s="8"/>
-      <c r="HM59" s="8"/>
-      <c r="HN59" s="8"/>
-      <c r="HO59" s="8"/>
-      <c r="HP59" s="8"/>
-      <c r="HQ59" s="8"/>
-      <c r="HR59" s="8"/>
-      <c r="HS59" s="8"/>
-      <c r="HT59" s="8"/>
-      <c r="HU59" s="8"/>
-      <c r="HV59" s="8"/>
-      <c r="HW59" s="8"/>
-      <c r="HX59" s="8"/>
-      <c r="HY59" s="8"/>
-      <c r="HZ59" s="8"/>
-      <c r="IA59" s="8"/>
-      <c r="IB59" s="8"/>
-      <c r="IC59" s="8"/>
-      <c r="ID59" s="8"/>
-      <c r="IE59" s="8"/>
-      <c r="IF59" s="8"/>
-      <c r="IG59" s="8"/>
-      <c r="IH59" s="8"/>
-      <c r="II59" s="8"/>
-      <c r="IJ59" s="8"/>
-      <c r="IK59" s="8"/>
-      <c r="IL59" s="8"/>
-      <c r="IM59" s="8"/>
-      <c r="IN59" s="8"/>
-      <c r="IO59" s="8"/>
-      <c r="IP59" s="8"/>
-      <c r="IQ59" s="8"/>
-      <c r="IR59" s="8"/>
-      <c r="IS59" s="8"/>
-      <c r="IT59" s="8"/>
-      <c r="IU59" s="8"/>
-      <c r="IV59" s="8"/>
-      <c r="IW59" s="8"/>
-      <c r="IX59" s="8"/>
-      <c r="IY59" s="8"/>
-      <c r="IZ59" s="8"/>
-      <c r="JA59" s="8"/>
-      <c r="JB59" s="8"/>
-      <c r="JC59" s="8"/>
-      <c r="JD59" s="8"/>
-      <c r="JE59" s="8"/>
-      <c r="JF59" s="8"/>
-      <c r="JG59" s="8"/>
-      <c r="JH59" s="8"/>
-      <c r="JI59" s="8"/>
-      <c r="JJ59" s="8"/>
-      <c r="JK59" s="8"/>
-      <c r="JL59" s="8"/>
-      <c r="JM59" s="8"/>
-      <c r="JN59" s="8"/>
-      <c r="JO59" s="8"/>
-      <c r="JP59" s="8"/>
-      <c r="JQ59" s="8"/>
-      <c r="JR59" s="8"/>
-      <c r="JS59" s="8"/>
-      <c r="JT59" s="8"/>
-      <c r="JU59" s="8"/>
-      <c r="JV59" s="8"/>
-      <c r="JW59" s="8"/>
-      <c r="JX59" s="8"/>
-      <c r="JY59" s="8"/>
-      <c r="JZ59" s="8"/>
-      <c r="KA59" s="8"/>
-      <c r="KB59" s="8"/>
-      <c r="KC59" s="8"/>
-      <c r="KD59" s="8"/>
-      <c r="KE59" s="8"/>
-      <c r="KF59" s="8"/>
-      <c r="KG59" s="8"/>
-      <c r="KH59" s="8"/>
-      <c r="KI59" s="8"/>
-      <c r="KJ59" s="8"/>
-      <c r="KK59" s="8"/>
-      <c r="KL59" s="8"/>
-      <c r="KM59" s="8"/>
-      <c r="KN59" s="8"/>
-      <c r="KO59" s="8"/>
-      <c r="KP59" s="8"/>
-      <c r="KQ59" s="8"/>
-      <c r="KR59" s="8"/>
-      <c r="KS59" s="8"/>
-      <c r="KT59" s="8"/>
-      <c r="KU59" s="8"/>
-      <c r="KV59" s="8"/>
-      <c r="KW59" s="8"/>
-      <c r="KX59" s="8"/>
-      <c r="KY59" s="8"/>
-      <c r="KZ59" s="8"/>
-      <c r="LA59" s="8"/>
-      <c r="LB59" s="8"/>
-      <c r="LC59" s="8"/>
-      <c r="LD59" s="8"/>
-      <c r="LE59" s="8"/>
-      <c r="LF59" s="8"/>
-      <c r="LG59" s="8"/>
-      <c r="LH59" s="8"/>
-      <c r="LI59" s="8"/>
-      <c r="LJ59" s="8"/>
-      <c r="LK59" s="8"/>
-      <c r="LL59" s="8"/>
-      <c r="LM59" s="8"/>
-      <c r="LN59" s="8"/>
-      <c r="LO59" s="8"/>
-      <c r="LP59" s="8"/>
-      <c r="LQ59" s="8"/>
-      <c r="LR59" s="8"/>
-      <c r="LS59" s="8"/>
-      <c r="LT59" s="8"/>
-      <c r="LU59" s="8"/>
-      <c r="LV59" s="8"/>
-      <c r="LW59" s="8"/>
-      <c r="LX59" s="8"/>
-      <c r="LY59" s="8"/>
-      <c r="LZ59" s="8"/>
-      <c r="MA59" s="8"/>
-      <c r="MB59" s="8"/>
-      <c r="MC59" s="8"/>
-      <c r="MD59" s="8"/>
-      <c r="ME59" s="8"/>
-      <c r="MF59" s="8"/>
-      <c r="MG59" s="8"/>
-      <c r="MH59" s="8"/>
-      <c r="MI59" s="8"/>
-      <c r="MJ59" s="8"/>
-      <c r="MK59" s="8"/>
-      <c r="ML59" s="8"/>
-      <c r="MM59" s="8"/>
-      <c r="MN59" s="8"/>
-      <c r="MO59" s="8"/>
-      <c r="MP59" s="8"/>
-      <c r="MQ59" s="8"/>
-      <c r="MR59" s="8"/>
-      <c r="MS59" s="8"/>
-      <c r="MT59" s="8"/>
-      <c r="MU59" s="8"/>
-      <c r="MV59" s="8"/>
-      <c r="MW59" s="8"/>
-      <c r="MX59" s="8"/>
-      <c r="MY59" s="8"/>
-      <c r="MZ59" s="8"/>
-      <c r="NA59" s="8"/>
-      <c r="NB59" s="8"/>
-      <c r="NC59" s="8"/>
-      <c r="ND59" s="8"/>
-      <c r="NE59" s="8"/>
-      <c r="NF59" s="8"/>
-      <c r="NG59" s="8"/>
-      <c r="NH59" s="8"/>
-      <c r="NI59" s="8"/>
-      <c r="NJ59" s="8"/>
-      <c r="NK59" s="8"/>
-      <c r="NL59" s="8"/>
-      <c r="NM59" s="8"/>
-      <c r="NN59" s="8"/>
-      <c r="NO59" s="8"/>
-      <c r="NP59" s="8"/>
-      <c r="NQ59" s="8"/>
-      <c r="NR59" s="8"/>
-      <c r="NS59" s="8"/>
-      <c r="NT59" s="8"/>
-      <c r="NU59" s="8"/>
-      <c r="NV59" s="8"/>
-      <c r="NW59" s="8"/>
-      <c r="NX59" s="8"/>
-      <c r="NY59" s="8"/>
-      <c r="NZ59" s="8"/>
-      <c r="OA59" s="8"/>
-      <c r="OB59" s="8"/>
-      <c r="OC59" s="8"/>
-      <c r="OD59" s="8"/>
-      <c r="OE59" s="8"/>
-      <c r="OF59" s="8"/>
-      <c r="OG59" s="8"/>
-      <c r="OH59" s="8"/>
-      <c r="OI59" s="8"/>
-      <c r="OJ59" s="8"/>
-      <c r="OK59" s="8"/>
-      <c r="OL59" s="8"/>
-      <c r="OM59" s="8"/>
-      <c r="ON59" s="8"/>
-      <c r="OO59" s="8"/>
-      <c r="OP59" s="8"/>
-      <c r="OQ59" s="8"/>
-      <c r="OR59" s="8"/>
-      <c r="OS59" s="8"/>
-      <c r="OT59" s="8"/>
-      <c r="OU59" s="8"/>
-      <c r="OV59" s="8"/>
-      <c r="OW59" s="8"/>
-      <c r="OX59" s="8"/>
-      <c r="OY59" s="8"/>
-      <c r="OZ59" s="8"/>
-      <c r="PA59" s="8"/>
-      <c r="PB59" s="8"/>
-      <c r="PC59" s="8"/>
-      <c r="PD59" s="8"/>
-      <c r="PE59" s="8"/>
-      <c r="PF59" s="8"/>
-      <c r="PG59" s="8"/>
-      <c r="PH59" s="8"/>
-      <c r="PI59" s="8"/>
-      <c r="PJ59" s="8"/>
-      <c r="PK59" s="8"/>
-      <c r="PL59" s="8"/>
-      <c r="PM59" s="8"/>
-      <c r="PN59" s="8"/>
-      <c r="PO59" s="8"/>
-      <c r="PP59" s="8"/>
-      <c r="PQ59" s="8"/>
-      <c r="PR59" s="8"/>
-      <c r="PS59" s="8"/>
-      <c r="PT59" s="8"/>
-      <c r="PU59" s="8"/>
-      <c r="PV59" s="8"/>
-      <c r="PW59" s="8"/>
-      <c r="PX59" s="8"/>
-      <c r="PY59" s="8"/>
-      <c r="PZ59" s="8"/>
-      <c r="QA59" s="8"/>
-      <c r="QB59" s="8"/>
-      <c r="QC59" s="8"/>
-      <c r="QD59" s="8"/>
-      <c r="QE59" s="8"/>
-      <c r="QF59" s="8"/>
-      <c r="QG59" s="8"/>
-      <c r="QH59" s="8"/>
-      <c r="QI59" s="8"/>
-      <c r="QJ59" s="8"/>
-      <c r="QK59" s="8"/>
-      <c r="QL59" s="8"/>
-      <c r="QM59" s="8"/>
-      <c r="QN59" s="8"/>
-      <c r="QO59" s="8"/>
-      <c r="QP59" s="8"/>
-      <c r="QQ59" s="8"/>
-      <c r="QR59" s="8"/>
-      <c r="QS59" s="8"/>
-      <c r="QT59" s="8"/>
-      <c r="QU59" s="8"/>
-      <c r="QV59" s="8"/>
-      <c r="QW59" s="8"/>
-      <c r="QX59" s="8"/>
-      <c r="QY59" s="8"/>
-      <c r="QZ59" s="8"/>
-      <c r="RA59" s="8"/>
-      <c r="RB59" s="8"/>
-      <c r="RC59" s="8"/>
-      <c r="RD59" s="8"/>
-      <c r="RE59" s="8"/>
-      <c r="RF59" s="8"/>
-      <c r="RG59" s="8"/>
-      <c r="RH59" s="8"/>
-      <c r="RI59" s="8"/>
-      <c r="RJ59" s="8"/>
-      <c r="RK59" s="8"/>
-      <c r="RL59" s="8"/>
-      <c r="RM59" s="8"/>
-      <c r="RN59" s="8"/>
-      <c r="RO59" s="8"/>
-      <c r="RP59" s="8"/>
-      <c r="RQ59" s="8"/>
-      <c r="RR59" s="8"/>
-      <c r="RS59" s="8"/>
-      <c r="RT59" s="8"/>
-      <c r="RU59" s="8"/>
-      <c r="RV59" s="8"/>
-      <c r="RW59" s="8"/>
-      <c r="RX59" s="8"/>
-      <c r="RY59" s="8"/>
-      <c r="RZ59" s="8"/>
-      <c r="SA59" s="8"/>
-      <c r="SB59" s="8"/>
-      <c r="SC59" s="8"/>
-      <c r="SD59" s="8"/>
-      <c r="SE59" s="8"/>
-      <c r="SF59" s="8"/>
-      <c r="SG59" s="8"/>
-      <c r="SH59" s="8"/>
-      <c r="SI59" s="8"/>
-      <c r="SJ59" s="8"/>
-      <c r="SK59" s="8"/>
-      <c r="SL59" s="8"/>
-      <c r="SM59" s="8"/>
-      <c r="SN59" s="8"/>
-      <c r="SO59" s="8"/>
-      <c r="SP59" s="8"/>
-      <c r="SQ59" s="8"/>
-      <c r="SR59" s="8"/>
-      <c r="SS59" s="8"/>
-      <c r="ST59" s="8"/>
-      <c r="SU59" s="8"/>
-      <c r="SV59" s="8"/>
-      <c r="SW59" s="8"/>
-      <c r="SX59" s="8"/>
-      <c r="SY59" s="8"/>
-      <c r="SZ59" s="8"/>
-      <c r="TA59" s="8"/>
-      <c r="TB59" s="8"/>
-      <c r="TC59" s="8"/>
-      <c r="TD59" s="8"/>
-      <c r="TE59" s="8"/>
-      <c r="TF59" s="8"/>
-      <c r="TG59" s="8"/>
-      <c r="TH59" s="8"/>
-      <c r="TI59" s="8"/>
-      <c r="TJ59" s="8"/>
-      <c r="TK59" s="8"/>
-      <c r="TL59" s="8"/>
-      <c r="TM59" s="8"/>
-      <c r="TN59" s="8"/>
-      <c r="TO59" s="8"/>
-      <c r="TP59" s="8"/>
-      <c r="TQ59" s="8"/>
-      <c r="TR59" s="8"/>
-      <c r="TS59" s="8"/>
-      <c r="TT59" s="8"/>
-      <c r="TU59" s="8"/>
-      <c r="TV59" s="8"/>
-      <c r="TW59" s="8"/>
-      <c r="TX59" s="8"/>
-      <c r="TY59" s="8"/>
-      <c r="TZ59" s="8"/>
-      <c r="UA59" s="8"/>
-      <c r="UB59" s="8"/>
-      <c r="UC59" s="8"/>
-      <c r="UD59" s="8"/>
-      <c r="UE59" s="8"/>
-      <c r="UF59" s="8"/>
-      <c r="UG59" s="8"/>
-      <c r="UH59" s="8"/>
-      <c r="UI59" s="8"/>
-      <c r="UJ59" s="8"/>
-      <c r="UK59" s="8"/>
-      <c r="UL59" s="8"/>
-      <c r="UM59" s="8"/>
-      <c r="UN59" s="8"/>
-      <c r="UO59" s="8"/>
-      <c r="UP59" s="8"/>
-      <c r="UQ59" s="8"/>
-      <c r="UR59" s="8"/>
-      <c r="US59" s="8"/>
-      <c r="UT59" s="8"/>
-      <c r="UU59" s="8"/>
-      <c r="UV59" s="8"/>
-      <c r="UW59" s="8"/>
-      <c r="UX59" s="8"/>
-      <c r="UY59" s="8"/>
-      <c r="UZ59" s="8"/>
-      <c r="VA59" s="8"/>
-      <c r="VB59" s="8"/>
-      <c r="VC59" s="8"/>
-      <c r="VD59" s="8"/>
-      <c r="VE59" s="8"/>
-      <c r="VF59" s="8"/>
-      <c r="VG59" s="8"/>
-      <c r="VH59" s="8"/>
-      <c r="VI59" s="8"/>
-      <c r="VJ59" s="8"/>
-      <c r="VK59" s="8"/>
-      <c r="VL59" s="8"/>
-      <c r="VM59" s="8"/>
-      <c r="VN59" s="8"/>
-      <c r="VO59" s="8"/>
-      <c r="VP59" s="8"/>
-      <c r="VQ59" s="8"/>
-      <c r="VR59" s="8"/>
-      <c r="VS59" s="8"/>
-      <c r="VT59" s="8"/>
-      <c r="VU59" s="8"/>
-      <c r="VV59" s="8"/>
-      <c r="VW59" s="8"/>
-      <c r="VX59" s="8"/>
-      <c r="VY59" s="8"/>
-      <c r="VZ59" s="8"/>
-      <c r="WA59" s="8"/>
-      <c r="WB59" s="8"/>
-      <c r="WC59" s="8"/>
-      <c r="WD59" s="8"/>
-      <c r="WE59" s="8"/>
-      <c r="WF59" s="8"/>
-      <c r="WG59" s="8"/>
-      <c r="WH59" s="8"/>
-      <c r="WI59" s="8"/>
-      <c r="WJ59" s="8"/>
-      <c r="WK59" s="8"/>
-      <c r="WL59" s="8"/>
-      <c r="WM59" s="8"/>
-      <c r="WN59" s="8"/>
-      <c r="WO59" s="8"/>
-      <c r="WP59" s="8"/>
-      <c r="WQ59" s="8"/>
-      <c r="WR59" s="8"/>
-      <c r="WS59" s="8"/>
-      <c r="WT59" s="8"/>
-      <c r="WU59" s="8"/>
-      <c r="WV59" s="8"/>
-      <c r="WW59" s="8"/>
-      <c r="WX59" s="8"/>
-      <c r="WY59" s="8"/>
-      <c r="WZ59" s="8"/>
-      <c r="XA59" s="8"/>
-      <c r="XB59" s="8"/>
-      <c r="XC59" s="8"/>
-      <c r="XD59" s="8"/>
-      <c r="XE59" s="8"/>
-      <c r="XF59" s="8"/>
-      <c r="XG59" s="8"/>
-      <c r="XH59" s="8"/>
-      <c r="XI59" s="8"/>
-      <c r="XJ59" s="8"/>
-      <c r="XK59" s="8"/>
-      <c r="XL59" s="8"/>
-      <c r="XM59" s="8"/>
-      <c r="XN59" s="8"/>
-      <c r="XO59" s="8"/>
-      <c r="XP59" s="8"/>
-      <c r="XQ59" s="8"/>
-      <c r="XR59" s="8"/>
-      <c r="XS59" s="8"/>
-      <c r="XT59" s="8"/>
-      <c r="XU59" s="8"/>
-      <c r="XV59" s="8"/>
-      <c r="XW59" s="8"/>
-      <c r="XX59" s="8"/>
-      <c r="XY59" s="8"/>
-      <c r="XZ59" s="8"/>
-      <c r="YA59" s="8"/>
-      <c r="YB59" s="8"/>
-      <c r="YC59" s="8"/>
-      <c r="YD59" s="8"/>
-      <c r="YE59" s="8"/>
-      <c r="YF59" s="8"/>
-      <c r="YG59" s="8"/>
-      <c r="YH59" s="8"/>
-      <c r="YI59" s="8"/>
-      <c r="YJ59" s="8"/>
-      <c r="YK59" s="8"/>
-      <c r="YL59" s="8"/>
-      <c r="YM59" s="8"/>
-      <c r="YN59" s="8"/>
-      <c r="YO59" s="8"/>
-      <c r="YP59" s="8"/>
-      <c r="YQ59" s="8"/>
-      <c r="YR59" s="8"/>
-      <c r="YS59" s="8"/>
-      <c r="YT59" s="8"/>
-      <c r="YU59" s="8"/>
-      <c r="YV59" s="8"/>
-      <c r="YW59" s="8"/>
-      <c r="YX59" s="8"/>
-      <c r="YY59" s="8"/>
-      <c r="YZ59" s="8"/>
-      <c r="ZA59" s="8"/>
-      <c r="ZB59" s="8"/>
-      <c r="ZC59" s="8"/>
-      <c r="ZD59" s="8"/>
-      <c r="ZE59" s="8"/>
-      <c r="ZF59" s="8"/>
-      <c r="ZG59" s="8"/>
-      <c r="ZH59" s="8"/>
-      <c r="ZI59" s="8"/>
-      <c r="ZJ59" s="8"/>
-      <c r="ZK59" s="8"/>
-      <c r="ZL59" s="8"/>
-      <c r="ZM59" s="8"/>
-      <c r="ZN59" s="8"/>
-      <c r="ZO59" s="8"/>
-      <c r="ZP59" s="8"/>
-      <c r="ZQ59" s="8"/>
-      <c r="ZR59" s="8"/>
-      <c r="ZS59" s="8"/>
-      <c r="ZT59" s="8"/>
-      <c r="ZU59" s="8"/>
-      <c r="ZV59" s="8"/>
-      <c r="ZW59" s="8"/>
-      <c r="ZX59" s="8"/>
-      <c r="ZY59" s="8"/>
-      <c r="ZZ59" s="8"/>
-      <c r="AAA59" s="8"/>
-      <c r="AAB59" s="8"/>
-      <c r="AAC59" s="8"/>
-      <c r="AAD59" s="8"/>
-      <c r="AAE59" s="8"/>
-      <c r="AAF59" s="8"/>
-      <c r="AAG59" s="8"/>
-      <c r="AAH59" s="8"/>
-      <c r="AAI59" s="8"/>
-      <c r="AAJ59" s="8"/>
-      <c r="AAK59" s="8"/>
-      <c r="AAL59" s="8"/>
-      <c r="AAM59" s="8"/>
-      <c r="AAN59" s="8"/>
-      <c r="AAO59" s="8"/>
-      <c r="AAP59" s="8"/>
-      <c r="AAQ59" s="8"/>
-      <c r="AAR59" s="8"/>
-      <c r="AAS59" s="8"/>
-      <c r="AAT59" s="8"/>
-      <c r="AAU59" s="8"/>
-      <c r="AAV59" s="8"/>
-      <c r="AAW59" s="8"/>
-      <c r="AAX59" s="8"/>
-      <c r="AAY59" s="8"/>
-      <c r="AAZ59" s="8"/>
-      <c r="ABA59" s="8"/>
-      <c r="ABB59" s="8"/>
-      <c r="ABC59" s="8"/>
-      <c r="ABD59" s="8"/>
-      <c r="ABE59" s="8"/>
-      <c r="ABF59" s="8"/>
-      <c r="ABG59" s="8"/>
-      <c r="ABH59" s="8"/>
-      <c r="ABI59" s="8"/>
-      <c r="ABJ59" s="8"/>
-      <c r="ABK59" s="8"/>
-      <c r="ABL59" s="8"/>
-      <c r="ABM59" s="8"/>
-      <c r="ABN59" s="8"/>
-      <c r="ABO59" s="8"/>
-      <c r="ABP59" s="8"/>
-      <c r="ABQ59" s="8"/>
-      <c r="ABR59" s="8"/>
-      <c r="ABS59" s="8"/>
-      <c r="ABT59" s="8"/>
-      <c r="ABU59" s="8"/>
-      <c r="ABV59" s="8"/>
-      <c r="ABW59" s="8"/>
-      <c r="ABX59" s="8"/>
-      <c r="ABY59" s="8"/>
-      <c r="ABZ59" s="8"/>
-      <c r="ACA59" s="8"/>
-      <c r="ACB59" s="8"/>
-      <c r="ACC59" s="8"/>
-      <c r="ACD59" s="8"/>
-      <c r="ACE59" s="8"/>
-      <c r="ACF59" s="8"/>
-      <c r="ACG59" s="8"/>
-      <c r="ACH59" s="8"/>
-      <c r="ACI59" s="8"/>
-      <c r="ACJ59" s="8"/>
-      <c r="ACK59" s="8"/>
-      <c r="ACL59" s="8"/>
-      <c r="ACM59" s="8"/>
-      <c r="ACN59" s="8"/>
-      <c r="ACO59" s="8"/>
-      <c r="ACP59" s="8"/>
-      <c r="ACQ59" s="8"/>
-      <c r="ACR59" s="8"/>
-      <c r="ACS59" s="8"/>
-      <c r="ACT59" s="8"/>
-      <c r="ACU59" s="8"/>
-      <c r="ACV59" s="8"/>
-      <c r="ACW59" s="8"/>
-      <c r="ACX59" s="8"/>
-      <c r="ACY59" s="8"/>
-      <c r="ACZ59" s="8"/>
-      <c r="ADA59" s="8"/>
-      <c r="ADB59" s="8"/>
-      <c r="ADC59" s="8"/>
-      <c r="ADD59" s="8"/>
-      <c r="ADE59" s="8"/>
-      <c r="ADF59" s="8"/>
-      <c r="ADG59" s="8"/>
-      <c r="ADH59" s="8"/>
-      <c r="ADI59" s="8"/>
-      <c r="ADJ59" s="8"/>
-      <c r="ADK59" s="8"/>
-      <c r="ADL59" s="8"/>
-      <c r="ADM59" s="8"/>
-      <c r="ADN59" s="8"/>
-      <c r="ADO59" s="8"/>
-      <c r="ADP59" s="8"/>
-      <c r="ADQ59" s="8"/>
-      <c r="ADR59" s="8"/>
-      <c r="ADS59" s="8"/>
-      <c r="ADT59" s="8"/>
-      <c r="ADU59" s="8"/>
-      <c r="ADV59" s="8"/>
-      <c r="ADW59" s="8"/>
-      <c r="ADX59" s="8"/>
-      <c r="ADY59" s="8"/>
-      <c r="ADZ59" s="8"/>
-      <c r="AEA59" s="8"/>
-      <c r="AEB59" s="8"/>
-      <c r="AEC59" s="8"/>
-      <c r="AED59" s="8"/>
-      <c r="AEE59" s="8"/>
-      <c r="AEF59" s="8"/>
-      <c r="AEG59" s="8"/>
-      <c r="AEH59" s="8"/>
-      <c r="AEI59" s="8"/>
-      <c r="AEJ59" s="8"/>
-      <c r="AEK59" s="8"/>
-      <c r="AEL59" s="8"/>
-      <c r="AEM59" s="8"/>
-      <c r="AEN59" s="8"/>
-      <c r="AEO59" s="8"/>
-      <c r="AEP59" s="8"/>
-      <c r="AEQ59" s="8"/>
-      <c r="AER59" s="8"/>
-      <c r="AES59" s="8"/>
-      <c r="AET59" s="8"/>
-      <c r="AEU59" s="8"/>
-      <c r="AEV59" s="8"/>
-      <c r="AEW59" s="8"/>
-      <c r="AEX59" s="8"/>
-      <c r="AEY59" s="8"/>
-      <c r="AEZ59" s="8"/>
-      <c r="AFA59" s="8"/>
-      <c r="AFB59" s="8"/>
-      <c r="AFC59" s="8"/>
-      <c r="AFD59" s="8"/>
-      <c r="AFE59" s="8"/>
-      <c r="AFF59" s="8"/>
-      <c r="AFG59" s="8"/>
-      <c r="AFH59" s="8"/>
-      <c r="AFI59" s="8"/>
-      <c r="AFJ59" s="8"/>
-      <c r="AFK59" s="8"/>
-      <c r="AFL59" s="8"/>
-      <c r="AFM59" s="8"/>
-      <c r="AFN59" s="8"/>
-      <c r="AFO59" s="8"/>
-      <c r="AFP59" s="8"/>
-      <c r="AFQ59" s="8"/>
-      <c r="AFR59" s="8"/>
-      <c r="AFS59" s="8"/>
-      <c r="AFT59" s="8"/>
-      <c r="AFU59" s="8"/>
-      <c r="AFV59" s="8"/>
-      <c r="AFW59" s="8"/>
-      <c r="AFX59" s="8"/>
-      <c r="AFY59" s="8"/>
-      <c r="AFZ59" s="8"/>
-      <c r="AGA59" s="8"/>
-      <c r="AGB59" s="8"/>
-      <c r="AGC59" s="8"/>
-      <c r="AGD59" s="8"/>
-      <c r="AGE59" s="8"/>
-      <c r="AGF59" s="8"/>
-      <c r="AGG59" s="8"/>
-      <c r="AGH59" s="8"/>
-      <c r="AGI59" s="8"/>
-      <c r="AGJ59" s="8"/>
-      <c r="AGK59" s="8"/>
-      <c r="AGL59" s="8"/>
-      <c r="AGM59" s="8"/>
-      <c r="AGN59" s="8"/>
-      <c r="AGO59" s="8"/>
-      <c r="AGP59" s="8"/>
-      <c r="AGQ59" s="8"/>
-      <c r="AGR59" s="8"/>
-      <c r="AGS59" s="8"/>
-      <c r="AGT59" s="8"/>
-      <c r="AGU59" s="8"/>
-      <c r="AGV59" s="8"/>
-      <c r="AGW59" s="8"/>
-      <c r="AGX59" s="8"/>
-      <c r="AGY59" s="8"/>
-      <c r="AGZ59" s="8"/>
-      <c r="AHA59" s="8"/>
-      <c r="AHB59" s="8"/>
-      <c r="AHC59" s="8"/>
-      <c r="AHD59" s="8"/>
-      <c r="AHE59" s="8"/>
-      <c r="AHF59" s="8"/>
-      <c r="AHG59" s="8"/>
-      <c r="AHH59" s="8"/>
-      <c r="AHI59" s="8"/>
-      <c r="AHJ59" s="8"/>
-      <c r="AHK59" s="8"/>
-      <c r="AHL59" s="8"/>
-      <c r="AHM59" s="8"/>
-      <c r="AHN59" s="8"/>
-      <c r="AHO59" s="8"/>
-      <c r="AHP59" s="8"/>
-      <c r="AHQ59" s="8"/>
-      <c r="AHR59" s="8"/>
-      <c r="AHS59" s="8"/>
-      <c r="AHT59" s="8"/>
-      <c r="AHU59" s="8"/>
-      <c r="AHV59" s="8"/>
-      <c r="AHW59" s="8"/>
-      <c r="AHX59" s="8"/>
-      <c r="AHY59" s="8"/>
-      <c r="AHZ59" s="8"/>
-      <c r="AIA59" s="8"/>
-      <c r="AIB59" s="8"/>
-      <c r="AIC59" s="8"/>
-      <c r="AID59" s="8"/>
-      <c r="AIE59" s="8"/>
-      <c r="AIF59" s="8"/>
-      <c r="AIG59" s="8"/>
-      <c r="AIH59" s="8"/>
-      <c r="AII59" s="8"/>
-      <c r="AIJ59" s="8"/>
-      <c r="AIK59" s="8"/>
-      <c r="AIL59" s="8"/>
-      <c r="AIM59" s="8"/>
-      <c r="AIN59" s="8"/>
-      <c r="AIO59" s="8"/>
-      <c r="AIP59" s="8"/>
-      <c r="AIQ59" s="8"/>
-      <c r="AIR59" s="8"/>
-      <c r="AIS59" s="8"/>
-      <c r="AIT59" s="8"/>
-      <c r="AIU59" s="8"/>
-      <c r="AIV59" s="8"/>
-      <c r="AIW59" s="8"/>
-      <c r="AIX59" s="8"/>
-      <c r="AIY59" s="8"/>
-      <c r="AIZ59" s="8"/>
-      <c r="AJA59" s="8"/>
-      <c r="AJB59" s="8"/>
-      <c r="AJC59" s="8"/>
-      <c r="AJD59" s="8"/>
-      <c r="AJE59" s="8"/>
-      <c r="AJF59" s="8"/>
-      <c r="AJG59" s="8"/>
-      <c r="AJH59" s="8"/>
-      <c r="AJI59" s="8"/>
-      <c r="AJJ59" s="8"/>
-      <c r="AJK59" s="8"/>
-      <c r="AJL59" s="8"/>
-      <c r="AJM59" s="8"/>
-      <c r="AJN59" s="8"/>
-      <c r="AJO59" s="8"/>
-      <c r="AJP59" s="8"/>
-      <c r="AJQ59" s="8"/>
-      <c r="AJR59" s="8"/>
-      <c r="AJS59" s="8"/>
-      <c r="AJT59" s="8"/>
-      <c r="AJU59" s="8"/>
-      <c r="AJV59" s="8"/>
-      <c r="AJW59" s="8"/>
-      <c r="AJX59" s="8"/>
-      <c r="AJY59" s="8"/>
-      <c r="AJZ59" s="8"/>
-      <c r="AKA59" s="8"/>
-      <c r="AKB59" s="8"/>
-      <c r="AKC59" s="8"/>
-      <c r="AKD59" s="8"/>
-      <c r="AKE59" s="8"/>
-      <c r="AKF59" s="8"/>
-      <c r="AKG59" s="8"/>
-      <c r="AKH59" s="8"/>
-      <c r="AKI59" s="8"/>
-      <c r="AKJ59" s="8"/>
-      <c r="AKK59" s="8"/>
-      <c r="AKL59" s="8"/>
-      <c r="AKM59" s="8"/>
-      <c r="AKN59" s="8"/>
-      <c r="AKO59" s="8"/>
-      <c r="AKP59" s="8"/>
-      <c r="AKQ59" s="8"/>
-      <c r="AKR59" s="8"/>
-      <c r="AKS59" s="8"/>
-      <c r="AKT59" s="8"/>
-      <c r="AKU59" s="8"/>
-      <c r="AKV59" s="8"/>
-      <c r="AKW59" s="8"/>
-      <c r="AKX59" s="8"/>
-      <c r="AKY59" s="8"/>
-      <c r="AKZ59" s="8"/>
-      <c r="ALA59" s="8"/>
-      <c r="ALB59" s="8"/>
-      <c r="ALC59" s="8"/>
-      <c r="ALD59" s="8"/>
-      <c r="ALE59" s="8"/>
-      <c r="ALF59" s="8"/>
-      <c r="ALG59" s="8"/>
-      <c r="ALH59" s="8"/>
-      <c r="ALI59" s="8"/>
-      <c r="ALJ59" s="8"/>
-      <c r="ALK59" s="8"/>
-      <c r="ALL59" s="8"/>
-      <c r="ALM59" s="8"/>
-      <c r="ALN59" s="8"/>
-      <c r="ALO59" s="8"/>
-      <c r="ALP59" s="8"/>
-      <c r="ALQ59" s="8"/>
-      <c r="ALR59" s="8"/>
-      <c r="ALS59" s="8"/>
-      <c r="ALT59" s="8"/>
-      <c r="ALU59" s="8"/>
-      <c r="ALV59" s="8"/>
-      <c r="ALW59" s="8"/>
-      <c r="ALX59" s="8"/>
-      <c r="ALY59" s="8"/>
-      <c r="ALZ59" s="8"/>
-      <c r="AMA59" s="8"/>
-      <c r="AMB59" s="8"/>
-      <c r="AMC59" s="8"/>
-      <c r="AMD59" s="8"/>
-      <c r="AME59" s="8"/>
-      <c r="AMF59" s="8"/>
-      <c r="AMG59" s="8"/>
-      <c r="AMH59" s="8"/>
-      <c r="AMI59" s="8"/>
-      <c r="AMJ59" s="8"/>
-      <c r="AMK59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
+      <c r="C60" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="32"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1025" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="33"/>
+        <v>118</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="8"/>
+      <c r="AQ61" s="8"/>
+      <c r="AR61" s="8"/>
+      <c r="AS61" s="8"/>
+      <c r="AT61" s="8"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="8"/>
+      <c r="AY61" s="8"/>
+      <c r="AZ61" s="8"/>
+      <c r="BA61" s="8"/>
+      <c r="BB61" s="8"/>
+      <c r="BC61" s="8"/>
+      <c r="BD61" s="8"/>
+      <c r="BE61" s="8"/>
+      <c r="BF61" s="8"/>
+      <c r="BG61" s="8"/>
+      <c r="BH61" s="8"/>
+      <c r="BI61" s="8"/>
+      <c r="BJ61" s="8"/>
+      <c r="BK61" s="8"/>
+      <c r="BL61" s="8"/>
+      <c r="BM61" s="8"/>
+      <c r="BN61" s="8"/>
+      <c r="BO61" s="8"/>
+      <c r="BP61" s="8"/>
+      <c r="BQ61" s="8"/>
+      <c r="BR61" s="8"/>
+      <c r="BS61" s="8"/>
+      <c r="BT61" s="8"/>
+      <c r="BU61" s="8"/>
+      <c r="BV61" s="8"/>
+      <c r="BW61" s="8"/>
+      <c r="BX61" s="8"/>
+      <c r="BY61" s="8"/>
+      <c r="BZ61" s="8"/>
+      <c r="CA61" s="8"/>
+      <c r="CB61" s="8"/>
+      <c r="CC61" s="8"/>
+      <c r="CD61" s="8"/>
+      <c r="CE61" s="8"/>
+      <c r="CF61" s="8"/>
+      <c r="CG61" s="8"/>
+      <c r="CH61" s="8"/>
+      <c r="CI61" s="8"/>
+      <c r="CJ61" s="8"/>
+      <c r="CK61" s="8"/>
+      <c r="CL61" s="8"/>
+      <c r="CM61" s="8"/>
+      <c r="CN61" s="8"/>
+      <c r="CO61" s="8"/>
+      <c r="CP61" s="8"/>
+      <c r="CQ61" s="8"/>
+      <c r="CR61" s="8"/>
+      <c r="CS61" s="8"/>
+      <c r="CT61" s="8"/>
+      <c r="CU61" s="8"/>
+      <c r="CV61" s="8"/>
+      <c r="CW61" s="8"/>
+      <c r="CX61" s="8"/>
+      <c r="CY61" s="8"/>
+      <c r="CZ61" s="8"/>
+      <c r="DA61" s="8"/>
+      <c r="DB61" s="8"/>
+      <c r="DC61" s="8"/>
+      <c r="DD61" s="8"/>
+      <c r="DE61" s="8"/>
+      <c r="DF61" s="8"/>
+      <c r="DG61" s="8"/>
+      <c r="DH61" s="8"/>
+      <c r="DI61" s="8"/>
+      <c r="DJ61" s="8"/>
+      <c r="DK61" s="8"/>
+      <c r="DL61" s="8"/>
+      <c r="DM61" s="8"/>
+      <c r="DN61" s="8"/>
+      <c r="DO61" s="8"/>
+      <c r="DP61" s="8"/>
+      <c r="DQ61" s="8"/>
+      <c r="DR61" s="8"/>
+      <c r="DS61" s="8"/>
+      <c r="DT61" s="8"/>
+      <c r="DU61" s="8"/>
+      <c r="DV61" s="8"/>
+      <c r="DW61" s="8"/>
+      <c r="DX61" s="8"/>
+      <c r="DY61" s="8"/>
+      <c r="DZ61" s="8"/>
+      <c r="EA61" s="8"/>
+      <c r="EB61" s="8"/>
+      <c r="EC61" s="8"/>
+      <c r="ED61" s="8"/>
+      <c r="EE61" s="8"/>
+      <c r="EF61" s="8"/>
+      <c r="EG61" s="8"/>
+      <c r="EH61" s="8"/>
+      <c r="EI61" s="8"/>
+      <c r="EJ61" s="8"/>
+      <c r="EK61" s="8"/>
+      <c r="EL61" s="8"/>
+      <c r="EM61" s="8"/>
+      <c r="EN61" s="8"/>
+      <c r="EO61" s="8"/>
+      <c r="EP61" s="8"/>
+      <c r="EQ61" s="8"/>
+      <c r="ER61" s="8"/>
+      <c r="ES61" s="8"/>
+      <c r="ET61" s="8"/>
+      <c r="EU61" s="8"/>
+      <c r="EV61" s="8"/>
+      <c r="EW61" s="8"/>
+      <c r="EX61" s="8"/>
+      <c r="EY61" s="8"/>
+      <c r="EZ61" s="8"/>
+      <c r="FA61" s="8"/>
+      <c r="FB61" s="8"/>
+      <c r="FC61" s="8"/>
+      <c r="FD61" s="8"/>
+      <c r="FE61" s="8"/>
+      <c r="FF61" s="8"/>
+      <c r="FG61" s="8"/>
+      <c r="FH61" s="8"/>
+      <c r="FI61" s="8"/>
+      <c r="FJ61" s="8"/>
+      <c r="FK61" s="8"/>
+      <c r="FL61" s="8"/>
+      <c r="FM61" s="8"/>
+      <c r="FN61" s="8"/>
+      <c r="FO61" s="8"/>
+      <c r="FP61" s="8"/>
+      <c r="FQ61" s="8"/>
+      <c r="FR61" s="8"/>
+      <c r="FS61" s="8"/>
+      <c r="FT61" s="8"/>
+      <c r="FU61" s="8"/>
+      <c r="FV61" s="8"/>
+      <c r="FW61" s="8"/>
+      <c r="FX61" s="8"/>
+      <c r="FY61" s="8"/>
+      <c r="FZ61" s="8"/>
+      <c r="GA61" s="8"/>
+      <c r="GB61" s="8"/>
+      <c r="GC61" s="8"/>
+      <c r="GD61" s="8"/>
+      <c r="GE61" s="8"/>
+      <c r="GF61" s="8"/>
+      <c r="GG61" s="8"/>
+      <c r="GH61" s="8"/>
+      <c r="GI61" s="8"/>
+      <c r="GJ61" s="8"/>
+      <c r="GK61" s="8"/>
+      <c r="GL61" s="8"/>
+      <c r="GM61" s="8"/>
+      <c r="GN61" s="8"/>
+      <c r="GO61" s="8"/>
+      <c r="GP61" s="8"/>
+      <c r="GQ61" s="8"/>
+      <c r="GR61" s="8"/>
+      <c r="GS61" s="8"/>
+      <c r="GT61" s="8"/>
+      <c r="GU61" s="8"/>
+      <c r="GV61" s="8"/>
+      <c r="GW61" s="8"/>
+      <c r="GX61" s="8"/>
+      <c r="GY61" s="8"/>
+      <c r="GZ61" s="8"/>
+      <c r="HA61" s="8"/>
+      <c r="HB61" s="8"/>
+      <c r="HC61" s="8"/>
+      <c r="HD61" s="8"/>
+      <c r="HE61" s="8"/>
+      <c r="HF61" s="8"/>
+      <c r="HG61" s="8"/>
+      <c r="HH61" s="8"/>
+      <c r="HI61" s="8"/>
+      <c r="HJ61" s="8"/>
+      <c r="HK61" s="8"/>
+      <c r="HL61" s="8"/>
+      <c r="HM61" s="8"/>
+      <c r="HN61" s="8"/>
+      <c r="HO61" s="8"/>
+      <c r="HP61" s="8"/>
+      <c r="HQ61" s="8"/>
+      <c r="HR61" s="8"/>
+      <c r="HS61" s="8"/>
+      <c r="HT61" s="8"/>
+      <c r="HU61" s="8"/>
+      <c r="HV61" s="8"/>
+      <c r="HW61" s="8"/>
+      <c r="HX61" s="8"/>
+      <c r="HY61" s="8"/>
+      <c r="HZ61" s="8"/>
+      <c r="IA61" s="8"/>
+      <c r="IB61" s="8"/>
+      <c r="IC61" s="8"/>
+      <c r="ID61" s="8"/>
+      <c r="IE61" s="8"/>
+      <c r="IF61" s="8"/>
+      <c r="IG61" s="8"/>
+      <c r="IH61" s="8"/>
+      <c r="II61" s="8"/>
+      <c r="IJ61" s="8"/>
+      <c r="IK61" s="8"/>
+      <c r="IL61" s="8"/>
+      <c r="IM61" s="8"/>
+      <c r="IN61" s="8"/>
+      <c r="IO61" s="8"/>
+      <c r="IP61" s="8"/>
+      <c r="IQ61" s="8"/>
+      <c r="IR61" s="8"/>
+      <c r="IS61" s="8"/>
+      <c r="IT61" s="8"/>
+      <c r="IU61" s="8"/>
+      <c r="IV61" s="8"/>
+      <c r="IW61" s="8"/>
+      <c r="IX61" s="8"/>
+      <c r="IY61" s="8"/>
+      <c r="IZ61" s="8"/>
+      <c r="JA61" s="8"/>
+      <c r="JB61" s="8"/>
+      <c r="JC61" s="8"/>
+      <c r="JD61" s="8"/>
+      <c r="JE61" s="8"/>
+      <c r="JF61" s="8"/>
+      <c r="JG61" s="8"/>
+      <c r="JH61" s="8"/>
+      <c r="JI61" s="8"/>
+      <c r="JJ61" s="8"/>
+      <c r="JK61" s="8"/>
+      <c r="JL61" s="8"/>
+      <c r="JM61" s="8"/>
+      <c r="JN61" s="8"/>
+      <c r="JO61" s="8"/>
+      <c r="JP61" s="8"/>
+      <c r="JQ61" s="8"/>
+      <c r="JR61" s="8"/>
+      <c r="JS61" s="8"/>
+      <c r="JT61" s="8"/>
+      <c r="JU61" s="8"/>
+      <c r="JV61" s="8"/>
+      <c r="JW61" s="8"/>
+      <c r="JX61" s="8"/>
+      <c r="JY61" s="8"/>
+      <c r="JZ61" s="8"/>
+      <c r="KA61" s="8"/>
+      <c r="KB61" s="8"/>
+      <c r="KC61" s="8"/>
+      <c r="KD61" s="8"/>
+      <c r="KE61" s="8"/>
+      <c r="KF61" s="8"/>
+      <c r="KG61" s="8"/>
+      <c r="KH61" s="8"/>
+      <c r="KI61" s="8"/>
+      <c r="KJ61" s="8"/>
+      <c r="KK61" s="8"/>
+      <c r="KL61" s="8"/>
+      <c r="KM61" s="8"/>
+      <c r="KN61" s="8"/>
+      <c r="KO61" s="8"/>
+      <c r="KP61" s="8"/>
+      <c r="KQ61" s="8"/>
+      <c r="KR61" s="8"/>
+      <c r="KS61" s="8"/>
+      <c r="KT61" s="8"/>
+      <c r="KU61" s="8"/>
+      <c r="KV61" s="8"/>
+      <c r="KW61" s="8"/>
+      <c r="KX61" s="8"/>
+      <c r="KY61" s="8"/>
+      <c r="KZ61" s="8"/>
+      <c r="LA61" s="8"/>
+      <c r="LB61" s="8"/>
+      <c r="LC61" s="8"/>
+      <c r="LD61" s="8"/>
+      <c r="LE61" s="8"/>
+      <c r="LF61" s="8"/>
+      <c r="LG61" s="8"/>
+      <c r="LH61" s="8"/>
+      <c r="LI61" s="8"/>
+      <c r="LJ61" s="8"/>
+      <c r="LK61" s="8"/>
+      <c r="LL61" s="8"/>
+      <c r="LM61" s="8"/>
+      <c r="LN61" s="8"/>
+      <c r="LO61" s="8"/>
+      <c r="LP61" s="8"/>
+      <c r="LQ61" s="8"/>
+      <c r="LR61" s="8"/>
+      <c r="LS61" s="8"/>
+      <c r="LT61" s="8"/>
+      <c r="LU61" s="8"/>
+      <c r="LV61" s="8"/>
+      <c r="LW61" s="8"/>
+      <c r="LX61" s="8"/>
+      <c r="LY61" s="8"/>
+      <c r="LZ61" s="8"/>
+      <c r="MA61" s="8"/>
+      <c r="MB61" s="8"/>
+      <c r="MC61" s="8"/>
+      <c r="MD61" s="8"/>
+      <c r="ME61" s="8"/>
+      <c r="MF61" s="8"/>
+      <c r="MG61" s="8"/>
+      <c r="MH61" s="8"/>
+      <c r="MI61" s="8"/>
+      <c r="MJ61" s="8"/>
+      <c r="MK61" s="8"/>
+      <c r="ML61" s="8"/>
+      <c r="MM61" s="8"/>
+      <c r="MN61" s="8"/>
+      <c r="MO61" s="8"/>
+      <c r="MP61" s="8"/>
+      <c r="MQ61" s="8"/>
+      <c r="MR61" s="8"/>
+      <c r="MS61" s="8"/>
+      <c r="MT61" s="8"/>
+      <c r="MU61" s="8"/>
+      <c r="MV61" s="8"/>
+      <c r="MW61" s="8"/>
+      <c r="MX61" s="8"/>
+      <c r="MY61" s="8"/>
+      <c r="MZ61" s="8"/>
+      <c r="NA61" s="8"/>
+      <c r="NB61" s="8"/>
+      <c r="NC61" s="8"/>
+      <c r="ND61" s="8"/>
+      <c r="NE61" s="8"/>
+      <c r="NF61" s="8"/>
+      <c r="NG61" s="8"/>
+      <c r="NH61" s="8"/>
+      <c r="NI61" s="8"/>
+      <c r="NJ61" s="8"/>
+      <c r="NK61" s="8"/>
+      <c r="NL61" s="8"/>
+      <c r="NM61" s="8"/>
+      <c r="NN61" s="8"/>
+      <c r="NO61" s="8"/>
+      <c r="NP61" s="8"/>
+      <c r="NQ61" s="8"/>
+      <c r="NR61" s="8"/>
+      <c r="NS61" s="8"/>
+      <c r="NT61" s="8"/>
+      <c r="NU61" s="8"/>
+      <c r="NV61" s="8"/>
+      <c r="NW61" s="8"/>
+      <c r="NX61" s="8"/>
+      <c r="NY61" s="8"/>
+      <c r="NZ61" s="8"/>
+      <c r="OA61" s="8"/>
+      <c r="OB61" s="8"/>
+      <c r="OC61" s="8"/>
+      <c r="OD61" s="8"/>
+      <c r="OE61" s="8"/>
+      <c r="OF61" s="8"/>
+      <c r="OG61" s="8"/>
+      <c r="OH61" s="8"/>
+      <c r="OI61" s="8"/>
+      <c r="OJ61" s="8"/>
+      <c r="OK61" s="8"/>
+      <c r="OL61" s="8"/>
+      <c r="OM61" s="8"/>
+      <c r="ON61" s="8"/>
+      <c r="OO61" s="8"/>
+      <c r="OP61" s="8"/>
+      <c r="OQ61" s="8"/>
+      <c r="OR61" s="8"/>
+      <c r="OS61" s="8"/>
+      <c r="OT61" s="8"/>
+      <c r="OU61" s="8"/>
+      <c r="OV61" s="8"/>
+      <c r="OW61" s="8"/>
+      <c r="OX61" s="8"/>
+      <c r="OY61" s="8"/>
+      <c r="OZ61" s="8"/>
+      <c r="PA61" s="8"/>
+      <c r="PB61" s="8"/>
+      <c r="PC61" s="8"/>
+      <c r="PD61" s="8"/>
+      <c r="PE61" s="8"/>
+      <c r="PF61" s="8"/>
+      <c r="PG61" s="8"/>
+      <c r="PH61" s="8"/>
+      <c r="PI61" s="8"/>
+      <c r="PJ61" s="8"/>
+      <c r="PK61" s="8"/>
+      <c r="PL61" s="8"/>
+      <c r="PM61" s="8"/>
+      <c r="PN61" s="8"/>
+      <c r="PO61" s="8"/>
+      <c r="PP61" s="8"/>
+      <c r="PQ61" s="8"/>
+      <c r="PR61" s="8"/>
+      <c r="PS61" s="8"/>
+      <c r="PT61" s="8"/>
+      <c r="PU61" s="8"/>
+      <c r="PV61" s="8"/>
+      <c r="PW61" s="8"/>
+      <c r="PX61" s="8"/>
+      <c r="PY61" s="8"/>
+      <c r="PZ61" s="8"/>
+      <c r="QA61" s="8"/>
+      <c r="QB61" s="8"/>
+      <c r="QC61" s="8"/>
+      <c r="QD61" s="8"/>
+      <c r="QE61" s="8"/>
+      <c r="QF61" s="8"/>
+      <c r="QG61" s="8"/>
+      <c r="QH61" s="8"/>
+      <c r="QI61" s="8"/>
+      <c r="QJ61" s="8"/>
+      <c r="QK61" s="8"/>
+      <c r="QL61" s="8"/>
+      <c r="QM61" s="8"/>
+      <c r="QN61" s="8"/>
+      <c r="QO61" s="8"/>
+      <c r="QP61" s="8"/>
+      <c r="QQ61" s="8"/>
+      <c r="QR61" s="8"/>
+      <c r="QS61" s="8"/>
+      <c r="QT61" s="8"/>
+      <c r="QU61" s="8"/>
+      <c r="QV61" s="8"/>
+      <c r="QW61" s="8"/>
+      <c r="QX61" s="8"/>
+      <c r="QY61" s="8"/>
+      <c r="QZ61" s="8"/>
+      <c r="RA61" s="8"/>
+      <c r="RB61" s="8"/>
+      <c r="RC61" s="8"/>
+      <c r="RD61" s="8"/>
+      <c r="RE61" s="8"/>
+      <c r="RF61" s="8"/>
+      <c r="RG61" s="8"/>
+      <c r="RH61" s="8"/>
+      <c r="RI61" s="8"/>
+      <c r="RJ61" s="8"/>
+      <c r="RK61" s="8"/>
+      <c r="RL61" s="8"/>
+      <c r="RM61" s="8"/>
+      <c r="RN61" s="8"/>
+      <c r="RO61" s="8"/>
+      <c r="RP61" s="8"/>
+      <c r="RQ61" s="8"/>
+      <c r="RR61" s="8"/>
+      <c r="RS61" s="8"/>
+      <c r="RT61" s="8"/>
+      <c r="RU61" s="8"/>
+      <c r="RV61" s="8"/>
+      <c r="RW61" s="8"/>
+      <c r="RX61" s="8"/>
+      <c r="RY61" s="8"/>
+      <c r="RZ61" s="8"/>
+      <c r="SA61" s="8"/>
+      <c r="SB61" s="8"/>
+      <c r="SC61" s="8"/>
+      <c r="SD61" s="8"/>
+      <c r="SE61" s="8"/>
+      <c r="SF61" s="8"/>
+      <c r="SG61" s="8"/>
+      <c r="SH61" s="8"/>
+      <c r="SI61" s="8"/>
+      <c r="SJ61" s="8"/>
+      <c r="SK61" s="8"/>
+      <c r="SL61" s="8"/>
+      <c r="SM61" s="8"/>
+      <c r="SN61" s="8"/>
+      <c r="SO61" s="8"/>
+      <c r="SP61" s="8"/>
+      <c r="SQ61" s="8"/>
+      <c r="SR61" s="8"/>
+      <c r="SS61" s="8"/>
+      <c r="ST61" s="8"/>
+      <c r="SU61" s="8"/>
+      <c r="SV61" s="8"/>
+      <c r="SW61" s="8"/>
+      <c r="SX61" s="8"/>
+      <c r="SY61" s="8"/>
+      <c r="SZ61" s="8"/>
+      <c r="TA61" s="8"/>
+      <c r="TB61" s="8"/>
+      <c r="TC61" s="8"/>
+      <c r="TD61" s="8"/>
+      <c r="TE61" s="8"/>
+      <c r="TF61" s="8"/>
+      <c r="TG61" s="8"/>
+      <c r="TH61" s="8"/>
+      <c r="TI61" s="8"/>
+      <c r="TJ61" s="8"/>
+      <c r="TK61" s="8"/>
+      <c r="TL61" s="8"/>
+      <c r="TM61" s="8"/>
+      <c r="TN61" s="8"/>
+      <c r="TO61" s="8"/>
+      <c r="TP61" s="8"/>
+      <c r="TQ61" s="8"/>
+      <c r="TR61" s="8"/>
+      <c r="TS61" s="8"/>
+      <c r="TT61" s="8"/>
+      <c r="TU61" s="8"/>
+      <c r="TV61" s="8"/>
+      <c r="TW61" s="8"/>
+      <c r="TX61" s="8"/>
+      <c r="TY61" s="8"/>
+      <c r="TZ61" s="8"/>
+      <c r="UA61" s="8"/>
+      <c r="UB61" s="8"/>
+      <c r="UC61" s="8"/>
+      <c r="UD61" s="8"/>
+      <c r="UE61" s="8"/>
+      <c r="UF61" s="8"/>
+      <c r="UG61" s="8"/>
+      <c r="UH61" s="8"/>
+      <c r="UI61" s="8"/>
+      <c r="UJ61" s="8"/>
+      <c r="UK61" s="8"/>
+      <c r="UL61" s="8"/>
+      <c r="UM61" s="8"/>
+      <c r="UN61" s="8"/>
+      <c r="UO61" s="8"/>
+      <c r="UP61" s="8"/>
+      <c r="UQ61" s="8"/>
+      <c r="UR61" s="8"/>
+      <c r="US61" s="8"/>
+      <c r="UT61" s="8"/>
+      <c r="UU61" s="8"/>
+      <c r="UV61" s="8"/>
+      <c r="UW61" s="8"/>
+      <c r="UX61" s="8"/>
+      <c r="UY61" s="8"/>
+      <c r="UZ61" s="8"/>
+      <c r="VA61" s="8"/>
+      <c r="VB61" s="8"/>
+      <c r="VC61" s="8"/>
+      <c r="VD61" s="8"/>
+      <c r="VE61" s="8"/>
+      <c r="VF61" s="8"/>
+      <c r="VG61" s="8"/>
+      <c r="VH61" s="8"/>
+      <c r="VI61" s="8"/>
+      <c r="VJ61" s="8"/>
+      <c r="VK61" s="8"/>
+      <c r="VL61" s="8"/>
+      <c r="VM61" s="8"/>
+      <c r="VN61" s="8"/>
+      <c r="VO61" s="8"/>
+      <c r="VP61" s="8"/>
+      <c r="VQ61" s="8"/>
+      <c r="VR61" s="8"/>
+      <c r="VS61" s="8"/>
+      <c r="VT61" s="8"/>
+      <c r="VU61" s="8"/>
+      <c r="VV61" s="8"/>
+      <c r="VW61" s="8"/>
+      <c r="VX61" s="8"/>
+      <c r="VY61" s="8"/>
+      <c r="VZ61" s="8"/>
+      <c r="WA61" s="8"/>
+      <c r="WB61" s="8"/>
+      <c r="WC61" s="8"/>
+      <c r="WD61" s="8"/>
+      <c r="WE61" s="8"/>
+      <c r="WF61" s="8"/>
+      <c r="WG61" s="8"/>
+      <c r="WH61" s="8"/>
+      <c r="WI61" s="8"/>
+      <c r="WJ61" s="8"/>
+      <c r="WK61" s="8"/>
+      <c r="WL61" s="8"/>
+      <c r="WM61" s="8"/>
+      <c r="WN61" s="8"/>
+      <c r="WO61" s="8"/>
+      <c r="WP61" s="8"/>
+      <c r="WQ61" s="8"/>
+      <c r="WR61" s="8"/>
+      <c r="WS61" s="8"/>
+      <c r="WT61" s="8"/>
+      <c r="WU61" s="8"/>
+      <c r="WV61" s="8"/>
+      <c r="WW61" s="8"/>
+      <c r="WX61" s="8"/>
+      <c r="WY61" s="8"/>
+      <c r="WZ61" s="8"/>
+      <c r="XA61" s="8"/>
+      <c r="XB61" s="8"/>
+      <c r="XC61" s="8"/>
+      <c r="XD61" s="8"/>
+      <c r="XE61" s="8"/>
+      <c r="XF61" s="8"/>
+      <c r="XG61" s="8"/>
+      <c r="XH61" s="8"/>
+      <c r="XI61" s="8"/>
+      <c r="XJ61" s="8"/>
+      <c r="XK61" s="8"/>
+      <c r="XL61" s="8"/>
+      <c r="XM61" s="8"/>
+      <c r="XN61" s="8"/>
+      <c r="XO61" s="8"/>
+      <c r="XP61" s="8"/>
+      <c r="XQ61" s="8"/>
+      <c r="XR61" s="8"/>
+      <c r="XS61" s="8"/>
+      <c r="XT61" s="8"/>
+      <c r="XU61" s="8"/>
+      <c r="XV61" s="8"/>
+      <c r="XW61" s="8"/>
+      <c r="XX61" s="8"/>
+      <c r="XY61" s="8"/>
+      <c r="XZ61" s="8"/>
+      <c r="YA61" s="8"/>
+      <c r="YB61" s="8"/>
+      <c r="YC61" s="8"/>
+      <c r="YD61" s="8"/>
+      <c r="YE61" s="8"/>
+      <c r="YF61" s="8"/>
+      <c r="YG61" s="8"/>
+      <c r="YH61" s="8"/>
+      <c r="YI61" s="8"/>
+      <c r="YJ61" s="8"/>
+      <c r="YK61" s="8"/>
+      <c r="YL61" s="8"/>
+      <c r="YM61" s="8"/>
+      <c r="YN61" s="8"/>
+      <c r="YO61" s="8"/>
+      <c r="YP61" s="8"/>
+      <c r="YQ61" s="8"/>
+      <c r="YR61" s="8"/>
+      <c r="YS61" s="8"/>
+      <c r="YT61" s="8"/>
+      <c r="YU61" s="8"/>
+      <c r="YV61" s="8"/>
+      <c r="YW61" s="8"/>
+      <c r="YX61" s="8"/>
+      <c r="YY61" s="8"/>
+      <c r="YZ61" s="8"/>
+      <c r="ZA61" s="8"/>
+      <c r="ZB61" s="8"/>
+      <c r="ZC61" s="8"/>
+      <c r="ZD61" s="8"/>
+      <c r="ZE61" s="8"/>
+      <c r="ZF61" s="8"/>
+      <c r="ZG61" s="8"/>
+      <c r="ZH61" s="8"/>
+      <c r="ZI61" s="8"/>
+      <c r="ZJ61" s="8"/>
+      <c r="ZK61" s="8"/>
+      <c r="ZL61" s="8"/>
+      <c r="ZM61" s="8"/>
+      <c r="ZN61" s="8"/>
+      <c r="ZO61" s="8"/>
+      <c r="ZP61" s="8"/>
+      <c r="ZQ61" s="8"/>
+      <c r="ZR61" s="8"/>
+      <c r="ZS61" s="8"/>
+      <c r="ZT61" s="8"/>
+      <c r="ZU61" s="8"/>
+      <c r="ZV61" s="8"/>
+      <c r="ZW61" s="8"/>
+      <c r="ZX61" s="8"/>
+      <c r="ZY61" s="8"/>
+      <c r="ZZ61" s="8"/>
+      <c r="AAA61" s="8"/>
+      <c r="AAB61" s="8"/>
+      <c r="AAC61" s="8"/>
+      <c r="AAD61" s="8"/>
+      <c r="AAE61" s="8"/>
+      <c r="AAF61" s="8"/>
+      <c r="AAG61" s="8"/>
+      <c r="AAH61" s="8"/>
+      <c r="AAI61" s="8"/>
+      <c r="AAJ61" s="8"/>
+      <c r="AAK61" s="8"/>
+      <c r="AAL61" s="8"/>
+      <c r="AAM61" s="8"/>
+      <c r="AAN61" s="8"/>
+      <c r="AAO61" s="8"/>
+      <c r="AAP61" s="8"/>
+      <c r="AAQ61" s="8"/>
+      <c r="AAR61" s="8"/>
+      <c r="AAS61" s="8"/>
+      <c r="AAT61" s="8"/>
+      <c r="AAU61" s="8"/>
+      <c r="AAV61" s="8"/>
+      <c r="AAW61" s="8"/>
+      <c r="AAX61" s="8"/>
+      <c r="AAY61" s="8"/>
+      <c r="AAZ61" s="8"/>
+      <c r="ABA61" s="8"/>
+      <c r="ABB61" s="8"/>
+      <c r="ABC61" s="8"/>
+      <c r="ABD61" s="8"/>
+      <c r="ABE61" s="8"/>
+      <c r="ABF61" s="8"/>
+      <c r="ABG61" s="8"/>
+      <c r="ABH61" s="8"/>
+      <c r="ABI61" s="8"/>
+      <c r="ABJ61" s="8"/>
+      <c r="ABK61" s="8"/>
+      <c r="ABL61" s="8"/>
+      <c r="ABM61" s="8"/>
+      <c r="ABN61" s="8"/>
+      <c r="ABO61" s="8"/>
+      <c r="ABP61" s="8"/>
+      <c r="ABQ61" s="8"/>
+      <c r="ABR61" s="8"/>
+      <c r="ABS61" s="8"/>
+      <c r="ABT61" s="8"/>
+      <c r="ABU61" s="8"/>
+      <c r="ABV61" s="8"/>
+      <c r="ABW61" s="8"/>
+      <c r="ABX61" s="8"/>
+      <c r="ABY61" s="8"/>
+      <c r="ABZ61" s="8"/>
+      <c r="ACA61" s="8"/>
+      <c r="ACB61" s="8"/>
+      <c r="ACC61" s="8"/>
+      <c r="ACD61" s="8"/>
+      <c r="ACE61" s="8"/>
+      <c r="ACF61" s="8"/>
+      <c r="ACG61" s="8"/>
+      <c r="ACH61" s="8"/>
+      <c r="ACI61" s="8"/>
+      <c r="ACJ61" s="8"/>
+      <c r="ACK61" s="8"/>
+      <c r="ACL61" s="8"/>
+      <c r="ACM61" s="8"/>
+      <c r="ACN61" s="8"/>
+      <c r="ACO61" s="8"/>
+      <c r="ACP61" s="8"/>
+      <c r="ACQ61" s="8"/>
+      <c r="ACR61" s="8"/>
+      <c r="ACS61" s="8"/>
+      <c r="ACT61" s="8"/>
+      <c r="ACU61" s="8"/>
+      <c r="ACV61" s="8"/>
+      <c r="ACW61" s="8"/>
+      <c r="ACX61" s="8"/>
+      <c r="ACY61" s="8"/>
+      <c r="ACZ61" s="8"/>
+      <c r="ADA61" s="8"/>
+      <c r="ADB61" s="8"/>
+      <c r="ADC61" s="8"/>
+      <c r="ADD61" s="8"/>
+      <c r="ADE61" s="8"/>
+      <c r="ADF61" s="8"/>
+      <c r="ADG61" s="8"/>
+      <c r="ADH61" s="8"/>
+      <c r="ADI61" s="8"/>
+      <c r="ADJ61" s="8"/>
+      <c r="ADK61" s="8"/>
+      <c r="ADL61" s="8"/>
+      <c r="ADM61" s="8"/>
+      <c r="ADN61" s="8"/>
+      <c r="ADO61" s="8"/>
+      <c r="ADP61" s="8"/>
+      <c r="ADQ61" s="8"/>
+      <c r="ADR61" s="8"/>
+      <c r="ADS61" s="8"/>
+      <c r="ADT61" s="8"/>
+      <c r="ADU61" s="8"/>
+      <c r="ADV61" s="8"/>
+      <c r="ADW61" s="8"/>
+      <c r="ADX61" s="8"/>
+      <c r="ADY61" s="8"/>
+      <c r="ADZ61" s="8"/>
+      <c r="AEA61" s="8"/>
+      <c r="AEB61" s="8"/>
+      <c r="AEC61" s="8"/>
+      <c r="AED61" s="8"/>
+      <c r="AEE61" s="8"/>
+      <c r="AEF61" s="8"/>
+      <c r="AEG61" s="8"/>
+      <c r="AEH61" s="8"/>
+      <c r="AEI61" s="8"/>
+      <c r="AEJ61" s="8"/>
+      <c r="AEK61" s="8"/>
+      <c r="AEL61" s="8"/>
+      <c r="AEM61" s="8"/>
+      <c r="AEN61" s="8"/>
+      <c r="AEO61" s="8"/>
+      <c r="AEP61" s="8"/>
+      <c r="AEQ61" s="8"/>
+      <c r="AER61" s="8"/>
+      <c r="AES61" s="8"/>
+      <c r="AET61" s="8"/>
+      <c r="AEU61" s="8"/>
+      <c r="AEV61" s="8"/>
+      <c r="AEW61" s="8"/>
+      <c r="AEX61" s="8"/>
+      <c r="AEY61" s="8"/>
+      <c r="AEZ61" s="8"/>
+      <c r="AFA61" s="8"/>
+      <c r="AFB61" s="8"/>
+      <c r="AFC61" s="8"/>
+      <c r="AFD61" s="8"/>
+      <c r="AFE61" s="8"/>
+      <c r="AFF61" s="8"/>
+      <c r="AFG61" s="8"/>
+      <c r="AFH61" s="8"/>
+      <c r="AFI61" s="8"/>
+      <c r="AFJ61" s="8"/>
+      <c r="AFK61" s="8"/>
+      <c r="AFL61" s="8"/>
+      <c r="AFM61" s="8"/>
+      <c r="AFN61" s="8"/>
+      <c r="AFO61" s="8"/>
+      <c r="AFP61" s="8"/>
+      <c r="AFQ61" s="8"/>
+      <c r="AFR61" s="8"/>
+      <c r="AFS61" s="8"/>
+      <c r="AFT61" s="8"/>
+      <c r="AFU61" s="8"/>
+      <c r="AFV61" s="8"/>
+      <c r="AFW61" s="8"/>
+      <c r="AFX61" s="8"/>
+      <c r="AFY61" s="8"/>
+      <c r="AFZ61" s="8"/>
+      <c r="AGA61" s="8"/>
+      <c r="AGB61" s="8"/>
+      <c r="AGC61" s="8"/>
+      <c r="AGD61" s="8"/>
+      <c r="AGE61" s="8"/>
+      <c r="AGF61" s="8"/>
+      <c r="AGG61" s="8"/>
+      <c r="AGH61" s="8"/>
+      <c r="AGI61" s="8"/>
+      <c r="AGJ61" s="8"/>
+      <c r="AGK61" s="8"/>
+      <c r="AGL61" s="8"/>
+      <c r="AGM61" s="8"/>
+      <c r="AGN61" s="8"/>
+      <c r="AGO61" s="8"/>
+      <c r="AGP61" s="8"/>
+      <c r="AGQ61" s="8"/>
+      <c r="AGR61" s="8"/>
+      <c r="AGS61" s="8"/>
+      <c r="AGT61" s="8"/>
+      <c r="AGU61" s="8"/>
+      <c r="AGV61" s="8"/>
+      <c r="AGW61" s="8"/>
+      <c r="AGX61" s="8"/>
+      <c r="AGY61" s="8"/>
+      <c r="AGZ61" s="8"/>
+      <c r="AHA61" s="8"/>
+      <c r="AHB61" s="8"/>
+      <c r="AHC61" s="8"/>
+      <c r="AHD61" s="8"/>
+      <c r="AHE61" s="8"/>
+      <c r="AHF61" s="8"/>
+      <c r="AHG61" s="8"/>
+      <c r="AHH61" s="8"/>
+      <c r="AHI61" s="8"/>
+      <c r="AHJ61" s="8"/>
+      <c r="AHK61" s="8"/>
+      <c r="AHL61" s="8"/>
+      <c r="AHM61" s="8"/>
+      <c r="AHN61" s="8"/>
+      <c r="AHO61" s="8"/>
+      <c r="AHP61" s="8"/>
+      <c r="AHQ61" s="8"/>
+      <c r="AHR61" s="8"/>
+      <c r="AHS61" s="8"/>
+      <c r="AHT61" s="8"/>
+      <c r="AHU61" s="8"/>
+      <c r="AHV61" s="8"/>
+      <c r="AHW61" s="8"/>
+      <c r="AHX61" s="8"/>
+      <c r="AHY61" s="8"/>
+      <c r="AHZ61" s="8"/>
+      <c r="AIA61" s="8"/>
+      <c r="AIB61" s="8"/>
+      <c r="AIC61" s="8"/>
+      <c r="AID61" s="8"/>
+      <c r="AIE61" s="8"/>
+      <c r="AIF61" s="8"/>
+      <c r="AIG61" s="8"/>
+      <c r="AIH61" s="8"/>
+      <c r="AII61" s="8"/>
+      <c r="AIJ61" s="8"/>
+      <c r="AIK61" s="8"/>
+      <c r="AIL61" s="8"/>
+      <c r="AIM61" s="8"/>
+      <c r="AIN61" s="8"/>
+      <c r="AIO61" s="8"/>
+      <c r="AIP61" s="8"/>
+      <c r="AIQ61" s="8"/>
+      <c r="AIR61" s="8"/>
+      <c r="AIS61" s="8"/>
+      <c r="AIT61" s="8"/>
+      <c r="AIU61" s="8"/>
+      <c r="AIV61" s="8"/>
+      <c r="AIW61" s="8"/>
+      <c r="AIX61" s="8"/>
+      <c r="AIY61" s="8"/>
+      <c r="AIZ61" s="8"/>
+      <c r="AJA61" s="8"/>
+      <c r="AJB61" s="8"/>
+      <c r="AJC61" s="8"/>
+      <c r="AJD61" s="8"/>
+      <c r="AJE61" s="8"/>
+      <c r="AJF61" s="8"/>
+      <c r="AJG61" s="8"/>
+      <c r="AJH61" s="8"/>
+      <c r="AJI61" s="8"/>
+      <c r="AJJ61" s="8"/>
+      <c r="AJK61" s="8"/>
+      <c r="AJL61" s="8"/>
+      <c r="AJM61" s="8"/>
+      <c r="AJN61" s="8"/>
+      <c r="AJO61" s="8"/>
+      <c r="AJP61" s="8"/>
+      <c r="AJQ61" s="8"/>
+      <c r="AJR61" s="8"/>
+      <c r="AJS61" s="8"/>
+      <c r="AJT61" s="8"/>
+      <c r="AJU61" s="8"/>
+      <c r="AJV61" s="8"/>
+      <c r="AJW61" s="8"/>
+      <c r="AJX61" s="8"/>
+      <c r="AJY61" s="8"/>
+      <c r="AJZ61" s="8"/>
+      <c r="AKA61" s="8"/>
+      <c r="AKB61" s="8"/>
+      <c r="AKC61" s="8"/>
+      <c r="AKD61" s="8"/>
+      <c r="AKE61" s="8"/>
+      <c r="AKF61" s="8"/>
+      <c r="AKG61" s="8"/>
+      <c r="AKH61" s="8"/>
+      <c r="AKI61" s="8"/>
+      <c r="AKJ61" s="8"/>
+      <c r="AKK61" s="8"/>
+      <c r="AKL61" s="8"/>
+      <c r="AKM61" s="8"/>
+      <c r="AKN61" s="8"/>
+      <c r="AKO61" s="8"/>
+      <c r="AKP61" s="8"/>
+      <c r="AKQ61" s="8"/>
+      <c r="AKR61" s="8"/>
+      <c r="AKS61" s="8"/>
+      <c r="AKT61" s="8"/>
+      <c r="AKU61" s="8"/>
+      <c r="AKV61" s="8"/>
+      <c r="AKW61" s="8"/>
+      <c r="AKX61" s="8"/>
+      <c r="AKY61" s="8"/>
+      <c r="AKZ61" s="8"/>
+      <c r="ALA61" s="8"/>
+      <c r="ALB61" s="8"/>
+      <c r="ALC61" s="8"/>
+      <c r="ALD61" s="8"/>
+      <c r="ALE61" s="8"/>
+      <c r="ALF61" s="8"/>
+      <c r="ALG61" s="8"/>
+      <c r="ALH61" s="8"/>
+      <c r="ALI61" s="8"/>
+      <c r="ALJ61" s="8"/>
+      <c r="ALK61" s="8"/>
+      <c r="ALL61" s="8"/>
+      <c r="ALM61" s="8"/>
+      <c r="ALN61" s="8"/>
+      <c r="ALO61" s="8"/>
+      <c r="ALP61" s="8"/>
+      <c r="ALQ61" s="8"/>
+      <c r="ALR61" s="8"/>
+      <c r="ALS61" s="8"/>
+      <c r="ALT61" s="8"/>
+      <c r="ALU61" s="8"/>
+      <c r="ALV61" s="8"/>
+      <c r="ALW61" s="8"/>
+      <c r="ALX61" s="8"/>
+      <c r="ALY61" s="8"/>
+      <c r="ALZ61" s="8"/>
+      <c r="AMA61" s="8"/>
+      <c r="AMB61" s="8"/>
+      <c r="AMC61" s="8"/>
+      <c r="AMD61" s="8"/>
+      <c r="AME61" s="8"/>
+      <c r="AMF61" s="8"/>
+      <c r="AMG61" s="8"/>
+      <c r="AMH61" s="8"/>
+      <c r="AMI61" s="8"/>
+      <c r="AMJ61" s="8"/>
+      <c r="AMK61" s="8"/>
     </row>
     <row r="62" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F62" s="9"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="8"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="33"/>
@@ -5485,7 +6539,13 @@
     </row>
     <row r="64" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="33"/>
@@ -5495,8 +6555,8 @@
       <c r="K64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>69</v>
+      <c r="A65" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="33"/>
@@ -5507,7 +6567,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="33"/>
@@ -5517,8 +6577,8 @@
       <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>72</v>
+      <c r="A67" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="33"/>
@@ -5528,61 +6588,59 @@
       <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="A68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="A69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
       <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="B70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="A71" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
       <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -5590,7 +6648,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -5599,7 +6663,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -5608,7 +6672,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -5617,72 +6681,90 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>86</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>78</v>
+      <c r="A78" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>89</v>
+      <c r="A80" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +7291,7 @@
     </row>
     <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7238,12 +8320,12 @@
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="11">
         <f>22/156</f>
@@ -7308,7 +8390,7 @@
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="12">
         <v>0.39</v>
@@ -7361,7 +8443,7 @@
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="12">
         <v>0.16</v>
@@ -7411,7 +8493,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="12">
         <v>0.11</v>
@@ -7461,7 +8543,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="13">
         <v>0.1</v>
@@ -7531,7 +8613,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="9">
         <v>2017</v>
@@ -7539,13 +8621,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="19">
         <v>0.95</v>
@@ -7553,7 +8635,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>2018</v>
@@ -7561,7 +8643,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="19">
         <v>0.95</v>
@@ -7569,7 +8651,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>2020</v>
@@ -7577,7 +8659,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="19">
         <v>0.22</v>
@@ -7586,7 +8668,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -7595,7 +8677,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="19">
         <v>0.22</v>
@@ -7604,7 +8686,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>2020</v>
@@ -7613,14 +8695,14 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>9.5699999999999993E-2</v>
@@ -7629,7 +8711,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -7638,14 +8720,14 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>7.0000000000000007E-2</v>
@@ -7654,7 +8736,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>2020</v>
@@ -7663,7 +8745,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -7683,7 +8765,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="10"/>
@@ -7693,7 +8775,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="32"/>
       <c r="K38" s="9"/>
@@ -7707,7 +8789,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="4"/>
@@ -7735,7 +8817,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="33"/>
       <c r="V43" s="10"/>
@@ -7745,7 +8827,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="33"/>
       <c r="V44" s="10"/>
@@ -7755,51 +8837,51 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>6</v>
@@ -7807,77 +8889,77 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +9033,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7962,10 +9044,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7976,10 +9058,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7990,7 +9072,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>3</v>
@@ -8004,7 +9086,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>4</v>
@@ -8041,33 +9123,33 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -8075,7 +9157,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -8083,7 +9165,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -8091,7 +9173,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -8109,114 +9191,114 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -8229,7 +9311,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="6"/>
@@ -8242,7 +9324,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3"/>
       <c r="F38" s="9"/>
@@ -8266,7 +9348,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="34"/>
@@ -8313,7 +9395,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -8327,7 +9409,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="33"/>
@@ -8338,7 +9420,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -8349,7 +9431,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="33"/>
@@ -8360,7 +9442,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -8371,7 +9453,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -8382,16 +9464,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -8399,7 +9481,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
@@ -8410,7 +9492,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="8"/>
@@ -8421,7 +9503,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
@@ -8434,7 +9516,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="8"/>
@@ -8445,7 +9527,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
@@ -8456,7 +9538,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
@@ -8467,7 +9549,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="8"/>
@@ -8478,36 +9560,36 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
@@ -8515,27 +9597,27 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -9062,7 +10144,7 @@
     </row>
     <row r="12" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P12" s="9">
         <v>42455</v>
@@ -9070,12 +10152,12 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="12">
         <f>23/99</f>
@@ -9140,7 +10222,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9166,7 +10248,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -9189,7 +10271,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -9212,7 +10294,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9235,7 +10317,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -9278,7 +10360,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9">
         <v>2017</v>
@@ -9286,13 +10368,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="44">
         <v>0.95</v>
@@ -9300,7 +10382,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="43">
         <v>2018</v>
@@ -9308,7 +10390,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="44">
         <v>0.95</v>
@@ -9316,7 +10398,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="43">
         <v>2020</v>
@@ -9324,7 +10406,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="44">
         <v>0.22</v>
@@ -9332,7 +10414,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="43">
         <v>2018</v>
@@ -9340,7 +10422,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="44">
         <v>0.22</v>
@@ -9348,7 +10430,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="43">
         <v>2020</v>
@@ -9356,13 +10438,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="43"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="43">
         <v>9.5699999999999993E-2</v>
@@ -9370,7 +10452,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="43">
         <v>2022</v>
@@ -9378,13 +10460,13 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="43"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="43">
         <v>7.0000000000000007E-2</v>
@@ -9392,7 +10474,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="43">
         <v>2020</v>
@@ -9400,7 +10482,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -9420,7 +10502,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="10"/>
@@ -9429,7 +10511,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="31"/>
     </row>
@@ -9441,7 +10523,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="45"/>
@@ -9468,7 +10550,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="46"/>
       <c r="V44" s="10"/>
@@ -9478,7 +10560,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="46"/>
       <c r="V45" s="10"/>
@@ -9488,51 +10570,51 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>6</v>
@@ -9540,77 +10622,77 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -9680,7 +10762,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9691,10 +10773,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9705,10 +10787,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9719,7 +10801,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>3</v>
@@ -9733,10 +10815,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9770,29 +10852,29 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -9800,57 +10882,57 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -9868,114 +10950,114 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
         <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -9988,7 +11070,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="6"/>
@@ -10001,7 +11083,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3"/>
       <c r="F39" s="9"/>
@@ -10025,7 +11107,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="34"/>
@@ -10072,7 +11154,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -10086,7 +11168,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -10097,7 +11179,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="33"/>
@@ -10108,7 +11190,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -10119,7 +11201,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -10130,7 +11212,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="33"/>
@@ -10141,16 +11223,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -10158,7 +11240,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
@@ -10169,7 +11251,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="8"/>
@@ -10180,7 +11262,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -10193,7 +11275,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
@@ -10204,7 +11286,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
@@ -10215,7 +11297,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="8"/>
@@ -10226,7 +11308,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="8"/>
@@ -10237,36 +11319,36 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
         <v>6</v>
@@ -10274,27 +11356,27 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -10821,7 +11903,7 @@
     </row>
     <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11852,7 +12934,7 @@
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11872,7 +12954,7 @@
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="9">
         <f>11/99</f>
@@ -11937,7 +13019,7 @@
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -11971,7 +13053,7 @@
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -12002,7 +13084,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -12033,7 +13115,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -12064,7 +13146,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12115,7 +13197,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9">
         <v>2017</v>
@@ -12137,7 +13219,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="9"/>
@@ -12157,7 +13239,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="44">
         <v>0.95</v>
@@ -12179,7 +13261,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="43">
         <v>2018</v>
@@ -12201,7 +13283,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="44">
         <v>0.95</v>
@@ -12223,7 +13305,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="43">
         <v>2020</v>
@@ -12245,7 +13327,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="44">
         <v>0.22</v>
@@ -12267,7 +13349,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="43">
         <v>2018</v>
@@ -12289,7 +13371,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="44">
         <v>0.22</v>
@@ -12311,7 +13393,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="43">
         <v>2020</v>
@@ -12333,7 +13415,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="9"/>
@@ -12353,7 +13435,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="43">
         <v>9.5699999999999993E-2</v>
@@ -12375,7 +13457,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="43">
         <v>2022</v>
@@ -12397,7 +13479,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="9"/>
@@ -12417,7 +13499,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="43">
         <v>7.0000000000000007E-2</v>
@@ -12439,7 +13521,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="43">
         <v>2020</v>
@@ -12461,7 +13543,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12481,7 +13563,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="10"/>
@@ -12501,7 +13583,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="9"/>
@@ -12541,7 +13623,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="45"/>
@@ -12609,7 +13691,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="9"/>
@@ -12633,7 +13715,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="46"/>
       <c r="C45" s="9"/>
@@ -12657,7 +13739,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -12677,7 +13759,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -12697,7 +13779,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -12717,7 +13799,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -12743,17 +13825,17 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>6</v>
@@ -12761,77 +13843,77 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -12902,7 +13984,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -12972,84 +14054,84 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -13067,114 +14149,114 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
         <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -13187,7 +14269,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="6"/>
@@ -13200,7 +14282,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3"/>
       <c r="F39" s="9"/>
@@ -13224,7 +14306,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="34"/>
@@ -13271,7 +14353,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -13285,7 +14367,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="33"/>
@@ -13296,7 +14378,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="33"/>
@@ -13307,7 +14389,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="33"/>
@@ -13318,7 +14400,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="33"/>
@@ -13329,7 +14411,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="33"/>
@@ -13340,16 +14422,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -13357,7 +14439,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
@@ -13368,7 +14450,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="8"/>
@@ -13379,7 +14461,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34"/>
@@ -13392,7 +14474,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="8"/>
@@ -13403,7 +14485,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="8"/>
@@ -13414,7 +14496,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="8"/>
@@ -13425,7 +14507,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="8"/>
@@ -13436,36 +14518,36 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
         <v>6</v>
@@ -13473,27 +14555,27 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CBP_params.xlsx
+++ b/CBP_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Pneumonia-Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="215">
   <si>
     <t>Van Hollebeke, 2016</t>
   </si>
@@ -776,7 +776,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,12 +786,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,11 +886,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK88"/>
+  <dimension ref="A1:AMK70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1184,7 @@
     <col min="1026" max="16384" width="8.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>119</v>
       </c>
@@ -1245,7 +1234,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
@@ -1265,3542 +1254,3225 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="37">
         <v>2486</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="37">
         <v>2727</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="37">
         <v>2822</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="37">
         <v>3101</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="37">
         <v>3537</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="37">
         <v>3076</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="37">
         <v>2714</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="37">
         <v>2267</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="9">
         <v>2107</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="9">
         <v>1829</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="9">
         <v>1631</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="9">
         <v>1488</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="9">
         <v>615</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="9">
         <v>6849</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="9">
         <v>6578</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="37">
         <v>323.18</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="37">
         <v>436.32</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="37">
         <v>507.96</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="37">
         <v>589.19000000000005</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="37">
         <v>707.4</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="37">
         <v>522.91999999999996</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="37">
         <v>488.52</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="37">
         <v>385.39</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="37">
         <v>379.26</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="37">
         <v>310.93</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="37">
         <v>326.2</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="37">
         <v>282.72000000000003</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="37">
         <v>153.75</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="9">
         <f>0.2*O3</f>
         <v>1369.8000000000002</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="9">
         <f>0.19*P3</f>
         <v>1249.82</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37">
-        <v>27.6</v>
-      </c>
-      <c r="N5" s="37">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37">
-        <v>22.3</v>
-      </c>
-      <c r="N6" s="37">
-        <v>20.9</v>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="37">
+        <v>3230</v>
+      </c>
+      <c r="C5" s="37">
+        <v>3459</v>
+      </c>
+      <c r="D5" s="37">
+        <v>3697</v>
+      </c>
+      <c r="E5" s="37">
+        <v>3733</v>
+      </c>
+      <c r="F5" s="37">
+        <v>4616</v>
+      </c>
+      <c r="G5" s="37">
+        <v>4696</v>
+      </c>
+      <c r="H5" s="37">
+        <v>4158</v>
+      </c>
+      <c r="I5" s="37">
+        <v>3732</v>
+      </c>
+      <c r="J5" s="37">
+        <v>3745</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3286</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3039</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2503</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1173</v>
+      </c>
+      <c r="O5" s="9">
+        <v>6162</v>
+      </c>
+      <c r="P5" s="9">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <v>46.96</v>
+      </c>
+      <c r="H6" s="37">
+        <v>41.58</v>
+      </c>
+      <c r="I6" s="37">
+        <v>74.64</v>
+      </c>
+      <c r="J6" s="37">
+        <v>187.25</v>
+      </c>
+      <c r="K6" s="9">
+        <v>164.3</v>
+      </c>
+      <c r="L6" s="9">
+        <v>151.94999999999999</v>
+      </c>
+      <c r="M6" s="9">
+        <v>175.21</v>
+      </c>
+      <c r="N6" s="9">
+        <v>117.3</v>
       </c>
       <c r="O6" s="9">
-        <v>24.8</v>
+        <f>0.1*O5</f>
+        <v>616.20000000000005</v>
       </c>
       <c r="P6" s="9">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37">
-        <v>28.4</v>
-      </c>
-      <c r="N7" s="37">
-        <v>23.7</v>
+        <f>0.08*P5</f>
+        <v>511.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="37">
+        <v>681</v>
+      </c>
+      <c r="C7" s="37">
+        <v>887</v>
+      </c>
+      <c r="D7" s="37">
+        <v>955</v>
+      </c>
+      <c r="E7" s="37">
+        <v>998</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1187</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1143</v>
+      </c>
+      <c r="H7" s="37">
+        <v>890</v>
+      </c>
+      <c r="I7" s="9">
+        <v>860</v>
+      </c>
+      <c r="J7" s="9">
+        <v>757</v>
+      </c>
+      <c r="K7" s="9">
+        <v>603</v>
+      </c>
+      <c r="L7" s="9">
+        <v>419</v>
+      </c>
+      <c r="M7" s="9">
+        <v>365</v>
+      </c>
+      <c r="N7" s="9">
+        <v>163</v>
       </c>
       <c r="O7" s="9">
-        <v>25.4</v>
+        <v>831</v>
       </c>
       <c r="P7" s="9">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="50">
-        <v>3230</v>
-      </c>
-      <c r="C8" s="50">
-        <v>3459</v>
-      </c>
-      <c r="D8" s="50">
-        <v>3697</v>
-      </c>
-      <c r="E8" s="50">
-        <v>3733</v>
-      </c>
-      <c r="F8" s="50">
-        <v>4616</v>
-      </c>
-      <c r="G8" s="50">
-        <v>4696</v>
-      </c>
-      <c r="H8" s="50">
-        <v>4158</v>
-      </c>
-      <c r="I8" s="50">
-        <v>3732</v>
-      </c>
-      <c r="J8" s="50">
-        <v>3745</v>
-      </c>
-      <c r="K8" s="51">
-        <v>3286</v>
-      </c>
-      <c r="L8" s="51">
-        <v>3039</v>
-      </c>
-      <c r="M8" s="51">
-        <v>2503</v>
-      </c>
-      <c r="N8" s="51">
-        <v>1173</v>
-      </c>
-      <c r="O8" s="51">
-        <v>6162</v>
-      </c>
-      <c r="P8" s="51">
-        <v>6395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="9">
+        <v>61.29</v>
+      </c>
+      <c r="C8" s="9">
+        <v>124.18</v>
+      </c>
+      <c r="D8" s="9">
+        <v>191</v>
+      </c>
+      <c r="E8" s="9">
+        <v>179.64</v>
+      </c>
+      <c r="F8" s="9">
+        <v>213.66</v>
+      </c>
+      <c r="G8" s="9">
+        <v>262.89</v>
+      </c>
+      <c r="H8" s="9">
+        <v>186.9</v>
+      </c>
+      <c r="I8" s="9">
+        <v>301</v>
+      </c>
+      <c r="J8" s="9">
+        <v>295.23</v>
+      </c>
+      <c r="K8" s="9">
+        <v>301.5</v>
+      </c>
+      <c r="L8" s="9">
+        <v>184.36</v>
+      </c>
+      <c r="M8" s="9">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="N8" s="9">
+        <v>70.09</v>
+      </c>
+      <c r="O8" s="9">
+        <f>0.54*O7</f>
+        <v>448.74</v>
+      </c>
+      <c r="P8" s="9">
+        <f>0.49*P7</f>
+        <v>361.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2184</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2167</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2182</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2272</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2563</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2617</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2144</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1967</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1837</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1553</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1322</v>
+      </c>
+      <c r="M9" s="9">
+        <v>980</v>
+      </c>
+      <c r="N9" s="9">
+        <v>331</v>
+      </c>
+      <c r="O9" s="9">
+        <v>3276</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3300</v>
+      </c>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f>0.01*I9</f>
+        <v>19.670000000000002</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>15.53</v>
+      </c>
+      <c r="L10" s="9">
+        <v>13.22</v>
+      </c>
+      <c r="M10" s="9">
+        <f>0.06*M9</f>
+        <v>58.8</v>
+      </c>
+      <c r="N10" s="9">
+        <f>0.07*N9</f>
+        <v>23.17</v>
+      </c>
+      <c r="O10" s="9">
+        <f>0.06*O9</f>
+        <v>196.56</v>
+      </c>
+      <c r="P10" s="9">
+        <f>0.05*P9</f>
         <v>165</v>
       </c>
-      <c r="B9" s="50">
-        <v>0</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0</v>
-      </c>
-      <c r="D9" s="50">
-        <v>0</v>
-      </c>
-      <c r="E9" s="50">
-        <v>0</v>
-      </c>
-      <c r="F9" s="50">
-        <v>0</v>
-      </c>
-      <c r="G9" s="50">
-        <v>46.96</v>
-      </c>
-      <c r="H9" s="50">
-        <v>41.58</v>
-      </c>
-      <c r="I9" s="50">
-        <v>74.64</v>
-      </c>
-      <c r="J9" s="50">
-        <v>187.25</v>
-      </c>
-      <c r="K9" s="51">
-        <v>164.3</v>
-      </c>
-      <c r="L9" s="51">
-        <v>151.94999999999999</v>
-      </c>
-      <c r="M9" s="51">
-        <v>175.21</v>
-      </c>
-      <c r="N9" s="51">
-        <v>117.3</v>
-      </c>
-      <c r="O9" s="51">
-        <f>0.1*O8</f>
-        <v>616.20000000000005</v>
-      </c>
-      <c r="P9" s="51">
-        <f>0.08*P8</f>
-        <v>511.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="M10" s="9">
-        <v>11.5</v>
-      </c>
-      <c r="N10" s="9">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="M11" s="9">
-        <v>10.7</v>
-      </c>
-      <c r="N11" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="O11" s="9">
-        <v>10.9</v>
-      </c>
-      <c r="P11" s="9">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="M12" s="9">
-        <v>11.3</v>
-      </c>
-      <c r="N12" s="9">
-        <v>13</v>
-      </c>
-      <c r="O12" s="9">
-        <v>13.1</v>
-      </c>
-      <c r="P12" s="9">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="50">
-        <v>681</v>
-      </c>
-      <c r="C13" s="50">
-        <v>887</v>
-      </c>
-      <c r="D13" s="50">
-        <v>955</v>
-      </c>
-      <c r="E13" s="50">
-        <v>998</v>
-      </c>
-      <c r="F13" s="50">
-        <v>1187</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1143</v>
-      </c>
-      <c r="H13" s="50">
-        <v>890</v>
-      </c>
-      <c r="I13" s="51">
-        <v>860</v>
-      </c>
-      <c r="J13" s="51">
-        <v>757</v>
-      </c>
-      <c r="K13" s="51">
-        <v>603</v>
-      </c>
-      <c r="L13" s="51">
-        <v>419</v>
-      </c>
-      <c r="M13" s="51">
-        <v>365</v>
-      </c>
-      <c r="N13" s="51">
-        <v>163</v>
-      </c>
-      <c r="O13" s="51">
-        <v>831</v>
-      </c>
-      <c r="P13" s="51">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="51">
-        <v>61.29</v>
-      </c>
-      <c r="C14" s="51">
-        <v>124.18</v>
-      </c>
-      <c r="D14" s="51">
-        <v>191</v>
-      </c>
-      <c r="E14" s="51">
-        <v>179.64</v>
-      </c>
-      <c r="F14" s="51">
-        <v>213.66</v>
-      </c>
-      <c r="G14" s="51">
-        <v>262.89</v>
-      </c>
-      <c r="H14" s="51">
-        <v>186.9</v>
-      </c>
-      <c r="I14" s="51">
-        <v>301</v>
-      </c>
-      <c r="J14" s="51">
-        <v>295.23</v>
-      </c>
-      <c r="K14" s="51">
-        <v>301.5</v>
-      </c>
-      <c r="L14" s="51">
-        <v>184.36</v>
-      </c>
-      <c r="M14" s="51">
-        <v>135.05000000000001</v>
-      </c>
-      <c r="N14" s="51">
-        <v>70.09</v>
-      </c>
-      <c r="O14" s="51">
-        <f>0.54*O13</f>
-        <v>448.74</v>
-      </c>
-      <c r="P14" s="51">
-        <f>0.49*P13</f>
-        <v>361.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" s="9">
-        <v>63.5</v>
-      </c>
-      <c r="N15" s="9">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="9">
-        <v>69</v>
-      </c>
-      <c r="N16" s="9">
-        <v>57.7</v>
-      </c>
-      <c r="O16" s="9">
-        <v>66.5</v>
-      </c>
-      <c r="P16" s="9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="M17" s="9">
-        <v>57.2</v>
-      </c>
-      <c r="N17" s="9">
-        <v>49.5</v>
-      </c>
-      <c r="O17" s="9">
-        <v>53.1</v>
-      </c>
-      <c r="P17" s="9">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="51">
-        <v>2184</v>
-      </c>
-      <c r="C18" s="51">
-        <v>2167</v>
-      </c>
-      <c r="D18" s="51">
-        <v>2182</v>
-      </c>
-      <c r="E18" s="51">
-        <v>2272</v>
-      </c>
-      <c r="F18" s="51">
-        <v>2563</v>
-      </c>
-      <c r="G18" s="51">
-        <v>2617</v>
-      </c>
-      <c r="H18" s="51">
-        <v>2144</v>
-      </c>
-      <c r="I18" s="51">
-        <v>1967</v>
-      </c>
-      <c r="J18" s="51">
-        <v>1837</v>
-      </c>
-      <c r="K18" s="51">
-        <v>1553</v>
-      </c>
-      <c r="L18" s="51">
-        <v>1322</v>
-      </c>
-      <c r="M18" s="51">
-        <v>980</v>
-      </c>
-      <c r="N18" s="51">
-        <v>331</v>
-      </c>
-      <c r="O18" s="51">
-        <v>3276</v>
-      </c>
-      <c r="P18" s="51">
-        <v>3300</v>
-      </c>
-      <c r="Q18" s="37"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="51">
-        <v>0</v>
-      </c>
-      <c r="C19" s="51">
-        <v>0</v>
-      </c>
-      <c r="D19" s="51">
-        <v>0</v>
-      </c>
-      <c r="E19" s="51">
-        <v>0</v>
-      </c>
-      <c r="F19" s="51">
-        <v>0</v>
-      </c>
-      <c r="G19" s="51">
-        <v>0</v>
-      </c>
-      <c r="H19" s="51">
-        <v>0</v>
-      </c>
-      <c r="I19" s="51">
-        <f>0.01*I18</f>
-        <v>19.670000000000002</v>
-      </c>
-      <c r="J19" s="51">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51">
-        <v>15.53</v>
-      </c>
-      <c r="L19" s="51">
-        <v>13.22</v>
-      </c>
-      <c r="M19" s="51">
-        <f>0.06*M18</f>
-        <v>58.8</v>
-      </c>
-      <c r="N19" s="51">
-        <f>0.07*N18</f>
-        <v>23.17</v>
-      </c>
-      <c r="O19" s="51">
-        <f>0.06*O18</f>
-        <v>196.56</v>
-      </c>
-      <c r="P19" s="51">
-        <f>0.05*P18</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="N20" s="9">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="M21" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="N21" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="O21" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="P21" s="9">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="9">
-        <v>3</v>
-      </c>
-      <c r="N22" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="O22" s="9">
-        <v>6.2</v>
-      </c>
-      <c r="P22" s="9">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="51">
-        <v>8228</v>
-      </c>
-      <c r="C23" s="51">
-        <v>8515</v>
-      </c>
-      <c r="D23" s="51">
-        <v>9105</v>
-      </c>
-      <c r="E23" s="51">
-        <v>9130</v>
-      </c>
-      <c r="F23" s="51">
-        <v>10205</v>
-      </c>
-      <c r="G23" s="51">
-        <v>10078</v>
-      </c>
-      <c r="H23" s="51">
-        <v>9728</v>
-      </c>
-      <c r="I23" s="51">
-        <v>9390</v>
-      </c>
-      <c r="J23" s="51">
-        <v>8798</v>
-      </c>
-      <c r="K23" s="51">
-        <v>7761</v>
-      </c>
-      <c r="L23" s="51">
-        <v>7631</v>
-      </c>
-      <c r="M23" s="51">
-        <v>6962</v>
-      </c>
-      <c r="N23" s="51">
-        <v>3273</v>
-      </c>
-      <c r="O23" s="51">
-        <v>12521</v>
-      </c>
-      <c r="P23" s="51">
-        <v>12903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="51">
-        <v>0</v>
-      </c>
-      <c r="C24" s="51">
-        <v>0</v>
-      </c>
-      <c r="D24" s="51">
-        <v>0</v>
-      </c>
-      <c r="E24" s="51">
-        <v>0</v>
-      </c>
-      <c r="F24" s="51">
-        <v>0</v>
-      </c>
-      <c r="G24" s="51">
-        <v>0</v>
-      </c>
-      <c r="H24" s="51">
-        <v>0</v>
-      </c>
-      <c r="I24" s="51">
-        <v>0</v>
-      </c>
-      <c r="J24" s="51">
-        <v>0</v>
-      </c>
-      <c r="K24" s="51">
-        <v>0</v>
-      </c>
-      <c r="L24" s="51">
-        <v>0</v>
-      </c>
-      <c r="M24" s="51">
-        <v>0</v>
-      </c>
-      <c r="N24" s="51">
-        <f>0.01*N23</f>
-        <v>32.730000000000004</v>
-      </c>
-      <c r="O24" s="51">
-        <f>0.01*O23</f>
-        <v>125.21000000000001</v>
-      </c>
-      <c r="P24" s="51">
-        <f>0.01*P23</f>
-        <v>129.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N25" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="M26" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1</v>
-      </c>
-      <c r="P26" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="M27" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="N27" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="O27" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="P27" s="9">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    </row>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-    </row>
-    <row r="29" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B12" s="20">
         <v>7.5</v>
       </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-      <c r="AQ29" s="9"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="9"/>
-      <c r="AT29" s="9"/>
-      <c r="AU29" s="9"/>
-      <c r="AV29" s="9"/>
-      <c r="AW29" s="9"/>
-      <c r="AX29" s="9"/>
-      <c r="AY29" s="9"/>
-      <c r="AZ29" s="9"/>
-      <c r="BA29" s="9"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-      <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-      <c r="BF29" s="9"/>
-      <c r="BG29" s="9"/>
-      <c r="BH29" s="9"/>
-      <c r="BI29" s="9"/>
-      <c r="BJ29" s="9"/>
-      <c r="BK29" s="9"/>
-      <c r="BL29" s="9"/>
-      <c r="BM29" s="9"/>
-      <c r="BN29" s="9"/>
-      <c r="BO29" s="9"/>
-      <c r="BP29" s="9"/>
-      <c r="BQ29" s="9"/>
-      <c r="BR29" s="9"/>
-      <c r="BS29" s="9"/>
-      <c r="BT29" s="9"/>
-      <c r="BU29" s="9"/>
-      <c r="BV29" s="9"/>
-      <c r="BW29" s="9"/>
-      <c r="BX29" s="9"/>
-      <c r="BY29" s="9"/>
-      <c r="BZ29" s="9"/>
-      <c r="CA29" s="9"/>
-      <c r="CB29" s="9"/>
-      <c r="CC29" s="9"/>
-      <c r="CD29" s="9"/>
-      <c r="CE29" s="9"/>
-      <c r="CF29" s="9"/>
-      <c r="CG29" s="9"/>
-      <c r="CH29" s="9"/>
-      <c r="CI29" s="9"/>
-      <c r="CJ29" s="9"/>
-      <c r="CK29" s="9"/>
-      <c r="CL29" s="9"/>
-      <c r="CM29" s="9"/>
-      <c r="CN29" s="9"/>
-      <c r="CO29" s="9"/>
-      <c r="CP29" s="9"/>
-      <c r="CQ29" s="9"/>
-      <c r="CR29" s="9"/>
-      <c r="CS29" s="9"/>
-      <c r="CT29" s="9"/>
-      <c r="CU29" s="9"/>
-      <c r="CV29" s="9"/>
-      <c r="CW29" s="9"/>
-      <c r="CX29" s="9"/>
-      <c r="CY29" s="9"/>
-      <c r="CZ29" s="9"/>
-      <c r="DA29" s="9"/>
-      <c r="DB29" s="9"/>
-      <c r="DC29" s="9"/>
-      <c r="DD29" s="9"/>
-      <c r="DE29" s="9"/>
-      <c r="DF29" s="9"/>
-      <c r="DG29" s="9"/>
-      <c r="DH29" s="9"/>
-      <c r="DI29" s="9"/>
-      <c r="DJ29" s="9"/>
-      <c r="DK29" s="9"/>
-      <c r="DL29" s="9"/>
-      <c r="DM29" s="9"/>
-      <c r="DN29" s="9"/>
-      <c r="DO29" s="9"/>
-      <c r="DP29" s="9"/>
-      <c r="DQ29" s="9"/>
-      <c r="DR29" s="9"/>
-      <c r="DS29" s="9"/>
-      <c r="DT29" s="9"/>
-      <c r="DU29" s="9"/>
-      <c r="DV29" s="9"/>
-      <c r="DW29" s="9"/>
-      <c r="DX29" s="9"/>
-      <c r="DY29" s="9"/>
-      <c r="DZ29" s="9"/>
-      <c r="EA29" s="9"/>
-      <c r="EB29" s="9"/>
-      <c r="EC29" s="9"/>
-      <c r="ED29" s="9"/>
-      <c r="EE29" s="9"/>
-      <c r="EF29" s="9"/>
-      <c r="EG29" s="9"/>
-      <c r="EH29" s="9"/>
-      <c r="EI29" s="9"/>
-      <c r="EJ29" s="9"/>
-      <c r="EK29" s="9"/>
-      <c r="EL29" s="9"/>
-      <c r="EM29" s="9"/>
-      <c r="EN29" s="9"/>
-      <c r="EO29" s="9"/>
-      <c r="EP29" s="9"/>
-      <c r="EQ29" s="9"/>
-      <c r="ER29" s="9"/>
-      <c r="ES29" s="9"/>
-      <c r="ET29" s="9"/>
-      <c r="EU29" s="9"/>
-      <c r="EV29" s="9"/>
-      <c r="EW29" s="9"/>
-      <c r="EX29" s="9"/>
-      <c r="EY29" s="9"/>
-      <c r="EZ29" s="9"/>
-      <c r="FA29" s="9"/>
-      <c r="FB29" s="9"/>
-      <c r="FC29" s="9"/>
-      <c r="FD29" s="9"/>
-      <c r="FE29" s="9"/>
-      <c r="FF29" s="9"/>
-      <c r="FG29" s="9"/>
-      <c r="FH29" s="9"/>
-      <c r="FI29" s="9"/>
-      <c r="FJ29" s="9"/>
-      <c r="FK29" s="9"/>
-      <c r="FL29" s="9"/>
-      <c r="FM29" s="9"/>
-      <c r="FN29" s="9"/>
-      <c r="FO29" s="9"/>
-      <c r="FP29" s="9"/>
-      <c r="FQ29" s="9"/>
-      <c r="FR29" s="9"/>
-      <c r="FS29" s="9"/>
-      <c r="FT29" s="9"/>
-      <c r="FU29" s="9"/>
-      <c r="FV29" s="9"/>
-      <c r="FW29" s="9"/>
-      <c r="FX29" s="9"/>
-      <c r="FY29" s="9"/>
-      <c r="FZ29" s="9"/>
-      <c r="GA29" s="9"/>
-      <c r="GB29" s="9"/>
-      <c r="GC29" s="9"/>
-      <c r="GD29" s="9"/>
-      <c r="GE29" s="9"/>
-      <c r="GF29" s="9"/>
-      <c r="GG29" s="9"/>
-      <c r="GH29" s="9"/>
-      <c r="GI29" s="9"/>
-      <c r="GJ29" s="9"/>
-      <c r="GK29" s="9"/>
-      <c r="GL29" s="9"/>
-      <c r="GM29" s="9"/>
-      <c r="GN29" s="9"/>
-      <c r="GO29" s="9"/>
-      <c r="GP29" s="9"/>
-      <c r="GQ29" s="9"/>
-      <c r="GR29" s="9"/>
-      <c r="GS29" s="9"/>
-      <c r="GT29" s="9"/>
-      <c r="GU29" s="9"/>
-      <c r="GV29" s="9"/>
-      <c r="GW29" s="9"/>
-      <c r="GX29" s="9"/>
-      <c r="GY29" s="9"/>
-      <c r="GZ29" s="9"/>
-      <c r="HA29" s="9"/>
-      <c r="HB29" s="9"/>
-      <c r="HC29" s="9"/>
-      <c r="HD29" s="9"/>
-      <c r="HE29" s="9"/>
-      <c r="HF29" s="9"/>
-      <c r="HG29" s="9"/>
-      <c r="HH29" s="9"/>
-      <c r="HI29" s="9"/>
-      <c r="HJ29" s="9"/>
-      <c r="HK29" s="9"/>
-      <c r="HL29" s="9"/>
-      <c r="HM29" s="9"/>
-      <c r="HN29" s="9"/>
-      <c r="HO29" s="9"/>
-      <c r="HP29" s="9"/>
-      <c r="HQ29" s="9"/>
-      <c r="HR29" s="9"/>
-      <c r="HS29" s="9"/>
-      <c r="HT29" s="9"/>
-      <c r="HU29" s="9"/>
-      <c r="HV29" s="9"/>
-      <c r="HW29" s="9"/>
-      <c r="HX29" s="9"/>
-      <c r="HY29" s="9"/>
-      <c r="HZ29" s="9"/>
-      <c r="IA29" s="9"/>
-      <c r="IB29" s="9"/>
-      <c r="IC29" s="9"/>
-      <c r="ID29" s="9"/>
-      <c r="IE29" s="9"/>
-      <c r="IF29" s="9"/>
-      <c r="IG29" s="9"/>
-      <c r="IH29" s="9"/>
-      <c r="II29" s="9"/>
-      <c r="IJ29" s="9"/>
-      <c r="IK29" s="9"/>
-      <c r="IL29" s="9"/>
-      <c r="IM29" s="9"/>
-      <c r="IN29" s="9"/>
-      <c r="IO29" s="9"/>
-      <c r="IP29" s="9"/>
-      <c r="IQ29" s="9"/>
-      <c r="IR29" s="9"/>
-      <c r="IS29" s="9"/>
-      <c r="IT29" s="9"/>
-      <c r="IU29" s="9"/>
-      <c r="IV29" s="9"/>
-      <c r="IW29" s="9"/>
-      <c r="IX29" s="9"/>
-      <c r="IY29" s="9"/>
-      <c r="IZ29" s="9"/>
-      <c r="JA29" s="9"/>
-      <c r="JB29" s="9"/>
-      <c r="JC29" s="9"/>
-      <c r="JD29" s="9"/>
-      <c r="JE29" s="9"/>
-      <c r="JF29" s="9"/>
-      <c r="JG29" s="9"/>
-      <c r="JH29" s="9"/>
-      <c r="JI29" s="9"/>
-      <c r="JJ29" s="9"/>
-      <c r="JK29" s="9"/>
-      <c r="JL29" s="9"/>
-      <c r="JM29" s="9"/>
-      <c r="JN29" s="9"/>
-      <c r="JO29" s="9"/>
-      <c r="JP29" s="9"/>
-      <c r="JQ29" s="9"/>
-      <c r="JR29" s="9"/>
-      <c r="JS29" s="9"/>
-      <c r="JT29" s="9"/>
-      <c r="JU29" s="9"/>
-      <c r="JV29" s="9"/>
-      <c r="JW29" s="9"/>
-      <c r="JX29" s="9"/>
-      <c r="JY29" s="9"/>
-      <c r="JZ29" s="9"/>
-      <c r="KA29" s="9"/>
-      <c r="KB29" s="9"/>
-      <c r="KC29" s="9"/>
-      <c r="KD29" s="9"/>
-      <c r="KE29" s="9"/>
-      <c r="KF29" s="9"/>
-      <c r="KG29" s="9"/>
-      <c r="KH29" s="9"/>
-      <c r="KI29" s="9"/>
-      <c r="KJ29" s="9"/>
-      <c r="KK29" s="9"/>
-      <c r="KL29" s="9"/>
-      <c r="KM29" s="9"/>
-      <c r="KN29" s="9"/>
-      <c r="KO29" s="9"/>
-      <c r="KP29" s="9"/>
-      <c r="KQ29" s="9"/>
-      <c r="KR29" s="9"/>
-      <c r="KS29" s="9"/>
-      <c r="KT29" s="9"/>
-      <c r="KU29" s="9"/>
-      <c r="KV29" s="9"/>
-      <c r="KW29" s="9"/>
-      <c r="KX29" s="9"/>
-      <c r="KY29" s="9"/>
-      <c r="KZ29" s="9"/>
-      <c r="LA29" s="9"/>
-      <c r="LB29" s="9"/>
-      <c r="LC29" s="9"/>
-      <c r="LD29" s="9"/>
-      <c r="LE29" s="9"/>
-      <c r="LF29" s="9"/>
-      <c r="LG29" s="9"/>
-      <c r="LH29" s="9"/>
-      <c r="LI29" s="9"/>
-      <c r="LJ29" s="9"/>
-      <c r="LK29" s="9"/>
-      <c r="LL29" s="9"/>
-      <c r="LM29" s="9"/>
-      <c r="LN29" s="9"/>
-      <c r="LO29" s="9"/>
-      <c r="LP29" s="9"/>
-      <c r="LQ29" s="9"/>
-      <c r="LR29" s="9"/>
-      <c r="LS29" s="9"/>
-      <c r="LT29" s="9"/>
-      <c r="LU29" s="9"/>
-      <c r="LV29" s="9"/>
-      <c r="LW29" s="9"/>
-      <c r="LX29" s="9"/>
-      <c r="LY29" s="9"/>
-      <c r="LZ29" s="9"/>
-      <c r="MA29" s="9"/>
-      <c r="MB29" s="9"/>
-      <c r="MC29" s="9"/>
-      <c r="MD29" s="9"/>
-      <c r="ME29" s="9"/>
-      <c r="MF29" s="9"/>
-      <c r="MG29" s="9"/>
-      <c r="MH29" s="9"/>
-      <c r="MI29" s="9"/>
-      <c r="MJ29" s="9"/>
-      <c r="MK29" s="9"/>
-      <c r="ML29" s="9"/>
-      <c r="MM29" s="9"/>
-      <c r="MN29" s="9"/>
-      <c r="MO29" s="9"/>
-      <c r="MP29" s="9"/>
-      <c r="MQ29" s="9"/>
-      <c r="MR29" s="9"/>
-      <c r="MS29" s="9"/>
-      <c r="MT29" s="9"/>
-      <c r="MU29" s="9"/>
-      <c r="MV29" s="9"/>
-      <c r="MW29" s="9"/>
-      <c r="MX29" s="9"/>
-      <c r="MY29" s="9"/>
-      <c r="MZ29" s="9"/>
-      <c r="NA29" s="9"/>
-      <c r="NB29" s="9"/>
-      <c r="NC29" s="9"/>
-      <c r="ND29" s="9"/>
-      <c r="NE29" s="9"/>
-      <c r="NF29" s="9"/>
-      <c r="NG29" s="9"/>
-      <c r="NH29" s="9"/>
-      <c r="NI29" s="9"/>
-      <c r="NJ29" s="9"/>
-      <c r="NK29" s="9"/>
-      <c r="NL29" s="9"/>
-      <c r="NM29" s="9"/>
-      <c r="NN29" s="9"/>
-      <c r="NO29" s="9"/>
-      <c r="NP29" s="9"/>
-      <c r="NQ29" s="9"/>
-      <c r="NR29" s="9"/>
-      <c r="NS29" s="9"/>
-      <c r="NT29" s="9"/>
-      <c r="NU29" s="9"/>
-      <c r="NV29" s="9"/>
-      <c r="NW29" s="9"/>
-      <c r="NX29" s="9"/>
-      <c r="NY29" s="9"/>
-      <c r="NZ29" s="9"/>
-      <c r="OA29" s="9"/>
-      <c r="OB29" s="9"/>
-      <c r="OC29" s="9"/>
-      <c r="OD29" s="9"/>
-      <c r="OE29" s="9"/>
-      <c r="OF29" s="9"/>
-      <c r="OG29" s="9"/>
-      <c r="OH29" s="9"/>
-      <c r="OI29" s="9"/>
-      <c r="OJ29" s="9"/>
-      <c r="OK29" s="9"/>
-      <c r="OL29" s="9"/>
-      <c r="OM29" s="9"/>
-      <c r="ON29" s="9"/>
-      <c r="OO29" s="9"/>
-      <c r="OP29" s="9"/>
-      <c r="OQ29" s="9"/>
-      <c r="OR29" s="9"/>
-      <c r="OS29" s="9"/>
-      <c r="OT29" s="9"/>
-      <c r="OU29" s="9"/>
-      <c r="OV29" s="9"/>
-      <c r="OW29" s="9"/>
-      <c r="OX29" s="9"/>
-      <c r="OY29" s="9"/>
-      <c r="OZ29" s="9"/>
-      <c r="PA29" s="9"/>
-      <c r="PB29" s="9"/>
-      <c r="PC29" s="9"/>
-      <c r="PD29" s="9"/>
-      <c r="PE29" s="9"/>
-      <c r="PF29" s="9"/>
-      <c r="PG29" s="9"/>
-      <c r="PH29" s="9"/>
-      <c r="PI29" s="9"/>
-      <c r="PJ29" s="9"/>
-      <c r="PK29" s="9"/>
-      <c r="PL29" s="9"/>
-      <c r="PM29" s="9"/>
-      <c r="PN29" s="9"/>
-      <c r="PO29" s="9"/>
-      <c r="PP29" s="9"/>
-      <c r="PQ29" s="9"/>
-      <c r="PR29" s="9"/>
-      <c r="PS29" s="9"/>
-      <c r="PT29" s="9"/>
-      <c r="PU29" s="9"/>
-      <c r="PV29" s="9"/>
-      <c r="PW29" s="9"/>
-      <c r="PX29" s="9"/>
-      <c r="PY29" s="9"/>
-      <c r="PZ29" s="9"/>
-      <c r="QA29" s="9"/>
-      <c r="QB29" s="9"/>
-      <c r="QC29" s="9"/>
-      <c r="QD29" s="9"/>
-      <c r="QE29" s="9"/>
-      <c r="QF29" s="9"/>
-      <c r="QG29" s="9"/>
-      <c r="QH29" s="9"/>
-      <c r="QI29" s="9"/>
-      <c r="QJ29" s="9"/>
-      <c r="QK29" s="9"/>
-      <c r="QL29" s="9"/>
-      <c r="QM29" s="9"/>
-      <c r="QN29" s="9"/>
-      <c r="QO29" s="9"/>
-      <c r="QP29" s="9"/>
-      <c r="QQ29" s="9"/>
-      <c r="QR29" s="9"/>
-      <c r="QS29" s="9"/>
-      <c r="QT29" s="9"/>
-      <c r="QU29" s="9"/>
-      <c r="QV29" s="9"/>
-      <c r="QW29" s="9"/>
-      <c r="QX29" s="9"/>
-      <c r="QY29" s="9"/>
-      <c r="QZ29" s="9"/>
-      <c r="RA29" s="9"/>
-      <c r="RB29" s="9"/>
-      <c r="RC29" s="9"/>
-      <c r="RD29" s="9"/>
-      <c r="RE29" s="9"/>
-      <c r="RF29" s="9"/>
-      <c r="RG29" s="9"/>
-      <c r="RH29" s="9"/>
-      <c r="RI29" s="9"/>
-      <c r="RJ29" s="9"/>
-      <c r="RK29" s="9"/>
-      <c r="RL29" s="9"/>
-      <c r="RM29" s="9"/>
-      <c r="RN29" s="9"/>
-      <c r="RO29" s="9"/>
-      <c r="RP29" s="9"/>
-      <c r="RQ29" s="9"/>
-      <c r="RR29" s="9"/>
-      <c r="RS29" s="9"/>
-      <c r="RT29" s="9"/>
-      <c r="RU29" s="9"/>
-      <c r="RV29" s="9"/>
-      <c r="RW29" s="9"/>
-      <c r="RX29" s="9"/>
-      <c r="RY29" s="9"/>
-      <c r="RZ29" s="9"/>
-      <c r="SA29" s="9"/>
-      <c r="SB29" s="9"/>
-      <c r="SC29" s="9"/>
-      <c r="SD29" s="9"/>
-      <c r="SE29" s="9"/>
-      <c r="SF29" s="9"/>
-      <c r="SG29" s="9"/>
-      <c r="SH29" s="9"/>
-      <c r="SI29" s="9"/>
-      <c r="SJ29" s="9"/>
-      <c r="SK29" s="9"/>
-      <c r="SL29" s="9"/>
-      <c r="SM29" s="9"/>
-      <c r="SN29" s="9"/>
-      <c r="SO29" s="9"/>
-      <c r="SP29" s="9"/>
-      <c r="SQ29" s="9"/>
-      <c r="SR29" s="9"/>
-      <c r="SS29" s="9"/>
-      <c r="ST29" s="9"/>
-      <c r="SU29" s="9"/>
-      <c r="SV29" s="9"/>
-      <c r="SW29" s="9"/>
-      <c r="SX29" s="9"/>
-      <c r="SY29" s="9"/>
-      <c r="SZ29" s="9"/>
-      <c r="TA29" s="9"/>
-      <c r="TB29" s="9"/>
-      <c r="TC29" s="9"/>
-      <c r="TD29" s="9"/>
-      <c r="TE29" s="9"/>
-      <c r="TF29" s="9"/>
-      <c r="TG29" s="9"/>
-      <c r="TH29" s="9"/>
-      <c r="TI29" s="9"/>
-      <c r="TJ29" s="9"/>
-      <c r="TK29" s="9"/>
-      <c r="TL29" s="9"/>
-      <c r="TM29" s="9"/>
-      <c r="TN29" s="9"/>
-      <c r="TO29" s="9"/>
-      <c r="TP29" s="9"/>
-      <c r="TQ29" s="9"/>
-      <c r="TR29" s="9"/>
-      <c r="TS29" s="9"/>
-      <c r="TT29" s="9"/>
-      <c r="TU29" s="9"/>
-      <c r="TV29" s="9"/>
-      <c r="TW29" s="9"/>
-      <c r="TX29" s="9"/>
-      <c r="TY29" s="9"/>
-      <c r="TZ29" s="9"/>
-      <c r="UA29" s="9"/>
-      <c r="UB29" s="9"/>
-      <c r="UC29" s="9"/>
-      <c r="UD29" s="9"/>
-      <c r="UE29" s="9"/>
-      <c r="UF29" s="9"/>
-      <c r="UG29" s="9"/>
-      <c r="UH29" s="9"/>
-      <c r="UI29" s="9"/>
-      <c r="UJ29" s="9"/>
-      <c r="UK29" s="9"/>
-      <c r="UL29" s="9"/>
-      <c r="UM29" s="9"/>
-      <c r="UN29" s="9"/>
-      <c r="UO29" s="9"/>
-      <c r="UP29" s="9"/>
-      <c r="UQ29" s="9"/>
-      <c r="UR29" s="9"/>
-      <c r="US29" s="9"/>
-      <c r="UT29" s="9"/>
-      <c r="UU29" s="9"/>
-      <c r="UV29" s="9"/>
-      <c r="UW29" s="9"/>
-      <c r="UX29" s="9"/>
-      <c r="UY29" s="9"/>
-      <c r="UZ29" s="9"/>
-      <c r="VA29" s="9"/>
-      <c r="VB29" s="9"/>
-      <c r="VC29" s="9"/>
-      <c r="VD29" s="9"/>
-      <c r="VE29" s="9"/>
-      <c r="VF29" s="9"/>
-      <c r="VG29" s="9"/>
-      <c r="VH29" s="9"/>
-      <c r="VI29" s="9"/>
-      <c r="VJ29" s="9"/>
-      <c r="VK29" s="9"/>
-      <c r="VL29" s="9"/>
-      <c r="VM29" s="9"/>
-      <c r="VN29" s="9"/>
-      <c r="VO29" s="9"/>
-      <c r="VP29" s="9"/>
-      <c r="VQ29" s="9"/>
-      <c r="VR29" s="9"/>
-      <c r="VS29" s="9"/>
-      <c r="VT29" s="9"/>
-      <c r="VU29" s="9"/>
-      <c r="VV29" s="9"/>
-      <c r="VW29" s="9"/>
-      <c r="VX29" s="9"/>
-      <c r="VY29" s="9"/>
-      <c r="VZ29" s="9"/>
-      <c r="WA29" s="9"/>
-      <c r="WB29" s="9"/>
-      <c r="WC29" s="9"/>
-      <c r="WD29" s="9"/>
-      <c r="WE29" s="9"/>
-      <c r="WF29" s="9"/>
-      <c r="WG29" s="9"/>
-      <c r="WH29" s="9"/>
-      <c r="WI29" s="9"/>
-      <c r="WJ29" s="9"/>
-      <c r="WK29" s="9"/>
-      <c r="WL29" s="9"/>
-      <c r="WM29" s="9"/>
-      <c r="WN29" s="9"/>
-      <c r="WO29" s="9"/>
-      <c r="WP29" s="9"/>
-      <c r="WQ29" s="9"/>
-      <c r="WR29" s="9"/>
-      <c r="WS29" s="9"/>
-      <c r="WT29" s="9"/>
-      <c r="WU29" s="9"/>
-      <c r="WV29" s="9"/>
-      <c r="WW29" s="9"/>
-      <c r="WX29" s="9"/>
-      <c r="WY29" s="9"/>
-      <c r="WZ29" s="9"/>
-      <c r="XA29" s="9"/>
-      <c r="XB29" s="9"/>
-      <c r="XC29" s="9"/>
-      <c r="XD29" s="9"/>
-      <c r="XE29" s="9"/>
-      <c r="XF29" s="9"/>
-      <c r="XG29" s="9"/>
-      <c r="XH29" s="9"/>
-      <c r="XI29" s="9"/>
-      <c r="XJ29" s="9"/>
-      <c r="XK29" s="9"/>
-      <c r="XL29" s="9"/>
-      <c r="XM29" s="9"/>
-      <c r="XN29" s="9"/>
-      <c r="XO29" s="9"/>
-      <c r="XP29" s="9"/>
-      <c r="XQ29" s="9"/>
-      <c r="XR29" s="9"/>
-      <c r="XS29" s="9"/>
-      <c r="XT29" s="9"/>
-      <c r="XU29" s="9"/>
-      <c r="XV29" s="9"/>
-      <c r="XW29" s="9"/>
-      <c r="XX29" s="9"/>
-      <c r="XY29" s="9"/>
-      <c r="XZ29" s="9"/>
-      <c r="YA29" s="9"/>
-      <c r="YB29" s="9"/>
-      <c r="YC29" s="9"/>
-      <c r="YD29" s="9"/>
-      <c r="YE29" s="9"/>
-      <c r="YF29" s="9"/>
-      <c r="YG29" s="9"/>
-      <c r="YH29" s="9"/>
-      <c r="YI29" s="9"/>
-      <c r="YJ29" s="9"/>
-      <c r="YK29" s="9"/>
-      <c r="YL29" s="9"/>
-      <c r="YM29" s="9"/>
-      <c r="YN29" s="9"/>
-      <c r="YO29" s="9"/>
-      <c r="YP29" s="9"/>
-      <c r="YQ29" s="9"/>
-      <c r="YR29" s="9"/>
-      <c r="YS29" s="9"/>
-      <c r="YT29" s="9"/>
-      <c r="YU29" s="9"/>
-      <c r="YV29" s="9"/>
-      <c r="YW29" s="9"/>
-      <c r="YX29" s="9"/>
-      <c r="YY29" s="9"/>
-      <c r="YZ29" s="9"/>
-      <c r="ZA29" s="9"/>
-      <c r="ZB29" s="9"/>
-      <c r="ZC29" s="9"/>
-      <c r="ZD29" s="9"/>
-      <c r="ZE29" s="9"/>
-      <c r="ZF29" s="9"/>
-      <c r="ZG29" s="9"/>
-      <c r="ZH29" s="9"/>
-      <c r="ZI29" s="9"/>
-      <c r="ZJ29" s="9"/>
-      <c r="ZK29" s="9"/>
-      <c r="ZL29" s="9"/>
-      <c r="ZM29" s="9"/>
-      <c r="ZN29" s="9"/>
-      <c r="ZO29" s="9"/>
-      <c r="ZP29" s="9"/>
-      <c r="ZQ29" s="9"/>
-      <c r="ZR29" s="9"/>
-      <c r="ZS29" s="9"/>
-      <c r="ZT29" s="9"/>
-      <c r="ZU29" s="9"/>
-      <c r="ZV29" s="9"/>
-      <c r="ZW29" s="9"/>
-      <c r="ZX29" s="9"/>
-      <c r="ZY29" s="9"/>
-      <c r="ZZ29" s="9"/>
-      <c r="AAA29" s="9"/>
-      <c r="AAB29" s="9"/>
-      <c r="AAC29" s="9"/>
-      <c r="AAD29" s="9"/>
-      <c r="AAE29" s="9"/>
-      <c r="AAF29" s="9"/>
-      <c r="AAG29" s="9"/>
-      <c r="AAH29" s="9"/>
-      <c r="AAI29" s="9"/>
-      <c r="AAJ29" s="9"/>
-      <c r="AAK29" s="9"/>
-      <c r="AAL29" s="9"/>
-      <c r="AAM29" s="9"/>
-      <c r="AAN29" s="9"/>
-      <c r="AAO29" s="9"/>
-      <c r="AAP29" s="9"/>
-      <c r="AAQ29" s="9"/>
-      <c r="AAR29" s="9"/>
-      <c r="AAS29" s="9"/>
-      <c r="AAT29" s="9"/>
-      <c r="AAU29" s="9"/>
-      <c r="AAV29" s="9"/>
-      <c r="AAW29" s="9"/>
-      <c r="AAX29" s="9"/>
-      <c r="AAY29" s="9"/>
-      <c r="AAZ29" s="9"/>
-      <c r="ABA29" s="9"/>
-      <c r="ABB29" s="9"/>
-      <c r="ABC29" s="9"/>
-      <c r="ABD29" s="9"/>
-      <c r="ABE29" s="9"/>
-      <c r="ABF29" s="9"/>
-      <c r="ABG29" s="9"/>
-      <c r="ABH29" s="9"/>
-      <c r="ABI29" s="9"/>
-      <c r="ABJ29" s="9"/>
-      <c r="ABK29" s="9"/>
-      <c r="ABL29" s="9"/>
-      <c r="ABM29" s="9"/>
-      <c r="ABN29" s="9"/>
-      <c r="ABO29" s="9"/>
-      <c r="ABP29" s="9"/>
-      <c r="ABQ29" s="9"/>
-      <c r="ABR29" s="9"/>
-      <c r="ABS29" s="9"/>
-      <c r="ABT29" s="9"/>
-      <c r="ABU29" s="9"/>
-      <c r="ABV29" s="9"/>
-      <c r="ABW29" s="9"/>
-      <c r="ABX29" s="9"/>
-      <c r="ABY29" s="9"/>
-      <c r="ABZ29" s="9"/>
-      <c r="ACA29" s="9"/>
-      <c r="ACB29" s="9"/>
-      <c r="ACC29" s="9"/>
-      <c r="ACD29" s="9"/>
-      <c r="ACE29" s="9"/>
-      <c r="ACF29" s="9"/>
-      <c r="ACG29" s="9"/>
-      <c r="ACH29" s="9"/>
-      <c r="ACI29" s="9"/>
-      <c r="ACJ29" s="9"/>
-      <c r="ACK29" s="9"/>
-      <c r="ACL29" s="9"/>
-      <c r="ACM29" s="9"/>
-      <c r="ACN29" s="9"/>
-      <c r="ACO29" s="9"/>
-      <c r="ACP29" s="9"/>
-      <c r="ACQ29" s="9"/>
-      <c r="ACR29" s="9"/>
-      <c r="ACS29" s="9"/>
-      <c r="ACT29" s="9"/>
-      <c r="ACU29" s="9"/>
-      <c r="ACV29" s="9"/>
-      <c r="ACW29" s="9"/>
-      <c r="ACX29" s="9"/>
-      <c r="ACY29" s="9"/>
-      <c r="ACZ29" s="9"/>
-      <c r="ADA29" s="9"/>
-      <c r="ADB29" s="9"/>
-      <c r="ADC29" s="9"/>
-      <c r="ADD29" s="9"/>
-      <c r="ADE29" s="9"/>
-      <c r="ADF29" s="9"/>
-      <c r="ADG29" s="9"/>
-      <c r="ADH29" s="9"/>
-      <c r="ADI29" s="9"/>
-      <c r="ADJ29" s="9"/>
-      <c r="ADK29" s="9"/>
-      <c r="ADL29" s="9"/>
-      <c r="ADM29" s="9"/>
-      <c r="ADN29" s="9"/>
-      <c r="ADO29" s="9"/>
-      <c r="ADP29" s="9"/>
-      <c r="ADQ29" s="9"/>
-      <c r="ADR29" s="9"/>
-      <c r="ADS29" s="9"/>
-      <c r="ADT29" s="9"/>
-      <c r="ADU29" s="9"/>
-      <c r="ADV29" s="9"/>
-      <c r="ADW29" s="9"/>
-      <c r="ADX29" s="9"/>
-      <c r="ADY29" s="9"/>
-      <c r="ADZ29" s="9"/>
-      <c r="AEA29" s="9"/>
-      <c r="AEB29" s="9"/>
-      <c r="AEC29" s="9"/>
-      <c r="AED29" s="9"/>
-      <c r="AEE29" s="9"/>
-      <c r="AEF29" s="9"/>
-      <c r="AEG29" s="9"/>
-      <c r="AEH29" s="9"/>
-      <c r="AEI29" s="9"/>
-      <c r="AEJ29" s="9"/>
-      <c r="AEK29" s="9"/>
-      <c r="AEL29" s="9"/>
-      <c r="AEM29" s="9"/>
-      <c r="AEN29" s="9"/>
-      <c r="AEO29" s="9"/>
-      <c r="AEP29" s="9"/>
-      <c r="AEQ29" s="9"/>
-      <c r="AER29" s="9"/>
-      <c r="AES29" s="9"/>
-      <c r="AET29" s="9"/>
-      <c r="AEU29" s="9"/>
-      <c r="AEV29" s="9"/>
-      <c r="AEW29" s="9"/>
-      <c r="AEX29" s="9"/>
-      <c r="AEY29" s="9"/>
-      <c r="AEZ29" s="9"/>
-      <c r="AFA29" s="9"/>
-      <c r="AFB29" s="9"/>
-      <c r="AFC29" s="9"/>
-      <c r="AFD29" s="9"/>
-      <c r="AFE29" s="9"/>
-      <c r="AFF29" s="9"/>
-      <c r="AFG29" s="9"/>
-      <c r="AFH29" s="9"/>
-      <c r="AFI29" s="9"/>
-      <c r="AFJ29" s="9"/>
-      <c r="AFK29" s="9"/>
-      <c r="AFL29" s="9"/>
-      <c r="AFM29" s="9"/>
-      <c r="AFN29" s="9"/>
-      <c r="AFO29" s="9"/>
-      <c r="AFP29" s="9"/>
-      <c r="AFQ29" s="9"/>
-      <c r="AFR29" s="9"/>
-      <c r="AFS29" s="9"/>
-      <c r="AFT29" s="9"/>
-      <c r="AFU29" s="9"/>
-      <c r="AFV29" s="9"/>
-      <c r="AFW29" s="9"/>
-      <c r="AFX29" s="9"/>
-      <c r="AFY29" s="9"/>
-      <c r="AFZ29" s="9"/>
-      <c r="AGA29" s="9"/>
-      <c r="AGB29" s="9"/>
-      <c r="AGC29" s="9"/>
-      <c r="AGD29" s="9"/>
-      <c r="AGE29" s="9"/>
-      <c r="AGF29" s="9"/>
-      <c r="AGG29" s="9"/>
-      <c r="AGH29" s="9"/>
-      <c r="AGI29" s="9"/>
-      <c r="AGJ29" s="9"/>
-      <c r="AGK29" s="9"/>
-      <c r="AGL29" s="9"/>
-      <c r="AGM29" s="9"/>
-      <c r="AGN29" s="9"/>
-      <c r="AGO29" s="9"/>
-      <c r="AGP29" s="9"/>
-      <c r="AGQ29" s="9"/>
-      <c r="AGR29" s="9"/>
-      <c r="AGS29" s="9"/>
-      <c r="AGT29" s="9"/>
-      <c r="AGU29" s="9"/>
-      <c r="AGV29" s="9"/>
-      <c r="AGW29" s="9"/>
-      <c r="AGX29" s="9"/>
-      <c r="AGY29" s="9"/>
-      <c r="AGZ29" s="9"/>
-      <c r="AHA29" s="9"/>
-      <c r="AHB29" s="9"/>
-      <c r="AHC29" s="9"/>
-      <c r="AHD29" s="9"/>
-      <c r="AHE29" s="9"/>
-      <c r="AHF29" s="9"/>
-      <c r="AHG29" s="9"/>
-      <c r="AHH29" s="9"/>
-      <c r="AHI29" s="9"/>
-      <c r="AHJ29" s="9"/>
-      <c r="AHK29" s="9"/>
-      <c r="AHL29" s="9"/>
-      <c r="AHM29" s="9"/>
-      <c r="AHN29" s="9"/>
-      <c r="AHO29" s="9"/>
-      <c r="AHP29" s="9"/>
-      <c r="AHQ29" s="9"/>
-      <c r="AHR29" s="9"/>
-      <c r="AHS29" s="9"/>
-      <c r="AHT29" s="9"/>
-      <c r="AHU29" s="9"/>
-      <c r="AHV29" s="9"/>
-      <c r="AHW29" s="9"/>
-      <c r="AHX29" s="9"/>
-      <c r="AHY29" s="9"/>
-      <c r="AHZ29" s="9"/>
-      <c r="AIA29" s="9"/>
-      <c r="AIB29" s="9"/>
-      <c r="AIC29" s="9"/>
-      <c r="AID29" s="9"/>
-      <c r="AIE29" s="9"/>
-      <c r="AIF29" s="9"/>
-      <c r="AIG29" s="9"/>
-      <c r="AIH29" s="9"/>
-      <c r="AII29" s="9"/>
-      <c r="AIJ29" s="9"/>
-      <c r="AIK29" s="9"/>
-      <c r="AIL29" s="9"/>
-      <c r="AIM29" s="9"/>
-      <c r="AIN29" s="9"/>
-      <c r="AIO29" s="9"/>
-      <c r="AIP29" s="9"/>
-      <c r="AIQ29" s="9"/>
-      <c r="AIR29" s="9"/>
-      <c r="AIS29" s="9"/>
-      <c r="AIT29" s="9"/>
-      <c r="AIU29" s="9"/>
-      <c r="AIV29" s="9"/>
-      <c r="AIW29" s="9"/>
-      <c r="AIX29" s="9"/>
-      <c r="AIY29" s="9"/>
-      <c r="AIZ29" s="9"/>
-      <c r="AJA29" s="9"/>
-      <c r="AJB29" s="9"/>
-      <c r="AJC29" s="9"/>
-      <c r="AJD29" s="9"/>
-      <c r="AJE29" s="9"/>
-      <c r="AJF29" s="9"/>
-      <c r="AJG29" s="9"/>
-      <c r="AJH29" s="9"/>
-      <c r="AJI29" s="9"/>
-      <c r="AJJ29" s="9"/>
-      <c r="AJK29" s="9"/>
-      <c r="AJL29" s="9"/>
-      <c r="AJM29" s="9"/>
-      <c r="AJN29" s="9"/>
-      <c r="AJO29" s="9"/>
-      <c r="AJP29" s="9"/>
-      <c r="AJQ29" s="9"/>
-      <c r="AJR29" s="9"/>
-      <c r="AJS29" s="9"/>
-      <c r="AJT29" s="9"/>
-      <c r="AJU29" s="9"/>
-      <c r="AJV29" s="9"/>
-      <c r="AJW29" s="9"/>
-      <c r="AJX29" s="9"/>
-      <c r="AJY29" s="9"/>
-      <c r="AJZ29" s="9"/>
-      <c r="AKA29" s="9"/>
-      <c r="AKB29" s="9"/>
-      <c r="AKC29" s="9"/>
-      <c r="AKD29" s="9"/>
-      <c r="AKE29" s="9"/>
-      <c r="AKF29" s="9"/>
-      <c r="AKG29" s="9"/>
-      <c r="AKH29" s="9"/>
-      <c r="AKI29" s="9"/>
-      <c r="AKJ29" s="9"/>
-      <c r="AKK29" s="9"/>
-      <c r="AKL29" s="9"/>
-      <c r="AKM29" s="9"/>
-      <c r="AKN29" s="9"/>
-      <c r="AKO29" s="9"/>
-      <c r="AKP29" s="9"/>
-      <c r="AKQ29" s="9"/>
-      <c r="AKR29" s="9"/>
-      <c r="AKS29" s="9"/>
-      <c r="AKT29" s="9"/>
-      <c r="AKU29" s="9"/>
-      <c r="AKV29" s="9"/>
-      <c r="AKW29" s="9"/>
-      <c r="AKX29" s="9"/>
-      <c r="AKY29" s="9"/>
-      <c r="AKZ29" s="9"/>
-      <c r="ALA29" s="9"/>
-      <c r="ALB29" s="9"/>
-      <c r="ALC29" s="9"/>
-      <c r="ALD29" s="9"/>
-      <c r="ALE29" s="9"/>
-      <c r="ALF29" s="9"/>
-      <c r="ALG29" s="9"/>
-      <c r="ALH29" s="9"/>
-      <c r="ALI29" s="9"/>
-      <c r="ALJ29" s="9"/>
-      <c r="ALK29" s="9"/>
-      <c r="ALL29" s="9"/>
-      <c r="ALM29" s="9"/>
-      <c r="ALN29" s="9"/>
-      <c r="ALO29" s="9"/>
-      <c r="ALP29" s="9"/>
-      <c r="ALQ29" s="9"/>
-      <c r="ALR29" s="9"/>
-      <c r="ALS29" s="9"/>
-      <c r="ALT29" s="9"/>
-      <c r="ALU29" s="9"/>
-      <c r="ALV29" s="9"/>
-      <c r="ALW29" s="9"/>
-      <c r="ALX29" s="9"/>
-      <c r="ALY29" s="9"/>
-      <c r="ALZ29" s="9"/>
-      <c r="AMA29" s="9"/>
-      <c r="AMB29" s="9"/>
-      <c r="AMC29" s="9"/>
-      <c r="AMD29" s="9"/>
-      <c r="AME29" s="9"/>
-      <c r="AMF29" s="9"/>
-      <c r="AMG29" s="9"/>
-      <c r="AMH29" s="9"/>
-      <c r="AMI29" s="9"/>
-      <c r="AMJ29" s="9"/>
-      <c r="AMK29" s="9"/>
-    </row>
-    <row r="30" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="9"/>
+      <c r="CP12" s="9"/>
+      <c r="CQ12" s="9"/>
+      <c r="CR12" s="9"/>
+      <c r="CS12" s="9"/>
+      <c r="CT12" s="9"/>
+      <c r="CU12" s="9"/>
+      <c r="CV12" s="9"/>
+      <c r="CW12" s="9"/>
+      <c r="CX12" s="9"/>
+      <c r="CY12" s="9"/>
+      <c r="CZ12" s="9"/>
+      <c r="DA12" s="9"/>
+      <c r="DB12" s="9"/>
+      <c r="DC12" s="9"/>
+      <c r="DD12" s="9"/>
+      <c r="DE12" s="9"/>
+      <c r="DF12" s="9"/>
+      <c r="DG12" s="9"/>
+      <c r="DH12" s="9"/>
+      <c r="DI12" s="9"/>
+      <c r="DJ12" s="9"/>
+      <c r="DK12" s="9"/>
+      <c r="DL12" s="9"/>
+      <c r="DM12" s="9"/>
+      <c r="DN12" s="9"/>
+      <c r="DO12" s="9"/>
+      <c r="DP12" s="9"/>
+      <c r="DQ12" s="9"/>
+      <c r="DR12" s="9"/>
+      <c r="DS12" s="9"/>
+      <c r="DT12" s="9"/>
+      <c r="DU12" s="9"/>
+      <c r="DV12" s="9"/>
+      <c r="DW12" s="9"/>
+      <c r="DX12" s="9"/>
+      <c r="DY12" s="9"/>
+      <c r="DZ12" s="9"/>
+      <c r="EA12" s="9"/>
+      <c r="EB12" s="9"/>
+      <c r="EC12" s="9"/>
+      <c r="ED12" s="9"/>
+      <c r="EE12" s="9"/>
+      <c r="EF12" s="9"/>
+      <c r="EG12" s="9"/>
+      <c r="EH12" s="9"/>
+      <c r="EI12" s="9"/>
+      <c r="EJ12" s="9"/>
+      <c r="EK12" s="9"/>
+      <c r="EL12" s="9"/>
+      <c r="EM12" s="9"/>
+      <c r="EN12" s="9"/>
+      <c r="EO12" s="9"/>
+      <c r="EP12" s="9"/>
+      <c r="EQ12" s="9"/>
+      <c r="ER12" s="9"/>
+      <c r="ES12" s="9"/>
+      <c r="ET12" s="9"/>
+      <c r="EU12" s="9"/>
+      <c r="EV12" s="9"/>
+      <c r="EW12" s="9"/>
+      <c r="EX12" s="9"/>
+      <c r="EY12" s="9"/>
+      <c r="EZ12" s="9"/>
+      <c r="FA12" s="9"/>
+      <c r="FB12" s="9"/>
+      <c r="FC12" s="9"/>
+      <c r="FD12" s="9"/>
+      <c r="FE12" s="9"/>
+      <c r="FF12" s="9"/>
+      <c r="FG12" s="9"/>
+      <c r="FH12" s="9"/>
+      <c r="FI12" s="9"/>
+      <c r="FJ12" s="9"/>
+      <c r="FK12" s="9"/>
+      <c r="FL12" s="9"/>
+      <c r="FM12" s="9"/>
+      <c r="FN12" s="9"/>
+      <c r="FO12" s="9"/>
+      <c r="FP12" s="9"/>
+      <c r="FQ12" s="9"/>
+      <c r="FR12" s="9"/>
+      <c r="FS12" s="9"/>
+      <c r="FT12" s="9"/>
+      <c r="FU12" s="9"/>
+      <c r="FV12" s="9"/>
+      <c r="FW12" s="9"/>
+      <c r="FX12" s="9"/>
+      <c r="FY12" s="9"/>
+      <c r="FZ12" s="9"/>
+      <c r="GA12" s="9"/>
+      <c r="GB12" s="9"/>
+      <c r="GC12" s="9"/>
+      <c r="GD12" s="9"/>
+      <c r="GE12" s="9"/>
+      <c r="GF12" s="9"/>
+      <c r="GG12" s="9"/>
+      <c r="GH12" s="9"/>
+      <c r="GI12" s="9"/>
+      <c r="GJ12" s="9"/>
+      <c r="GK12" s="9"/>
+      <c r="GL12" s="9"/>
+      <c r="GM12" s="9"/>
+      <c r="GN12" s="9"/>
+      <c r="GO12" s="9"/>
+      <c r="GP12" s="9"/>
+      <c r="GQ12" s="9"/>
+      <c r="GR12" s="9"/>
+      <c r="GS12" s="9"/>
+      <c r="GT12" s="9"/>
+      <c r="GU12" s="9"/>
+      <c r="GV12" s="9"/>
+      <c r="GW12" s="9"/>
+      <c r="GX12" s="9"/>
+      <c r="GY12" s="9"/>
+      <c r="GZ12" s="9"/>
+      <c r="HA12" s="9"/>
+      <c r="HB12" s="9"/>
+      <c r="HC12" s="9"/>
+      <c r="HD12" s="9"/>
+      <c r="HE12" s="9"/>
+      <c r="HF12" s="9"/>
+      <c r="HG12" s="9"/>
+      <c r="HH12" s="9"/>
+      <c r="HI12" s="9"/>
+      <c r="HJ12" s="9"/>
+      <c r="HK12" s="9"/>
+      <c r="HL12" s="9"/>
+      <c r="HM12" s="9"/>
+      <c r="HN12" s="9"/>
+      <c r="HO12" s="9"/>
+      <c r="HP12" s="9"/>
+      <c r="HQ12" s="9"/>
+      <c r="HR12" s="9"/>
+      <c r="HS12" s="9"/>
+      <c r="HT12" s="9"/>
+      <c r="HU12" s="9"/>
+      <c r="HV12" s="9"/>
+      <c r="HW12" s="9"/>
+      <c r="HX12" s="9"/>
+      <c r="HY12" s="9"/>
+      <c r="HZ12" s="9"/>
+      <c r="IA12" s="9"/>
+      <c r="IB12" s="9"/>
+      <c r="IC12" s="9"/>
+      <c r="ID12" s="9"/>
+      <c r="IE12" s="9"/>
+      <c r="IF12" s="9"/>
+      <c r="IG12" s="9"/>
+      <c r="IH12" s="9"/>
+      <c r="II12" s="9"/>
+      <c r="IJ12" s="9"/>
+      <c r="IK12" s="9"/>
+      <c r="IL12" s="9"/>
+      <c r="IM12" s="9"/>
+      <c r="IN12" s="9"/>
+      <c r="IO12" s="9"/>
+      <c r="IP12" s="9"/>
+      <c r="IQ12" s="9"/>
+      <c r="IR12" s="9"/>
+      <c r="IS12" s="9"/>
+      <c r="IT12" s="9"/>
+      <c r="IU12" s="9"/>
+      <c r="IV12" s="9"/>
+      <c r="IW12" s="9"/>
+      <c r="IX12" s="9"/>
+      <c r="IY12" s="9"/>
+      <c r="IZ12" s="9"/>
+      <c r="JA12" s="9"/>
+      <c r="JB12" s="9"/>
+      <c r="JC12" s="9"/>
+      <c r="JD12" s="9"/>
+      <c r="JE12" s="9"/>
+      <c r="JF12" s="9"/>
+      <c r="JG12" s="9"/>
+      <c r="JH12" s="9"/>
+      <c r="JI12" s="9"/>
+      <c r="JJ12" s="9"/>
+      <c r="JK12" s="9"/>
+      <c r="JL12" s="9"/>
+      <c r="JM12" s="9"/>
+      <c r="JN12" s="9"/>
+      <c r="JO12" s="9"/>
+      <c r="JP12" s="9"/>
+      <c r="JQ12" s="9"/>
+      <c r="JR12" s="9"/>
+      <c r="JS12" s="9"/>
+      <c r="JT12" s="9"/>
+      <c r="JU12" s="9"/>
+      <c r="JV12" s="9"/>
+      <c r="JW12" s="9"/>
+      <c r="JX12" s="9"/>
+      <c r="JY12" s="9"/>
+      <c r="JZ12" s="9"/>
+      <c r="KA12" s="9"/>
+      <c r="KB12" s="9"/>
+      <c r="KC12" s="9"/>
+      <c r="KD12" s="9"/>
+      <c r="KE12" s="9"/>
+      <c r="KF12" s="9"/>
+      <c r="KG12" s="9"/>
+      <c r="KH12" s="9"/>
+      <c r="KI12" s="9"/>
+      <c r="KJ12" s="9"/>
+      <c r="KK12" s="9"/>
+      <c r="KL12" s="9"/>
+      <c r="KM12" s="9"/>
+      <c r="KN12" s="9"/>
+      <c r="KO12" s="9"/>
+      <c r="KP12" s="9"/>
+      <c r="KQ12" s="9"/>
+      <c r="KR12" s="9"/>
+      <c r="KS12" s="9"/>
+      <c r="KT12" s="9"/>
+      <c r="KU12" s="9"/>
+      <c r="KV12" s="9"/>
+      <c r="KW12" s="9"/>
+      <c r="KX12" s="9"/>
+      <c r="KY12" s="9"/>
+      <c r="KZ12" s="9"/>
+      <c r="LA12" s="9"/>
+      <c r="LB12" s="9"/>
+      <c r="LC12" s="9"/>
+      <c r="LD12" s="9"/>
+      <c r="LE12" s="9"/>
+      <c r="LF12" s="9"/>
+      <c r="LG12" s="9"/>
+      <c r="LH12" s="9"/>
+      <c r="LI12" s="9"/>
+      <c r="LJ12" s="9"/>
+      <c r="LK12" s="9"/>
+      <c r="LL12" s="9"/>
+      <c r="LM12" s="9"/>
+      <c r="LN12" s="9"/>
+      <c r="LO12" s="9"/>
+      <c r="LP12" s="9"/>
+      <c r="LQ12" s="9"/>
+      <c r="LR12" s="9"/>
+      <c r="LS12" s="9"/>
+      <c r="LT12" s="9"/>
+      <c r="LU12" s="9"/>
+      <c r="LV12" s="9"/>
+      <c r="LW12" s="9"/>
+      <c r="LX12" s="9"/>
+      <c r="LY12" s="9"/>
+      <c r="LZ12" s="9"/>
+      <c r="MA12" s="9"/>
+      <c r="MB12" s="9"/>
+      <c r="MC12" s="9"/>
+      <c r="MD12" s="9"/>
+      <c r="ME12" s="9"/>
+      <c r="MF12" s="9"/>
+      <c r="MG12" s="9"/>
+      <c r="MH12" s="9"/>
+      <c r="MI12" s="9"/>
+      <c r="MJ12" s="9"/>
+      <c r="MK12" s="9"/>
+      <c r="ML12" s="9"/>
+      <c r="MM12" s="9"/>
+      <c r="MN12" s="9"/>
+      <c r="MO12" s="9"/>
+      <c r="MP12" s="9"/>
+      <c r="MQ12" s="9"/>
+      <c r="MR12" s="9"/>
+      <c r="MS12" s="9"/>
+      <c r="MT12" s="9"/>
+      <c r="MU12" s="9"/>
+      <c r="MV12" s="9"/>
+      <c r="MW12" s="9"/>
+      <c r="MX12" s="9"/>
+      <c r="MY12" s="9"/>
+      <c r="MZ12" s="9"/>
+      <c r="NA12" s="9"/>
+      <c r="NB12" s="9"/>
+      <c r="NC12" s="9"/>
+      <c r="ND12" s="9"/>
+      <c r="NE12" s="9"/>
+      <c r="NF12" s="9"/>
+      <c r="NG12" s="9"/>
+      <c r="NH12" s="9"/>
+      <c r="NI12" s="9"/>
+      <c r="NJ12" s="9"/>
+      <c r="NK12" s="9"/>
+      <c r="NL12" s="9"/>
+      <c r="NM12" s="9"/>
+      <c r="NN12" s="9"/>
+      <c r="NO12" s="9"/>
+      <c r="NP12" s="9"/>
+      <c r="NQ12" s="9"/>
+      <c r="NR12" s="9"/>
+      <c r="NS12" s="9"/>
+      <c r="NT12" s="9"/>
+      <c r="NU12" s="9"/>
+      <c r="NV12" s="9"/>
+      <c r="NW12" s="9"/>
+      <c r="NX12" s="9"/>
+      <c r="NY12" s="9"/>
+      <c r="NZ12" s="9"/>
+      <c r="OA12" s="9"/>
+      <c r="OB12" s="9"/>
+      <c r="OC12" s="9"/>
+      <c r="OD12" s="9"/>
+      <c r="OE12" s="9"/>
+      <c r="OF12" s="9"/>
+      <c r="OG12" s="9"/>
+      <c r="OH12" s="9"/>
+      <c r="OI12" s="9"/>
+      <c r="OJ12" s="9"/>
+      <c r="OK12" s="9"/>
+      <c r="OL12" s="9"/>
+      <c r="OM12" s="9"/>
+      <c r="ON12" s="9"/>
+      <c r="OO12" s="9"/>
+      <c r="OP12" s="9"/>
+      <c r="OQ12" s="9"/>
+      <c r="OR12" s="9"/>
+      <c r="OS12" s="9"/>
+      <c r="OT12" s="9"/>
+      <c r="OU12" s="9"/>
+      <c r="OV12" s="9"/>
+      <c r="OW12" s="9"/>
+      <c r="OX12" s="9"/>
+      <c r="OY12" s="9"/>
+      <c r="OZ12" s="9"/>
+      <c r="PA12" s="9"/>
+      <c r="PB12" s="9"/>
+      <c r="PC12" s="9"/>
+      <c r="PD12" s="9"/>
+      <c r="PE12" s="9"/>
+      <c r="PF12" s="9"/>
+      <c r="PG12" s="9"/>
+      <c r="PH12" s="9"/>
+      <c r="PI12" s="9"/>
+      <c r="PJ12" s="9"/>
+      <c r="PK12" s="9"/>
+      <c r="PL12" s="9"/>
+      <c r="PM12" s="9"/>
+      <c r="PN12" s="9"/>
+      <c r="PO12" s="9"/>
+      <c r="PP12" s="9"/>
+      <c r="PQ12" s="9"/>
+      <c r="PR12" s="9"/>
+      <c r="PS12" s="9"/>
+      <c r="PT12" s="9"/>
+      <c r="PU12" s="9"/>
+      <c r="PV12" s="9"/>
+      <c r="PW12" s="9"/>
+      <c r="PX12" s="9"/>
+      <c r="PY12" s="9"/>
+      <c r="PZ12" s="9"/>
+      <c r="QA12" s="9"/>
+      <c r="QB12" s="9"/>
+      <c r="QC12" s="9"/>
+      <c r="QD12" s="9"/>
+      <c r="QE12" s="9"/>
+      <c r="QF12" s="9"/>
+      <c r="QG12" s="9"/>
+      <c r="QH12" s="9"/>
+      <c r="QI12" s="9"/>
+      <c r="QJ12" s="9"/>
+      <c r="QK12" s="9"/>
+      <c r="QL12" s="9"/>
+      <c r="QM12" s="9"/>
+      <c r="QN12" s="9"/>
+      <c r="QO12" s="9"/>
+      <c r="QP12" s="9"/>
+      <c r="QQ12" s="9"/>
+      <c r="QR12" s="9"/>
+      <c r="QS12" s="9"/>
+      <c r="QT12" s="9"/>
+      <c r="QU12" s="9"/>
+      <c r="QV12" s="9"/>
+      <c r="QW12" s="9"/>
+      <c r="QX12" s="9"/>
+      <c r="QY12" s="9"/>
+      <c r="QZ12" s="9"/>
+      <c r="RA12" s="9"/>
+      <c r="RB12" s="9"/>
+      <c r="RC12" s="9"/>
+      <c r="RD12" s="9"/>
+      <c r="RE12" s="9"/>
+      <c r="RF12" s="9"/>
+      <c r="RG12" s="9"/>
+      <c r="RH12" s="9"/>
+      <c r="RI12" s="9"/>
+      <c r="RJ12" s="9"/>
+      <c r="RK12" s="9"/>
+      <c r="RL12" s="9"/>
+      <c r="RM12" s="9"/>
+      <c r="RN12" s="9"/>
+      <c r="RO12" s="9"/>
+      <c r="RP12" s="9"/>
+      <c r="RQ12" s="9"/>
+      <c r="RR12" s="9"/>
+      <c r="RS12" s="9"/>
+      <c r="RT12" s="9"/>
+      <c r="RU12" s="9"/>
+      <c r="RV12" s="9"/>
+      <c r="RW12" s="9"/>
+      <c r="RX12" s="9"/>
+      <c r="RY12" s="9"/>
+      <c r="RZ12" s="9"/>
+      <c r="SA12" s="9"/>
+      <c r="SB12" s="9"/>
+      <c r="SC12" s="9"/>
+      <c r="SD12" s="9"/>
+      <c r="SE12" s="9"/>
+      <c r="SF12" s="9"/>
+      <c r="SG12" s="9"/>
+      <c r="SH12" s="9"/>
+      <c r="SI12" s="9"/>
+      <c r="SJ12" s="9"/>
+      <c r="SK12" s="9"/>
+      <c r="SL12" s="9"/>
+      <c r="SM12" s="9"/>
+      <c r="SN12" s="9"/>
+      <c r="SO12" s="9"/>
+      <c r="SP12" s="9"/>
+      <c r="SQ12" s="9"/>
+      <c r="SR12" s="9"/>
+      <c r="SS12" s="9"/>
+      <c r="ST12" s="9"/>
+      <c r="SU12" s="9"/>
+      <c r="SV12" s="9"/>
+      <c r="SW12" s="9"/>
+      <c r="SX12" s="9"/>
+      <c r="SY12" s="9"/>
+      <c r="SZ12" s="9"/>
+      <c r="TA12" s="9"/>
+      <c r="TB12" s="9"/>
+      <c r="TC12" s="9"/>
+      <c r="TD12" s="9"/>
+      <c r="TE12" s="9"/>
+      <c r="TF12" s="9"/>
+      <c r="TG12" s="9"/>
+      <c r="TH12" s="9"/>
+      <c r="TI12" s="9"/>
+      <c r="TJ12" s="9"/>
+      <c r="TK12" s="9"/>
+      <c r="TL12" s="9"/>
+      <c r="TM12" s="9"/>
+      <c r="TN12" s="9"/>
+      <c r="TO12" s="9"/>
+      <c r="TP12" s="9"/>
+      <c r="TQ12" s="9"/>
+      <c r="TR12" s="9"/>
+      <c r="TS12" s="9"/>
+      <c r="TT12" s="9"/>
+      <c r="TU12" s="9"/>
+      <c r="TV12" s="9"/>
+      <c r="TW12" s="9"/>
+      <c r="TX12" s="9"/>
+      <c r="TY12" s="9"/>
+      <c r="TZ12" s="9"/>
+      <c r="UA12" s="9"/>
+      <c r="UB12" s="9"/>
+      <c r="UC12" s="9"/>
+      <c r="UD12" s="9"/>
+      <c r="UE12" s="9"/>
+      <c r="UF12" s="9"/>
+      <c r="UG12" s="9"/>
+      <c r="UH12" s="9"/>
+      <c r="UI12" s="9"/>
+      <c r="UJ12" s="9"/>
+      <c r="UK12" s="9"/>
+      <c r="UL12" s="9"/>
+      <c r="UM12" s="9"/>
+      <c r="UN12" s="9"/>
+      <c r="UO12" s="9"/>
+      <c r="UP12" s="9"/>
+      <c r="UQ12" s="9"/>
+      <c r="UR12" s="9"/>
+      <c r="US12" s="9"/>
+      <c r="UT12" s="9"/>
+      <c r="UU12" s="9"/>
+      <c r="UV12" s="9"/>
+      <c r="UW12" s="9"/>
+      <c r="UX12" s="9"/>
+      <c r="UY12" s="9"/>
+      <c r="UZ12" s="9"/>
+      <c r="VA12" s="9"/>
+      <c r="VB12" s="9"/>
+      <c r="VC12" s="9"/>
+      <c r="VD12" s="9"/>
+      <c r="VE12" s="9"/>
+      <c r="VF12" s="9"/>
+      <c r="VG12" s="9"/>
+      <c r="VH12" s="9"/>
+      <c r="VI12" s="9"/>
+      <c r="VJ12" s="9"/>
+      <c r="VK12" s="9"/>
+      <c r="VL12" s="9"/>
+      <c r="VM12" s="9"/>
+      <c r="VN12" s="9"/>
+      <c r="VO12" s="9"/>
+      <c r="VP12" s="9"/>
+      <c r="VQ12" s="9"/>
+      <c r="VR12" s="9"/>
+      <c r="VS12" s="9"/>
+      <c r="VT12" s="9"/>
+      <c r="VU12" s="9"/>
+      <c r="VV12" s="9"/>
+      <c r="VW12" s="9"/>
+      <c r="VX12" s="9"/>
+      <c r="VY12" s="9"/>
+      <c r="VZ12" s="9"/>
+      <c r="WA12" s="9"/>
+      <c r="WB12" s="9"/>
+      <c r="WC12" s="9"/>
+      <c r="WD12" s="9"/>
+      <c r="WE12" s="9"/>
+      <c r="WF12" s="9"/>
+      <c r="WG12" s="9"/>
+      <c r="WH12" s="9"/>
+      <c r="WI12" s="9"/>
+      <c r="WJ12" s="9"/>
+      <c r="WK12" s="9"/>
+      <c r="WL12" s="9"/>
+      <c r="WM12" s="9"/>
+      <c r="WN12" s="9"/>
+      <c r="WO12" s="9"/>
+      <c r="WP12" s="9"/>
+      <c r="WQ12" s="9"/>
+      <c r="WR12" s="9"/>
+      <c r="WS12" s="9"/>
+      <c r="WT12" s="9"/>
+      <c r="WU12" s="9"/>
+      <c r="WV12" s="9"/>
+      <c r="WW12" s="9"/>
+      <c r="WX12" s="9"/>
+      <c r="WY12" s="9"/>
+      <c r="WZ12" s="9"/>
+      <c r="XA12" s="9"/>
+      <c r="XB12" s="9"/>
+      <c r="XC12" s="9"/>
+      <c r="XD12" s="9"/>
+      <c r="XE12" s="9"/>
+      <c r="XF12" s="9"/>
+      <c r="XG12" s="9"/>
+      <c r="XH12" s="9"/>
+      <c r="XI12" s="9"/>
+      <c r="XJ12" s="9"/>
+      <c r="XK12" s="9"/>
+      <c r="XL12" s="9"/>
+      <c r="XM12" s="9"/>
+      <c r="XN12" s="9"/>
+      <c r="XO12" s="9"/>
+      <c r="XP12" s="9"/>
+      <c r="XQ12" s="9"/>
+      <c r="XR12" s="9"/>
+      <c r="XS12" s="9"/>
+      <c r="XT12" s="9"/>
+      <c r="XU12" s="9"/>
+      <c r="XV12" s="9"/>
+      <c r="XW12" s="9"/>
+      <c r="XX12" s="9"/>
+      <c r="XY12" s="9"/>
+      <c r="XZ12" s="9"/>
+      <c r="YA12" s="9"/>
+      <c r="YB12" s="9"/>
+      <c r="YC12" s="9"/>
+      <c r="YD12" s="9"/>
+      <c r="YE12" s="9"/>
+      <c r="YF12" s="9"/>
+      <c r="YG12" s="9"/>
+      <c r="YH12" s="9"/>
+      <c r="YI12" s="9"/>
+      <c r="YJ12" s="9"/>
+      <c r="YK12" s="9"/>
+      <c r="YL12" s="9"/>
+      <c r="YM12" s="9"/>
+      <c r="YN12" s="9"/>
+      <c r="YO12" s="9"/>
+      <c r="YP12" s="9"/>
+      <c r="YQ12" s="9"/>
+      <c r="YR12" s="9"/>
+      <c r="YS12" s="9"/>
+      <c r="YT12" s="9"/>
+      <c r="YU12" s="9"/>
+      <c r="YV12" s="9"/>
+      <c r="YW12" s="9"/>
+      <c r="YX12" s="9"/>
+      <c r="YY12" s="9"/>
+      <c r="YZ12" s="9"/>
+      <c r="ZA12" s="9"/>
+      <c r="ZB12" s="9"/>
+      <c r="ZC12" s="9"/>
+      <c r="ZD12" s="9"/>
+      <c r="ZE12" s="9"/>
+      <c r="ZF12" s="9"/>
+      <c r="ZG12" s="9"/>
+      <c r="ZH12" s="9"/>
+      <c r="ZI12" s="9"/>
+      <c r="ZJ12" s="9"/>
+      <c r="ZK12" s="9"/>
+      <c r="ZL12" s="9"/>
+      <c r="ZM12" s="9"/>
+      <c r="ZN12" s="9"/>
+      <c r="ZO12" s="9"/>
+      <c r="ZP12" s="9"/>
+      <c r="ZQ12" s="9"/>
+      <c r="ZR12" s="9"/>
+      <c r="ZS12" s="9"/>
+      <c r="ZT12" s="9"/>
+      <c r="ZU12" s="9"/>
+      <c r="ZV12" s="9"/>
+      <c r="ZW12" s="9"/>
+      <c r="ZX12" s="9"/>
+      <c r="ZY12" s="9"/>
+      <c r="ZZ12" s="9"/>
+      <c r="AAA12" s="9"/>
+      <c r="AAB12" s="9"/>
+      <c r="AAC12" s="9"/>
+      <c r="AAD12" s="9"/>
+      <c r="AAE12" s="9"/>
+      <c r="AAF12" s="9"/>
+      <c r="AAG12" s="9"/>
+      <c r="AAH12" s="9"/>
+      <c r="AAI12" s="9"/>
+      <c r="AAJ12" s="9"/>
+      <c r="AAK12" s="9"/>
+      <c r="AAL12" s="9"/>
+      <c r="AAM12" s="9"/>
+      <c r="AAN12" s="9"/>
+      <c r="AAO12" s="9"/>
+      <c r="AAP12" s="9"/>
+      <c r="AAQ12" s="9"/>
+      <c r="AAR12" s="9"/>
+      <c r="AAS12" s="9"/>
+      <c r="AAT12" s="9"/>
+      <c r="AAU12" s="9"/>
+      <c r="AAV12" s="9"/>
+      <c r="AAW12" s="9"/>
+      <c r="AAX12" s="9"/>
+      <c r="AAY12" s="9"/>
+      <c r="AAZ12" s="9"/>
+      <c r="ABA12" s="9"/>
+      <c r="ABB12" s="9"/>
+      <c r="ABC12" s="9"/>
+      <c r="ABD12" s="9"/>
+      <c r="ABE12" s="9"/>
+      <c r="ABF12" s="9"/>
+      <c r="ABG12" s="9"/>
+      <c r="ABH12" s="9"/>
+      <c r="ABI12" s="9"/>
+      <c r="ABJ12" s="9"/>
+      <c r="ABK12" s="9"/>
+      <c r="ABL12" s="9"/>
+      <c r="ABM12" s="9"/>
+      <c r="ABN12" s="9"/>
+      <c r="ABO12" s="9"/>
+      <c r="ABP12" s="9"/>
+      <c r="ABQ12" s="9"/>
+      <c r="ABR12" s="9"/>
+      <c r="ABS12" s="9"/>
+      <c r="ABT12" s="9"/>
+      <c r="ABU12" s="9"/>
+      <c r="ABV12" s="9"/>
+      <c r="ABW12" s="9"/>
+      <c r="ABX12" s="9"/>
+      <c r="ABY12" s="9"/>
+      <c r="ABZ12" s="9"/>
+      <c r="ACA12" s="9"/>
+      <c r="ACB12" s="9"/>
+      <c r="ACC12" s="9"/>
+      <c r="ACD12" s="9"/>
+      <c r="ACE12" s="9"/>
+      <c r="ACF12" s="9"/>
+      <c r="ACG12" s="9"/>
+      <c r="ACH12" s="9"/>
+      <c r="ACI12" s="9"/>
+      <c r="ACJ12" s="9"/>
+      <c r="ACK12" s="9"/>
+      <c r="ACL12" s="9"/>
+      <c r="ACM12" s="9"/>
+      <c r="ACN12" s="9"/>
+      <c r="ACO12" s="9"/>
+      <c r="ACP12" s="9"/>
+      <c r="ACQ12" s="9"/>
+      <c r="ACR12" s="9"/>
+      <c r="ACS12" s="9"/>
+      <c r="ACT12" s="9"/>
+      <c r="ACU12" s="9"/>
+      <c r="ACV12" s="9"/>
+      <c r="ACW12" s="9"/>
+      <c r="ACX12" s="9"/>
+      <c r="ACY12" s="9"/>
+      <c r="ACZ12" s="9"/>
+      <c r="ADA12" s="9"/>
+      <c r="ADB12" s="9"/>
+      <c r="ADC12" s="9"/>
+      <c r="ADD12" s="9"/>
+      <c r="ADE12" s="9"/>
+      <c r="ADF12" s="9"/>
+      <c r="ADG12" s="9"/>
+      <c r="ADH12" s="9"/>
+      <c r="ADI12" s="9"/>
+      <c r="ADJ12" s="9"/>
+      <c r="ADK12" s="9"/>
+      <c r="ADL12" s="9"/>
+      <c r="ADM12" s="9"/>
+      <c r="ADN12" s="9"/>
+      <c r="ADO12" s="9"/>
+      <c r="ADP12" s="9"/>
+      <c r="ADQ12" s="9"/>
+      <c r="ADR12" s="9"/>
+      <c r="ADS12" s="9"/>
+      <c r="ADT12" s="9"/>
+      <c r="ADU12" s="9"/>
+      <c r="ADV12" s="9"/>
+      <c r="ADW12" s="9"/>
+      <c r="ADX12" s="9"/>
+      <c r="ADY12" s="9"/>
+      <c r="ADZ12" s="9"/>
+      <c r="AEA12" s="9"/>
+      <c r="AEB12" s="9"/>
+      <c r="AEC12" s="9"/>
+      <c r="AED12" s="9"/>
+      <c r="AEE12" s="9"/>
+      <c r="AEF12" s="9"/>
+      <c r="AEG12" s="9"/>
+      <c r="AEH12" s="9"/>
+      <c r="AEI12" s="9"/>
+      <c r="AEJ12" s="9"/>
+      <c r="AEK12" s="9"/>
+      <c r="AEL12" s="9"/>
+      <c r="AEM12" s="9"/>
+      <c r="AEN12" s="9"/>
+      <c r="AEO12" s="9"/>
+      <c r="AEP12" s="9"/>
+      <c r="AEQ12" s="9"/>
+      <c r="AER12" s="9"/>
+      <c r="AES12" s="9"/>
+      <c r="AET12" s="9"/>
+      <c r="AEU12" s="9"/>
+      <c r="AEV12" s="9"/>
+      <c r="AEW12" s="9"/>
+      <c r="AEX12" s="9"/>
+      <c r="AEY12" s="9"/>
+      <c r="AEZ12" s="9"/>
+      <c r="AFA12" s="9"/>
+      <c r="AFB12" s="9"/>
+      <c r="AFC12" s="9"/>
+      <c r="AFD12" s="9"/>
+      <c r="AFE12" s="9"/>
+      <c r="AFF12" s="9"/>
+      <c r="AFG12" s="9"/>
+      <c r="AFH12" s="9"/>
+      <c r="AFI12" s="9"/>
+      <c r="AFJ12" s="9"/>
+      <c r="AFK12" s="9"/>
+      <c r="AFL12" s="9"/>
+      <c r="AFM12" s="9"/>
+      <c r="AFN12" s="9"/>
+      <c r="AFO12" s="9"/>
+      <c r="AFP12" s="9"/>
+      <c r="AFQ12" s="9"/>
+      <c r="AFR12" s="9"/>
+      <c r="AFS12" s="9"/>
+      <c r="AFT12" s="9"/>
+      <c r="AFU12" s="9"/>
+      <c r="AFV12" s="9"/>
+      <c r="AFW12" s="9"/>
+      <c r="AFX12" s="9"/>
+      <c r="AFY12" s="9"/>
+      <c r="AFZ12" s="9"/>
+      <c r="AGA12" s="9"/>
+      <c r="AGB12" s="9"/>
+      <c r="AGC12" s="9"/>
+      <c r="AGD12" s="9"/>
+      <c r="AGE12" s="9"/>
+      <c r="AGF12" s="9"/>
+      <c r="AGG12" s="9"/>
+      <c r="AGH12" s="9"/>
+      <c r="AGI12" s="9"/>
+      <c r="AGJ12" s="9"/>
+      <c r="AGK12" s="9"/>
+      <c r="AGL12" s="9"/>
+      <c r="AGM12" s="9"/>
+      <c r="AGN12" s="9"/>
+      <c r="AGO12" s="9"/>
+      <c r="AGP12" s="9"/>
+      <c r="AGQ12" s="9"/>
+      <c r="AGR12" s="9"/>
+      <c r="AGS12" s="9"/>
+      <c r="AGT12" s="9"/>
+      <c r="AGU12" s="9"/>
+      <c r="AGV12" s="9"/>
+      <c r="AGW12" s="9"/>
+      <c r="AGX12" s="9"/>
+      <c r="AGY12" s="9"/>
+      <c r="AGZ12" s="9"/>
+      <c r="AHA12" s="9"/>
+      <c r="AHB12" s="9"/>
+      <c r="AHC12" s="9"/>
+      <c r="AHD12" s="9"/>
+      <c r="AHE12" s="9"/>
+      <c r="AHF12" s="9"/>
+      <c r="AHG12" s="9"/>
+      <c r="AHH12" s="9"/>
+      <c r="AHI12" s="9"/>
+      <c r="AHJ12" s="9"/>
+      <c r="AHK12" s="9"/>
+      <c r="AHL12" s="9"/>
+      <c r="AHM12" s="9"/>
+      <c r="AHN12" s="9"/>
+      <c r="AHO12" s="9"/>
+      <c r="AHP12" s="9"/>
+      <c r="AHQ12" s="9"/>
+      <c r="AHR12" s="9"/>
+      <c r="AHS12" s="9"/>
+      <c r="AHT12" s="9"/>
+      <c r="AHU12" s="9"/>
+      <c r="AHV12" s="9"/>
+      <c r="AHW12" s="9"/>
+      <c r="AHX12" s="9"/>
+      <c r="AHY12" s="9"/>
+      <c r="AHZ12" s="9"/>
+      <c r="AIA12" s="9"/>
+      <c r="AIB12" s="9"/>
+      <c r="AIC12" s="9"/>
+      <c r="AID12" s="9"/>
+      <c r="AIE12" s="9"/>
+      <c r="AIF12" s="9"/>
+      <c r="AIG12" s="9"/>
+      <c r="AIH12" s="9"/>
+      <c r="AII12" s="9"/>
+      <c r="AIJ12" s="9"/>
+      <c r="AIK12" s="9"/>
+      <c r="AIL12" s="9"/>
+      <c r="AIM12" s="9"/>
+      <c r="AIN12" s="9"/>
+      <c r="AIO12" s="9"/>
+      <c r="AIP12" s="9"/>
+      <c r="AIQ12" s="9"/>
+      <c r="AIR12" s="9"/>
+      <c r="AIS12" s="9"/>
+      <c r="AIT12" s="9"/>
+      <c r="AIU12" s="9"/>
+      <c r="AIV12" s="9"/>
+      <c r="AIW12" s="9"/>
+      <c r="AIX12" s="9"/>
+      <c r="AIY12" s="9"/>
+      <c r="AIZ12" s="9"/>
+      <c r="AJA12" s="9"/>
+      <c r="AJB12" s="9"/>
+      <c r="AJC12" s="9"/>
+      <c r="AJD12" s="9"/>
+      <c r="AJE12" s="9"/>
+      <c r="AJF12" s="9"/>
+      <c r="AJG12" s="9"/>
+      <c r="AJH12" s="9"/>
+      <c r="AJI12" s="9"/>
+      <c r="AJJ12" s="9"/>
+      <c r="AJK12" s="9"/>
+      <c r="AJL12" s="9"/>
+      <c r="AJM12" s="9"/>
+      <c r="AJN12" s="9"/>
+      <c r="AJO12" s="9"/>
+      <c r="AJP12" s="9"/>
+      <c r="AJQ12" s="9"/>
+      <c r="AJR12" s="9"/>
+      <c r="AJS12" s="9"/>
+      <c r="AJT12" s="9"/>
+      <c r="AJU12" s="9"/>
+      <c r="AJV12" s="9"/>
+      <c r="AJW12" s="9"/>
+      <c r="AJX12" s="9"/>
+      <c r="AJY12" s="9"/>
+      <c r="AJZ12" s="9"/>
+      <c r="AKA12" s="9"/>
+      <c r="AKB12" s="9"/>
+      <c r="AKC12" s="9"/>
+      <c r="AKD12" s="9"/>
+      <c r="AKE12" s="9"/>
+      <c r="AKF12" s="9"/>
+      <c r="AKG12" s="9"/>
+      <c r="AKH12" s="9"/>
+      <c r="AKI12" s="9"/>
+      <c r="AKJ12" s="9"/>
+      <c r="AKK12" s="9"/>
+      <c r="AKL12" s="9"/>
+      <c r="AKM12" s="9"/>
+      <c r="AKN12" s="9"/>
+      <c r="AKO12" s="9"/>
+      <c r="AKP12" s="9"/>
+      <c r="AKQ12" s="9"/>
+      <c r="AKR12" s="9"/>
+      <c r="AKS12" s="9"/>
+      <c r="AKT12" s="9"/>
+      <c r="AKU12" s="9"/>
+      <c r="AKV12" s="9"/>
+      <c r="AKW12" s="9"/>
+      <c r="AKX12" s="9"/>
+      <c r="AKY12" s="9"/>
+      <c r="AKZ12" s="9"/>
+      <c r="ALA12" s="9"/>
+      <c r="ALB12" s="9"/>
+      <c r="ALC12" s="9"/>
+      <c r="ALD12" s="9"/>
+      <c r="ALE12" s="9"/>
+      <c r="ALF12" s="9"/>
+      <c r="ALG12" s="9"/>
+      <c r="ALH12" s="9"/>
+      <c r="ALI12" s="9"/>
+      <c r="ALJ12" s="9"/>
+      <c r="ALK12" s="9"/>
+      <c r="ALL12" s="9"/>
+      <c r="ALM12" s="9"/>
+      <c r="ALN12" s="9"/>
+      <c r="ALO12" s="9"/>
+      <c r="ALP12" s="9"/>
+      <c r="ALQ12" s="9"/>
+      <c r="ALR12" s="9"/>
+      <c r="ALS12" s="9"/>
+      <c r="ALT12" s="9"/>
+      <c r="ALU12" s="9"/>
+      <c r="ALV12" s="9"/>
+      <c r="ALW12" s="9"/>
+      <c r="ALX12" s="9"/>
+      <c r="ALY12" s="9"/>
+      <c r="ALZ12" s="9"/>
+      <c r="AMA12" s="9"/>
+      <c r="AMB12" s="9"/>
+      <c r="AMC12" s="9"/>
+      <c r="AMD12" s="9"/>
+      <c r="AME12" s="9"/>
+      <c r="AMF12" s="9"/>
+      <c r="AMG12" s="9"/>
+      <c r="AMH12" s="9"/>
+      <c r="AMI12" s="9"/>
+      <c r="AMJ12" s="9"/>
+      <c r="AMK12" s="9"/>
+    </row>
+    <row r="13" spans="1:1025" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B13" s="9">
         <v>717555</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C13" s="9">
         <v>788109</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D13" s="9">
         <v>834650</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E13" s="9">
         <v>876869</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F13" s="9">
         <v>866690</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G13" s="9">
         <v>904668</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H13" s="9">
         <v>901797</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I13" s="9">
         <v>937806</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J13" s="9">
         <v>982396</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K13" s="9">
         <v>1083783</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L13" s="9">
         <v>973020</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M13" s="9">
         <v>1049066</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N13" s="9">
         <v>1005895</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O13" s="9">
         <v>953924</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P13" s="9">
         <v>958682</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="9"/>
-      <c r="AU30" s="9"/>
-      <c r="AV30" s="9"/>
-      <c r="AW30" s="9"/>
-      <c r="AX30" s="9"/>
-      <c r="AY30" s="9"/>
-      <c r="AZ30" s="9"/>
-      <c r="BA30" s="9"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="9"/>
-      <c r="BD30" s="9"/>
-      <c r="BE30" s="9"/>
-      <c r="BF30" s="9"/>
-      <c r="BG30" s="9"/>
-      <c r="BH30" s="9"/>
-      <c r="BI30" s="9"/>
-      <c r="BJ30" s="9"/>
-      <c r="BK30" s="9"/>
-      <c r="BL30" s="9"/>
-      <c r="BM30" s="9"/>
-      <c r="BN30" s="9"/>
-      <c r="BO30" s="9"/>
-      <c r="BP30" s="9"/>
-      <c r="BQ30" s="9"/>
-      <c r="BR30" s="9"/>
-      <c r="BS30" s="9"/>
-      <c r="BT30" s="9"/>
-      <c r="BU30" s="9"/>
-      <c r="BV30" s="9"/>
-      <c r="BW30" s="9"/>
-      <c r="BX30" s="9"/>
-      <c r="BY30" s="9"/>
-      <c r="BZ30" s="9"/>
-      <c r="CA30" s="9"/>
-      <c r="CB30" s="9"/>
-      <c r="CC30" s="9"/>
-      <c r="CD30" s="9"/>
-      <c r="CE30" s="9"/>
-      <c r="CF30" s="9"/>
-      <c r="CG30" s="9"/>
-      <c r="CH30" s="9"/>
-      <c r="CI30" s="9"/>
-      <c r="CJ30" s="9"/>
-      <c r="CK30" s="9"/>
-      <c r="CL30" s="9"/>
-      <c r="CM30" s="9"/>
-      <c r="CN30" s="9"/>
-      <c r="CO30" s="9"/>
-      <c r="CP30" s="9"/>
-      <c r="CQ30" s="9"/>
-      <c r="CR30" s="9"/>
-      <c r="CS30" s="9"/>
-      <c r="CT30" s="9"/>
-      <c r="CU30" s="9"/>
-      <c r="CV30" s="9"/>
-      <c r="CW30" s="9"/>
-      <c r="CX30" s="9"/>
-      <c r="CY30" s="9"/>
-      <c r="CZ30" s="9"/>
-      <c r="DA30" s="9"/>
-      <c r="DB30" s="9"/>
-      <c r="DC30" s="9"/>
-      <c r="DD30" s="9"/>
-      <c r="DE30" s="9"/>
-      <c r="DF30" s="9"/>
-      <c r="DG30" s="9"/>
-      <c r="DH30" s="9"/>
-      <c r="DI30" s="9"/>
-      <c r="DJ30" s="9"/>
-      <c r="DK30" s="9"/>
-      <c r="DL30" s="9"/>
-      <c r="DM30" s="9"/>
-      <c r="DN30" s="9"/>
-      <c r="DO30" s="9"/>
-      <c r="DP30" s="9"/>
-      <c r="DQ30" s="9"/>
-      <c r="DR30" s="9"/>
-      <c r="DS30" s="9"/>
-      <c r="DT30" s="9"/>
-      <c r="DU30" s="9"/>
-      <c r="DV30" s="9"/>
-      <c r="DW30" s="9"/>
-      <c r="DX30" s="9"/>
-      <c r="DY30" s="9"/>
-      <c r="DZ30" s="9"/>
-      <c r="EA30" s="9"/>
-      <c r="EB30" s="9"/>
-      <c r="EC30" s="9"/>
-      <c r="ED30" s="9"/>
-      <c r="EE30" s="9"/>
-      <c r="EF30" s="9"/>
-      <c r="EG30" s="9"/>
-      <c r="EH30" s="9"/>
-      <c r="EI30" s="9"/>
-      <c r="EJ30" s="9"/>
-      <c r="EK30" s="9"/>
-      <c r="EL30" s="9"/>
-      <c r="EM30" s="9"/>
-      <c r="EN30" s="9"/>
-      <c r="EO30" s="9"/>
-      <c r="EP30" s="9"/>
-      <c r="EQ30" s="9"/>
-      <c r="ER30" s="9"/>
-      <c r="ES30" s="9"/>
-      <c r="ET30" s="9"/>
-      <c r="EU30" s="9"/>
-      <c r="EV30" s="9"/>
-      <c r="EW30" s="9"/>
-      <c r="EX30" s="9"/>
-      <c r="EY30" s="9"/>
-      <c r="EZ30" s="9"/>
-      <c r="FA30" s="9"/>
-      <c r="FB30" s="9"/>
-      <c r="FC30" s="9"/>
-      <c r="FD30" s="9"/>
-      <c r="FE30" s="9"/>
-      <c r="FF30" s="9"/>
-      <c r="FG30" s="9"/>
-      <c r="FH30" s="9"/>
-      <c r="FI30" s="9"/>
-      <c r="FJ30" s="9"/>
-      <c r="FK30" s="9"/>
-      <c r="FL30" s="9"/>
-      <c r="FM30" s="9"/>
-      <c r="FN30" s="9"/>
-      <c r="FO30" s="9"/>
-      <c r="FP30" s="9"/>
-      <c r="FQ30" s="9"/>
-      <c r="FR30" s="9"/>
-      <c r="FS30" s="9"/>
-      <c r="FT30" s="9"/>
-      <c r="FU30" s="9"/>
-      <c r="FV30" s="9"/>
-      <c r="FW30" s="9"/>
-      <c r="FX30" s="9"/>
-      <c r="FY30" s="9"/>
-      <c r="FZ30" s="9"/>
-      <c r="GA30" s="9"/>
-      <c r="GB30" s="9"/>
-      <c r="GC30" s="9"/>
-      <c r="GD30" s="9"/>
-      <c r="GE30" s="9"/>
-      <c r="GF30" s="9"/>
-      <c r="GG30" s="9"/>
-      <c r="GH30" s="9"/>
-      <c r="GI30" s="9"/>
-      <c r="GJ30" s="9"/>
-      <c r="GK30" s="9"/>
-      <c r="GL30" s="9"/>
-      <c r="GM30" s="9"/>
-      <c r="GN30" s="9"/>
-      <c r="GO30" s="9"/>
-      <c r="GP30" s="9"/>
-      <c r="GQ30" s="9"/>
-      <c r="GR30" s="9"/>
-      <c r="GS30" s="9"/>
-      <c r="GT30" s="9"/>
-      <c r="GU30" s="9"/>
-      <c r="GV30" s="9"/>
-      <c r="GW30" s="9"/>
-      <c r="GX30" s="9"/>
-      <c r="GY30" s="9"/>
-      <c r="GZ30" s="9"/>
-      <c r="HA30" s="9"/>
-      <c r="HB30" s="9"/>
-      <c r="HC30" s="9"/>
-      <c r="HD30" s="9"/>
-      <c r="HE30" s="9"/>
-      <c r="HF30" s="9"/>
-      <c r="HG30" s="9"/>
-      <c r="HH30" s="9"/>
-      <c r="HI30" s="9"/>
-      <c r="HJ30" s="9"/>
-      <c r="HK30" s="9"/>
-      <c r="HL30" s="9"/>
-      <c r="HM30" s="9"/>
-      <c r="HN30" s="9"/>
-      <c r="HO30" s="9"/>
-      <c r="HP30" s="9"/>
-      <c r="HQ30" s="9"/>
-      <c r="HR30" s="9"/>
-      <c r="HS30" s="9"/>
-      <c r="HT30" s="9"/>
-      <c r="HU30" s="9"/>
-      <c r="HV30" s="9"/>
-      <c r="HW30" s="9"/>
-      <c r="HX30" s="9"/>
-      <c r="HY30" s="9"/>
-      <c r="HZ30" s="9"/>
-      <c r="IA30" s="9"/>
-      <c r="IB30" s="9"/>
-      <c r="IC30" s="9"/>
-      <c r="ID30" s="9"/>
-      <c r="IE30" s="9"/>
-      <c r="IF30" s="9"/>
-      <c r="IG30" s="9"/>
-      <c r="IH30" s="9"/>
-      <c r="II30" s="9"/>
-      <c r="IJ30" s="9"/>
-      <c r="IK30" s="9"/>
-      <c r="IL30" s="9"/>
-      <c r="IM30" s="9"/>
-      <c r="IN30" s="9"/>
-      <c r="IO30" s="9"/>
-      <c r="IP30" s="9"/>
-      <c r="IQ30" s="9"/>
-      <c r="IR30" s="9"/>
-      <c r="IS30" s="9"/>
-      <c r="IT30" s="9"/>
-      <c r="IU30" s="9"/>
-      <c r="IV30" s="9"/>
-      <c r="IW30" s="9"/>
-      <c r="IX30" s="9"/>
-      <c r="IY30" s="9"/>
-      <c r="IZ30" s="9"/>
-      <c r="JA30" s="9"/>
-      <c r="JB30" s="9"/>
-      <c r="JC30" s="9"/>
-      <c r="JD30" s="9"/>
-      <c r="JE30" s="9"/>
-      <c r="JF30" s="9"/>
-      <c r="JG30" s="9"/>
-      <c r="JH30" s="9"/>
-      <c r="JI30" s="9"/>
-      <c r="JJ30" s="9"/>
-      <c r="JK30" s="9"/>
-      <c r="JL30" s="9"/>
-      <c r="JM30" s="9"/>
-      <c r="JN30" s="9"/>
-      <c r="JO30" s="9"/>
-      <c r="JP30" s="9"/>
-      <c r="JQ30" s="9"/>
-      <c r="JR30" s="9"/>
-      <c r="JS30" s="9"/>
-      <c r="JT30" s="9"/>
-      <c r="JU30" s="9"/>
-      <c r="JV30" s="9"/>
-      <c r="JW30" s="9"/>
-      <c r="JX30" s="9"/>
-      <c r="JY30" s="9"/>
-      <c r="JZ30" s="9"/>
-      <c r="KA30" s="9"/>
-      <c r="KB30" s="9"/>
-      <c r="KC30" s="9"/>
-      <c r="KD30" s="9"/>
-      <c r="KE30" s="9"/>
-      <c r="KF30" s="9"/>
-      <c r="KG30" s="9"/>
-      <c r="KH30" s="9"/>
-      <c r="KI30" s="9"/>
-      <c r="KJ30" s="9"/>
-      <c r="KK30" s="9"/>
-      <c r="KL30" s="9"/>
-      <c r="KM30" s="9"/>
-      <c r="KN30" s="9"/>
-      <c r="KO30" s="9"/>
-      <c r="KP30" s="9"/>
-      <c r="KQ30" s="9"/>
-      <c r="KR30" s="9"/>
-      <c r="KS30" s="9"/>
-      <c r="KT30" s="9"/>
-      <c r="KU30" s="9"/>
-      <c r="KV30" s="9"/>
-      <c r="KW30" s="9"/>
-      <c r="KX30" s="9"/>
-      <c r="KY30" s="9"/>
-      <c r="KZ30" s="9"/>
-      <c r="LA30" s="9"/>
-      <c r="LB30" s="9"/>
-      <c r="LC30" s="9"/>
-      <c r="LD30" s="9"/>
-      <c r="LE30" s="9"/>
-      <c r="LF30" s="9"/>
-      <c r="LG30" s="9"/>
-      <c r="LH30" s="9"/>
-      <c r="LI30" s="9"/>
-      <c r="LJ30" s="9"/>
-      <c r="LK30" s="9"/>
-      <c r="LL30" s="9"/>
-      <c r="LM30" s="9"/>
-      <c r="LN30" s="9"/>
-      <c r="LO30" s="9"/>
-      <c r="LP30" s="9"/>
-      <c r="LQ30" s="9"/>
-      <c r="LR30" s="9"/>
-      <c r="LS30" s="9"/>
-      <c r="LT30" s="9"/>
-      <c r="LU30" s="9"/>
-      <c r="LV30" s="9"/>
-      <c r="LW30" s="9"/>
-      <c r="LX30" s="9"/>
-      <c r="LY30" s="9"/>
-      <c r="LZ30" s="9"/>
-      <c r="MA30" s="9"/>
-      <c r="MB30" s="9"/>
-      <c r="MC30" s="9"/>
-      <c r="MD30" s="9"/>
-      <c r="ME30" s="9"/>
-      <c r="MF30" s="9"/>
-      <c r="MG30" s="9"/>
-      <c r="MH30" s="9"/>
-      <c r="MI30" s="9"/>
-      <c r="MJ30" s="9"/>
-      <c r="MK30" s="9"/>
-      <c r="ML30" s="9"/>
-      <c r="MM30" s="9"/>
-      <c r="MN30" s="9"/>
-      <c r="MO30" s="9"/>
-      <c r="MP30" s="9"/>
-      <c r="MQ30" s="9"/>
-      <c r="MR30" s="9"/>
-      <c r="MS30" s="9"/>
-      <c r="MT30" s="9"/>
-      <c r="MU30" s="9"/>
-      <c r="MV30" s="9"/>
-      <c r="MW30" s="9"/>
-      <c r="MX30" s="9"/>
-      <c r="MY30" s="9"/>
-      <c r="MZ30" s="9"/>
-      <c r="NA30" s="9"/>
-      <c r="NB30" s="9"/>
-      <c r="NC30" s="9"/>
-      <c r="ND30" s="9"/>
-      <c r="NE30" s="9"/>
-      <c r="NF30" s="9"/>
-      <c r="NG30" s="9"/>
-      <c r="NH30" s="9"/>
-      <c r="NI30" s="9"/>
-      <c r="NJ30" s="9"/>
-      <c r="NK30" s="9"/>
-      <c r="NL30" s="9"/>
-      <c r="NM30" s="9"/>
-      <c r="NN30" s="9"/>
-      <c r="NO30" s="9"/>
-      <c r="NP30" s="9"/>
-      <c r="NQ30" s="9"/>
-      <c r="NR30" s="9"/>
-      <c r="NS30" s="9"/>
-      <c r="NT30" s="9"/>
-      <c r="NU30" s="9"/>
-      <c r="NV30" s="9"/>
-      <c r="NW30" s="9"/>
-      <c r="NX30" s="9"/>
-      <c r="NY30" s="9"/>
-      <c r="NZ30" s="9"/>
-      <c r="OA30" s="9"/>
-      <c r="OB30" s="9"/>
-      <c r="OC30" s="9"/>
-      <c r="OD30" s="9"/>
-      <c r="OE30" s="9"/>
-      <c r="OF30" s="9"/>
-      <c r="OG30" s="9"/>
-      <c r="OH30" s="9"/>
-      <c r="OI30" s="9"/>
-      <c r="OJ30" s="9"/>
-      <c r="OK30" s="9"/>
-      <c r="OL30" s="9"/>
-      <c r="OM30" s="9"/>
-      <c r="ON30" s="9"/>
-      <c r="OO30" s="9"/>
-      <c r="OP30" s="9"/>
-      <c r="OQ30" s="9"/>
-      <c r="OR30" s="9"/>
-      <c r="OS30" s="9"/>
-      <c r="OT30" s="9"/>
-      <c r="OU30" s="9"/>
-      <c r="OV30" s="9"/>
-      <c r="OW30" s="9"/>
-      <c r="OX30" s="9"/>
-      <c r="OY30" s="9"/>
-      <c r="OZ30" s="9"/>
-      <c r="PA30" s="9"/>
-      <c r="PB30" s="9"/>
-      <c r="PC30" s="9"/>
-      <c r="PD30" s="9"/>
-      <c r="PE30" s="9"/>
-      <c r="PF30" s="9"/>
-      <c r="PG30" s="9"/>
-      <c r="PH30" s="9"/>
-      <c r="PI30" s="9"/>
-      <c r="PJ30" s="9"/>
-      <c r="PK30" s="9"/>
-      <c r="PL30" s="9"/>
-      <c r="PM30" s="9"/>
-      <c r="PN30" s="9"/>
-      <c r="PO30" s="9"/>
-      <c r="PP30" s="9"/>
-      <c r="PQ30" s="9"/>
-      <c r="PR30" s="9"/>
-      <c r="PS30" s="9"/>
-      <c r="PT30" s="9"/>
-      <c r="PU30" s="9"/>
-      <c r="PV30" s="9"/>
-      <c r="PW30" s="9"/>
-      <c r="PX30" s="9"/>
-      <c r="PY30" s="9"/>
-      <c r="PZ30" s="9"/>
-      <c r="QA30" s="9"/>
-      <c r="QB30" s="9"/>
-      <c r="QC30" s="9"/>
-      <c r="QD30" s="9"/>
-      <c r="QE30" s="9"/>
-      <c r="QF30" s="9"/>
-      <c r="QG30" s="9"/>
-      <c r="QH30" s="9"/>
-      <c r="QI30" s="9"/>
-      <c r="QJ30" s="9"/>
-      <c r="QK30" s="9"/>
-      <c r="QL30" s="9"/>
-      <c r="QM30" s="9"/>
-      <c r="QN30" s="9"/>
-      <c r="QO30" s="9"/>
-      <c r="QP30" s="9"/>
-      <c r="QQ30" s="9"/>
-      <c r="QR30" s="9"/>
-      <c r="QS30" s="9"/>
-      <c r="QT30" s="9"/>
-      <c r="QU30" s="9"/>
-      <c r="QV30" s="9"/>
-      <c r="QW30" s="9"/>
-      <c r="QX30" s="9"/>
-      <c r="QY30" s="9"/>
-      <c r="QZ30" s="9"/>
-      <c r="RA30" s="9"/>
-      <c r="RB30" s="9"/>
-      <c r="RC30" s="9"/>
-      <c r="RD30" s="9"/>
-      <c r="RE30" s="9"/>
-      <c r="RF30" s="9"/>
-      <c r="RG30" s="9"/>
-      <c r="RH30" s="9"/>
-      <c r="RI30" s="9"/>
-      <c r="RJ30" s="9"/>
-      <c r="RK30" s="9"/>
-      <c r="RL30" s="9"/>
-      <c r="RM30" s="9"/>
-      <c r="RN30" s="9"/>
-      <c r="RO30" s="9"/>
-      <c r="RP30" s="9"/>
-      <c r="RQ30" s="9"/>
-      <c r="RR30" s="9"/>
-      <c r="RS30" s="9"/>
-      <c r="RT30" s="9"/>
-      <c r="RU30" s="9"/>
-      <c r="RV30" s="9"/>
-      <c r="RW30" s="9"/>
-      <c r="RX30" s="9"/>
-      <c r="RY30" s="9"/>
-      <c r="RZ30" s="9"/>
-      <c r="SA30" s="9"/>
-      <c r="SB30" s="9"/>
-      <c r="SC30" s="9"/>
-      <c r="SD30" s="9"/>
-      <c r="SE30" s="9"/>
-      <c r="SF30" s="9"/>
-      <c r="SG30" s="9"/>
-      <c r="SH30" s="9"/>
-      <c r="SI30" s="9"/>
-      <c r="SJ30" s="9"/>
-      <c r="SK30" s="9"/>
-      <c r="SL30" s="9"/>
-      <c r="SM30" s="9"/>
-      <c r="SN30" s="9"/>
-      <c r="SO30" s="9"/>
-      <c r="SP30" s="9"/>
-      <c r="SQ30" s="9"/>
-      <c r="SR30" s="9"/>
-      <c r="SS30" s="9"/>
-      <c r="ST30" s="9"/>
-      <c r="SU30" s="9"/>
-      <c r="SV30" s="9"/>
-      <c r="SW30" s="9"/>
-      <c r="SX30" s="9"/>
-      <c r="SY30" s="9"/>
-      <c r="SZ30" s="9"/>
-      <c r="TA30" s="9"/>
-      <c r="TB30" s="9"/>
-      <c r="TC30" s="9"/>
-      <c r="TD30" s="9"/>
-      <c r="TE30" s="9"/>
-      <c r="TF30" s="9"/>
-      <c r="TG30" s="9"/>
-      <c r="TH30" s="9"/>
-      <c r="TI30" s="9"/>
-      <c r="TJ30" s="9"/>
-      <c r="TK30" s="9"/>
-      <c r="TL30" s="9"/>
-      <c r="TM30" s="9"/>
-      <c r="TN30" s="9"/>
-      <c r="TO30" s="9"/>
-      <c r="TP30" s="9"/>
-      <c r="TQ30" s="9"/>
-      <c r="TR30" s="9"/>
-      <c r="TS30" s="9"/>
-      <c r="TT30" s="9"/>
-      <c r="TU30" s="9"/>
-      <c r="TV30" s="9"/>
-      <c r="TW30" s="9"/>
-      <c r="TX30" s="9"/>
-      <c r="TY30" s="9"/>
-      <c r="TZ30" s="9"/>
-      <c r="UA30" s="9"/>
-      <c r="UB30" s="9"/>
-      <c r="UC30" s="9"/>
-      <c r="UD30" s="9"/>
-      <c r="UE30" s="9"/>
-      <c r="UF30" s="9"/>
-      <c r="UG30" s="9"/>
-      <c r="UH30" s="9"/>
-      <c r="UI30" s="9"/>
-      <c r="UJ30" s="9"/>
-      <c r="UK30" s="9"/>
-      <c r="UL30" s="9"/>
-      <c r="UM30" s="9"/>
-      <c r="UN30" s="9"/>
-      <c r="UO30" s="9"/>
-      <c r="UP30" s="9"/>
-      <c r="UQ30" s="9"/>
-      <c r="UR30" s="9"/>
-      <c r="US30" s="9"/>
-      <c r="UT30" s="9"/>
-      <c r="UU30" s="9"/>
-      <c r="UV30" s="9"/>
-      <c r="UW30" s="9"/>
-      <c r="UX30" s="9"/>
-      <c r="UY30" s="9"/>
-      <c r="UZ30" s="9"/>
-      <c r="VA30" s="9"/>
-      <c r="VB30" s="9"/>
-      <c r="VC30" s="9"/>
-      <c r="VD30" s="9"/>
-      <c r="VE30" s="9"/>
-      <c r="VF30" s="9"/>
-      <c r="VG30" s="9"/>
-      <c r="VH30" s="9"/>
-      <c r="VI30" s="9"/>
-      <c r="VJ30" s="9"/>
-      <c r="VK30" s="9"/>
-      <c r="VL30" s="9"/>
-      <c r="VM30" s="9"/>
-      <c r="VN30" s="9"/>
-      <c r="VO30" s="9"/>
-      <c r="VP30" s="9"/>
-      <c r="VQ30" s="9"/>
-      <c r="VR30" s="9"/>
-      <c r="VS30" s="9"/>
-      <c r="VT30" s="9"/>
-      <c r="VU30" s="9"/>
-      <c r="VV30" s="9"/>
-      <c r="VW30" s="9"/>
-      <c r="VX30" s="9"/>
-      <c r="VY30" s="9"/>
-      <c r="VZ30" s="9"/>
-      <c r="WA30" s="9"/>
-      <c r="WB30" s="9"/>
-      <c r="WC30" s="9"/>
-      <c r="WD30" s="9"/>
-      <c r="WE30" s="9"/>
-      <c r="WF30" s="9"/>
-      <c r="WG30" s="9"/>
-      <c r="WH30" s="9"/>
-      <c r="WI30" s="9"/>
-      <c r="WJ30" s="9"/>
-      <c r="WK30" s="9"/>
-      <c r="WL30" s="9"/>
-      <c r="WM30" s="9"/>
-      <c r="WN30" s="9"/>
-      <c r="WO30" s="9"/>
-      <c r="WP30" s="9"/>
-      <c r="WQ30" s="9"/>
-      <c r="WR30" s="9"/>
-      <c r="WS30" s="9"/>
-      <c r="WT30" s="9"/>
-      <c r="WU30" s="9"/>
-      <c r="WV30" s="9"/>
-      <c r="WW30" s="9"/>
-      <c r="WX30" s="9"/>
-      <c r="WY30" s="9"/>
-      <c r="WZ30" s="9"/>
-      <c r="XA30" s="9"/>
-      <c r="XB30" s="9"/>
-      <c r="XC30" s="9"/>
-      <c r="XD30" s="9"/>
-      <c r="XE30" s="9"/>
-      <c r="XF30" s="9"/>
-      <c r="XG30" s="9"/>
-      <c r="XH30" s="9"/>
-      <c r="XI30" s="9"/>
-      <c r="XJ30" s="9"/>
-      <c r="XK30" s="9"/>
-      <c r="XL30" s="9"/>
-      <c r="XM30" s="9"/>
-      <c r="XN30" s="9"/>
-      <c r="XO30" s="9"/>
-      <c r="XP30" s="9"/>
-      <c r="XQ30" s="9"/>
-      <c r="XR30" s="9"/>
-      <c r="XS30" s="9"/>
-      <c r="XT30" s="9"/>
-      <c r="XU30" s="9"/>
-      <c r="XV30" s="9"/>
-      <c r="XW30" s="9"/>
-      <c r="XX30" s="9"/>
-      <c r="XY30" s="9"/>
-      <c r="XZ30" s="9"/>
-      <c r="YA30" s="9"/>
-      <c r="YB30" s="9"/>
-      <c r="YC30" s="9"/>
-      <c r="YD30" s="9"/>
-      <c r="YE30" s="9"/>
-      <c r="YF30" s="9"/>
-      <c r="YG30" s="9"/>
-      <c r="YH30" s="9"/>
-      <c r="YI30" s="9"/>
-      <c r="YJ30" s="9"/>
-      <c r="YK30" s="9"/>
-      <c r="YL30" s="9"/>
-      <c r="YM30" s="9"/>
-      <c r="YN30" s="9"/>
-      <c r="YO30" s="9"/>
-      <c r="YP30" s="9"/>
-      <c r="YQ30" s="9"/>
-      <c r="YR30" s="9"/>
-      <c r="YS30" s="9"/>
-      <c r="YT30" s="9"/>
-      <c r="YU30" s="9"/>
-      <c r="YV30" s="9"/>
-      <c r="YW30" s="9"/>
-      <c r="YX30" s="9"/>
-      <c r="YY30" s="9"/>
-      <c r="YZ30" s="9"/>
-      <c r="ZA30" s="9"/>
-      <c r="ZB30" s="9"/>
-      <c r="ZC30" s="9"/>
-      <c r="ZD30" s="9"/>
-      <c r="ZE30" s="9"/>
-      <c r="ZF30" s="9"/>
-      <c r="ZG30" s="9"/>
-      <c r="ZH30" s="9"/>
-      <c r="ZI30" s="9"/>
-      <c r="ZJ30" s="9"/>
-      <c r="ZK30" s="9"/>
-      <c r="ZL30" s="9"/>
-      <c r="ZM30" s="9"/>
-      <c r="ZN30" s="9"/>
-      <c r="ZO30" s="9"/>
-      <c r="ZP30" s="9"/>
-      <c r="ZQ30" s="9"/>
-      <c r="ZR30" s="9"/>
-      <c r="ZS30" s="9"/>
-      <c r="ZT30" s="9"/>
-      <c r="ZU30" s="9"/>
-      <c r="ZV30" s="9"/>
-      <c r="ZW30" s="9"/>
-      <c r="ZX30" s="9"/>
-      <c r="ZY30" s="9"/>
-      <c r="ZZ30" s="9"/>
-      <c r="AAA30" s="9"/>
-      <c r="AAB30" s="9"/>
-      <c r="AAC30" s="9"/>
-      <c r="AAD30" s="9"/>
-      <c r="AAE30" s="9"/>
-      <c r="AAF30" s="9"/>
-      <c r="AAG30" s="9"/>
-      <c r="AAH30" s="9"/>
-      <c r="AAI30" s="9"/>
-      <c r="AAJ30" s="9"/>
-      <c r="AAK30" s="9"/>
-      <c r="AAL30" s="9"/>
-      <c r="AAM30" s="9"/>
-      <c r="AAN30" s="9"/>
-      <c r="AAO30" s="9"/>
-      <c r="AAP30" s="9"/>
-      <c r="AAQ30" s="9"/>
-      <c r="AAR30" s="9"/>
-      <c r="AAS30" s="9"/>
-      <c r="AAT30" s="9"/>
-      <c r="AAU30" s="9"/>
-      <c r="AAV30" s="9"/>
-      <c r="AAW30" s="9"/>
-      <c r="AAX30" s="9"/>
-      <c r="AAY30" s="9"/>
-      <c r="AAZ30" s="9"/>
-      <c r="ABA30" s="9"/>
-      <c r="ABB30" s="9"/>
-      <c r="ABC30" s="9"/>
-      <c r="ABD30" s="9"/>
-      <c r="ABE30" s="9"/>
-      <c r="ABF30" s="9"/>
-      <c r="ABG30" s="9"/>
-      <c r="ABH30" s="9"/>
-      <c r="ABI30" s="9"/>
-      <c r="ABJ30" s="9"/>
-      <c r="ABK30" s="9"/>
-      <c r="ABL30" s="9"/>
-      <c r="ABM30" s="9"/>
-      <c r="ABN30" s="9"/>
-      <c r="ABO30" s="9"/>
-      <c r="ABP30" s="9"/>
-      <c r="ABQ30" s="9"/>
-      <c r="ABR30" s="9"/>
-      <c r="ABS30" s="9"/>
-      <c r="ABT30" s="9"/>
-      <c r="ABU30" s="9"/>
-      <c r="ABV30" s="9"/>
-      <c r="ABW30" s="9"/>
-      <c r="ABX30" s="9"/>
-      <c r="ABY30" s="9"/>
-      <c r="ABZ30" s="9"/>
-      <c r="ACA30" s="9"/>
-      <c r="ACB30" s="9"/>
-      <c r="ACC30" s="9"/>
-      <c r="ACD30" s="9"/>
-      <c r="ACE30" s="9"/>
-      <c r="ACF30" s="9"/>
-      <c r="ACG30" s="9"/>
-      <c r="ACH30" s="9"/>
-      <c r="ACI30" s="9"/>
-      <c r="ACJ30" s="9"/>
-      <c r="ACK30" s="9"/>
-      <c r="ACL30" s="9"/>
-      <c r="ACM30" s="9"/>
-      <c r="ACN30" s="9"/>
-      <c r="ACO30" s="9"/>
-      <c r="ACP30" s="9"/>
-      <c r="ACQ30" s="9"/>
-      <c r="ACR30" s="9"/>
-      <c r="ACS30" s="9"/>
-      <c r="ACT30" s="9"/>
-      <c r="ACU30" s="9"/>
-      <c r="ACV30" s="9"/>
-      <c r="ACW30" s="9"/>
-      <c r="ACX30" s="9"/>
-      <c r="ACY30" s="9"/>
-      <c r="ACZ30" s="9"/>
-      <c r="ADA30" s="9"/>
-      <c r="ADB30" s="9"/>
-      <c r="ADC30" s="9"/>
-      <c r="ADD30" s="9"/>
-      <c r="ADE30" s="9"/>
-      <c r="ADF30" s="9"/>
-      <c r="ADG30" s="9"/>
-      <c r="ADH30" s="9"/>
-      <c r="ADI30" s="9"/>
-      <c r="ADJ30" s="9"/>
-      <c r="ADK30" s="9"/>
-      <c r="ADL30" s="9"/>
-      <c r="ADM30" s="9"/>
-      <c r="ADN30" s="9"/>
-      <c r="ADO30" s="9"/>
-      <c r="ADP30" s="9"/>
-      <c r="ADQ30" s="9"/>
-      <c r="ADR30" s="9"/>
-      <c r="ADS30" s="9"/>
-      <c r="ADT30" s="9"/>
-      <c r="ADU30" s="9"/>
-      <c r="ADV30" s="9"/>
-      <c r="ADW30" s="9"/>
-      <c r="ADX30" s="9"/>
-      <c r="ADY30" s="9"/>
-      <c r="ADZ30" s="9"/>
-      <c r="AEA30" s="9"/>
-      <c r="AEB30" s="9"/>
-      <c r="AEC30" s="9"/>
-      <c r="AED30" s="9"/>
-      <c r="AEE30" s="9"/>
-      <c r="AEF30" s="9"/>
-      <c r="AEG30" s="9"/>
-      <c r="AEH30" s="9"/>
-      <c r="AEI30" s="9"/>
-      <c r="AEJ30" s="9"/>
-      <c r="AEK30" s="9"/>
-      <c r="AEL30" s="9"/>
-      <c r="AEM30" s="9"/>
-      <c r="AEN30" s="9"/>
-      <c r="AEO30" s="9"/>
-      <c r="AEP30" s="9"/>
-      <c r="AEQ30" s="9"/>
-      <c r="AER30" s="9"/>
-      <c r="AES30" s="9"/>
-      <c r="AET30" s="9"/>
-      <c r="AEU30" s="9"/>
-      <c r="AEV30" s="9"/>
-      <c r="AEW30" s="9"/>
-      <c r="AEX30" s="9"/>
-      <c r="AEY30" s="9"/>
-      <c r="AEZ30" s="9"/>
-      <c r="AFA30" s="9"/>
-      <c r="AFB30" s="9"/>
-      <c r="AFC30" s="9"/>
-      <c r="AFD30" s="9"/>
-      <c r="AFE30" s="9"/>
-      <c r="AFF30" s="9"/>
-      <c r="AFG30" s="9"/>
-      <c r="AFH30" s="9"/>
-      <c r="AFI30" s="9"/>
-      <c r="AFJ30" s="9"/>
-      <c r="AFK30" s="9"/>
-      <c r="AFL30" s="9"/>
-      <c r="AFM30" s="9"/>
-      <c r="AFN30" s="9"/>
-      <c r="AFO30" s="9"/>
-      <c r="AFP30" s="9"/>
-      <c r="AFQ30" s="9"/>
-      <c r="AFR30" s="9"/>
-      <c r="AFS30" s="9"/>
-      <c r="AFT30" s="9"/>
-      <c r="AFU30" s="9"/>
-      <c r="AFV30" s="9"/>
-      <c r="AFW30" s="9"/>
-      <c r="AFX30" s="9"/>
-      <c r="AFY30" s="9"/>
-      <c r="AFZ30" s="9"/>
-      <c r="AGA30" s="9"/>
-      <c r="AGB30" s="9"/>
-      <c r="AGC30" s="9"/>
-      <c r="AGD30" s="9"/>
-      <c r="AGE30" s="9"/>
-      <c r="AGF30" s="9"/>
-      <c r="AGG30" s="9"/>
-      <c r="AGH30" s="9"/>
-      <c r="AGI30" s="9"/>
-      <c r="AGJ30" s="9"/>
-      <c r="AGK30" s="9"/>
-      <c r="AGL30" s="9"/>
-      <c r="AGM30" s="9"/>
-      <c r="AGN30" s="9"/>
-      <c r="AGO30" s="9"/>
-      <c r="AGP30" s="9"/>
-      <c r="AGQ30" s="9"/>
-      <c r="AGR30" s="9"/>
-      <c r="AGS30" s="9"/>
-      <c r="AGT30" s="9"/>
-      <c r="AGU30" s="9"/>
-      <c r="AGV30" s="9"/>
-      <c r="AGW30" s="9"/>
-      <c r="AGX30" s="9"/>
-      <c r="AGY30" s="9"/>
-      <c r="AGZ30" s="9"/>
-      <c r="AHA30" s="9"/>
-      <c r="AHB30" s="9"/>
-      <c r="AHC30" s="9"/>
-      <c r="AHD30" s="9"/>
-      <c r="AHE30" s="9"/>
-      <c r="AHF30" s="9"/>
-      <c r="AHG30" s="9"/>
-      <c r="AHH30" s="9"/>
-      <c r="AHI30" s="9"/>
-      <c r="AHJ30" s="9"/>
-      <c r="AHK30" s="9"/>
-      <c r="AHL30" s="9"/>
-      <c r="AHM30" s="9"/>
-      <c r="AHN30" s="9"/>
-      <c r="AHO30" s="9"/>
-      <c r="AHP30" s="9"/>
-      <c r="AHQ30" s="9"/>
-      <c r="AHR30" s="9"/>
-      <c r="AHS30" s="9"/>
-      <c r="AHT30" s="9"/>
-      <c r="AHU30" s="9"/>
-      <c r="AHV30" s="9"/>
-      <c r="AHW30" s="9"/>
-      <c r="AHX30" s="9"/>
-      <c r="AHY30" s="9"/>
-      <c r="AHZ30" s="9"/>
-      <c r="AIA30" s="9"/>
-      <c r="AIB30" s="9"/>
-      <c r="AIC30" s="9"/>
-      <c r="AID30" s="9"/>
-      <c r="AIE30" s="9"/>
-      <c r="AIF30" s="9"/>
-      <c r="AIG30" s="9"/>
-      <c r="AIH30" s="9"/>
-      <c r="AII30" s="9"/>
-      <c r="AIJ30" s="9"/>
-      <c r="AIK30" s="9"/>
-      <c r="AIL30" s="9"/>
-      <c r="AIM30" s="9"/>
-      <c r="AIN30" s="9"/>
-      <c r="AIO30" s="9"/>
-      <c r="AIP30" s="9"/>
-      <c r="AIQ30" s="9"/>
-      <c r="AIR30" s="9"/>
-      <c r="AIS30" s="9"/>
-      <c r="AIT30" s="9"/>
-      <c r="AIU30" s="9"/>
-      <c r="AIV30" s="9"/>
-      <c r="AIW30" s="9"/>
-      <c r="AIX30" s="9"/>
-      <c r="AIY30" s="9"/>
-      <c r="AIZ30" s="9"/>
-      <c r="AJA30" s="9"/>
-      <c r="AJB30" s="9"/>
-      <c r="AJC30" s="9"/>
-      <c r="AJD30" s="9"/>
-      <c r="AJE30" s="9"/>
-      <c r="AJF30" s="9"/>
-      <c r="AJG30" s="9"/>
-      <c r="AJH30" s="9"/>
-      <c r="AJI30" s="9"/>
-      <c r="AJJ30" s="9"/>
-      <c r="AJK30" s="9"/>
-      <c r="AJL30" s="9"/>
-      <c r="AJM30" s="9"/>
-      <c r="AJN30" s="9"/>
-      <c r="AJO30" s="9"/>
-      <c r="AJP30" s="9"/>
-      <c r="AJQ30" s="9"/>
-      <c r="AJR30" s="9"/>
-      <c r="AJS30" s="9"/>
-      <c r="AJT30" s="9"/>
-      <c r="AJU30" s="9"/>
-      <c r="AJV30" s="9"/>
-      <c r="AJW30" s="9"/>
-      <c r="AJX30" s="9"/>
-      <c r="AJY30" s="9"/>
-      <c r="AJZ30" s="9"/>
-      <c r="AKA30" s="9"/>
-      <c r="AKB30" s="9"/>
-      <c r="AKC30" s="9"/>
-      <c r="AKD30" s="9"/>
-      <c r="AKE30" s="9"/>
-      <c r="AKF30" s="9"/>
-      <c r="AKG30" s="9"/>
-      <c r="AKH30" s="9"/>
-      <c r="AKI30" s="9"/>
-      <c r="AKJ30" s="9"/>
-      <c r="AKK30" s="9"/>
-      <c r="AKL30" s="9"/>
-      <c r="AKM30" s="9"/>
-      <c r="AKN30" s="9"/>
-      <c r="AKO30" s="9"/>
-      <c r="AKP30" s="9"/>
-      <c r="AKQ30" s="9"/>
-      <c r="AKR30" s="9"/>
-      <c r="AKS30" s="9"/>
-      <c r="AKT30" s="9"/>
-      <c r="AKU30" s="9"/>
-      <c r="AKV30" s="9"/>
-      <c r="AKW30" s="9"/>
-      <c r="AKX30" s="9"/>
-      <c r="AKY30" s="9"/>
-      <c r="AKZ30" s="9"/>
-      <c r="ALA30" s="9"/>
-      <c r="ALB30" s="9"/>
-      <c r="ALC30" s="9"/>
-      <c r="ALD30" s="9"/>
-      <c r="ALE30" s="9"/>
-      <c r="ALF30" s="9"/>
-      <c r="ALG30" s="9"/>
-      <c r="ALH30" s="9"/>
-      <c r="ALI30" s="9"/>
-      <c r="ALJ30" s="9"/>
-      <c r="ALK30" s="9"/>
-      <c r="ALL30" s="9"/>
-      <c r="ALM30" s="9"/>
-      <c r="ALN30" s="9"/>
-      <c r="ALO30" s="9"/>
-      <c r="ALP30" s="9"/>
-      <c r="ALQ30" s="9"/>
-      <c r="ALR30" s="9"/>
-      <c r="ALS30" s="9"/>
-      <c r="ALT30" s="9"/>
-      <c r="ALU30" s="9"/>
-      <c r="ALV30" s="9"/>
-      <c r="ALW30" s="9"/>
-      <c r="ALX30" s="9"/>
-      <c r="ALY30" s="9"/>
-      <c r="ALZ30" s="9"/>
-      <c r="AMA30" s="9"/>
-      <c r="AMB30" s="9"/>
-      <c r="AMC30" s="9"/>
-      <c r="AMD30" s="9"/>
-      <c r="AME30" s="9"/>
-      <c r="AMF30" s="9"/>
-      <c r="AMG30" s="9"/>
-      <c r="AMH30" s="9"/>
-      <c r="AMI30" s="9"/>
-      <c r="AMJ30" s="9"/>
-      <c r="AMK30" s="9"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+      <c r="CO13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CQ13" s="9"/>
+      <c r="CR13" s="9"/>
+      <c r="CS13" s="9"/>
+      <c r="CT13" s="9"/>
+      <c r="CU13" s="9"/>
+      <c r="CV13" s="9"/>
+      <c r="CW13" s="9"/>
+      <c r="CX13" s="9"/>
+      <c r="CY13" s="9"/>
+      <c r="CZ13" s="9"/>
+      <c r="DA13" s="9"/>
+      <c r="DB13" s="9"/>
+      <c r="DC13" s="9"/>
+      <c r="DD13" s="9"/>
+      <c r="DE13" s="9"/>
+      <c r="DF13" s="9"/>
+      <c r="DG13" s="9"/>
+      <c r="DH13" s="9"/>
+      <c r="DI13" s="9"/>
+      <c r="DJ13" s="9"/>
+      <c r="DK13" s="9"/>
+      <c r="DL13" s="9"/>
+      <c r="DM13" s="9"/>
+      <c r="DN13" s="9"/>
+      <c r="DO13" s="9"/>
+      <c r="DP13" s="9"/>
+      <c r="DQ13" s="9"/>
+      <c r="DR13" s="9"/>
+      <c r="DS13" s="9"/>
+      <c r="DT13" s="9"/>
+      <c r="DU13" s="9"/>
+      <c r="DV13" s="9"/>
+      <c r="DW13" s="9"/>
+      <c r="DX13" s="9"/>
+      <c r="DY13" s="9"/>
+      <c r="DZ13" s="9"/>
+      <c r="EA13" s="9"/>
+      <c r="EB13" s="9"/>
+      <c r="EC13" s="9"/>
+      <c r="ED13" s="9"/>
+      <c r="EE13" s="9"/>
+      <c r="EF13" s="9"/>
+      <c r="EG13" s="9"/>
+      <c r="EH13" s="9"/>
+      <c r="EI13" s="9"/>
+      <c r="EJ13" s="9"/>
+      <c r="EK13" s="9"/>
+      <c r="EL13" s="9"/>
+      <c r="EM13" s="9"/>
+      <c r="EN13" s="9"/>
+      <c r="EO13" s="9"/>
+      <c r="EP13" s="9"/>
+      <c r="EQ13" s="9"/>
+      <c r="ER13" s="9"/>
+      <c r="ES13" s="9"/>
+      <c r="ET13" s="9"/>
+      <c r="EU13" s="9"/>
+      <c r="EV13" s="9"/>
+      <c r="EW13" s="9"/>
+      <c r="EX13" s="9"/>
+      <c r="EY13" s="9"/>
+      <c r="EZ13" s="9"/>
+      <c r="FA13" s="9"/>
+      <c r="FB13" s="9"/>
+      <c r="FC13" s="9"/>
+      <c r="FD13" s="9"/>
+      <c r="FE13" s="9"/>
+      <c r="FF13" s="9"/>
+      <c r="FG13" s="9"/>
+      <c r="FH13" s="9"/>
+      <c r="FI13" s="9"/>
+      <c r="FJ13" s="9"/>
+      <c r="FK13" s="9"/>
+      <c r="FL13" s="9"/>
+      <c r="FM13" s="9"/>
+      <c r="FN13" s="9"/>
+      <c r="FO13" s="9"/>
+      <c r="FP13" s="9"/>
+      <c r="FQ13" s="9"/>
+      <c r="FR13" s="9"/>
+      <c r="FS13" s="9"/>
+      <c r="FT13" s="9"/>
+      <c r="FU13" s="9"/>
+      <c r="FV13" s="9"/>
+      <c r="FW13" s="9"/>
+      <c r="FX13" s="9"/>
+      <c r="FY13" s="9"/>
+      <c r="FZ13" s="9"/>
+      <c r="GA13" s="9"/>
+      <c r="GB13" s="9"/>
+      <c r="GC13" s="9"/>
+      <c r="GD13" s="9"/>
+      <c r="GE13" s="9"/>
+      <c r="GF13" s="9"/>
+      <c r="GG13" s="9"/>
+      <c r="GH13" s="9"/>
+      <c r="GI13" s="9"/>
+      <c r="GJ13" s="9"/>
+      <c r="GK13" s="9"/>
+      <c r="GL13" s="9"/>
+      <c r="GM13" s="9"/>
+      <c r="GN13" s="9"/>
+      <c r="GO13" s="9"/>
+      <c r="GP13" s="9"/>
+      <c r="GQ13" s="9"/>
+      <c r="GR13" s="9"/>
+      <c r="GS13" s="9"/>
+      <c r="GT13" s="9"/>
+      <c r="GU13" s="9"/>
+      <c r="GV13" s="9"/>
+      <c r="GW13" s="9"/>
+      <c r="GX13" s="9"/>
+      <c r="GY13" s="9"/>
+      <c r="GZ13" s="9"/>
+      <c r="HA13" s="9"/>
+      <c r="HB13" s="9"/>
+      <c r="HC13" s="9"/>
+      <c r="HD13" s="9"/>
+      <c r="HE13" s="9"/>
+      <c r="HF13" s="9"/>
+      <c r="HG13" s="9"/>
+      <c r="HH13" s="9"/>
+      <c r="HI13" s="9"/>
+      <c r="HJ13" s="9"/>
+      <c r="HK13" s="9"/>
+      <c r="HL13" s="9"/>
+      <c r="HM13" s="9"/>
+      <c r="HN13" s="9"/>
+      <c r="HO13" s="9"/>
+      <c r="HP13" s="9"/>
+      <c r="HQ13" s="9"/>
+      <c r="HR13" s="9"/>
+      <c r="HS13" s="9"/>
+      <c r="HT13" s="9"/>
+      <c r="HU13" s="9"/>
+      <c r="HV13" s="9"/>
+      <c r="HW13" s="9"/>
+      <c r="HX13" s="9"/>
+      <c r="HY13" s="9"/>
+      <c r="HZ13" s="9"/>
+      <c r="IA13" s="9"/>
+      <c r="IB13" s="9"/>
+      <c r="IC13" s="9"/>
+      <c r="ID13" s="9"/>
+      <c r="IE13" s="9"/>
+      <c r="IF13" s="9"/>
+      <c r="IG13" s="9"/>
+      <c r="IH13" s="9"/>
+      <c r="II13" s="9"/>
+      <c r="IJ13" s="9"/>
+      <c r="IK13" s="9"/>
+      <c r="IL13" s="9"/>
+      <c r="IM13" s="9"/>
+      <c r="IN13" s="9"/>
+      <c r="IO13" s="9"/>
+      <c r="IP13" s="9"/>
+      <c r="IQ13" s="9"/>
+      <c r="IR13" s="9"/>
+      <c r="IS13" s="9"/>
+      <c r="IT13" s="9"/>
+      <c r="IU13" s="9"/>
+      <c r="IV13" s="9"/>
+      <c r="IW13" s="9"/>
+      <c r="IX13" s="9"/>
+      <c r="IY13" s="9"/>
+      <c r="IZ13" s="9"/>
+      <c r="JA13" s="9"/>
+      <c r="JB13" s="9"/>
+      <c r="JC13" s="9"/>
+      <c r="JD13" s="9"/>
+      <c r="JE13" s="9"/>
+      <c r="JF13" s="9"/>
+      <c r="JG13" s="9"/>
+      <c r="JH13" s="9"/>
+      <c r="JI13" s="9"/>
+      <c r="JJ13" s="9"/>
+      <c r="JK13" s="9"/>
+      <c r="JL13" s="9"/>
+      <c r="JM13" s="9"/>
+      <c r="JN13" s="9"/>
+      <c r="JO13" s="9"/>
+      <c r="JP13" s="9"/>
+      <c r="JQ13" s="9"/>
+      <c r="JR13" s="9"/>
+      <c r="JS13" s="9"/>
+      <c r="JT13" s="9"/>
+      <c r="JU13" s="9"/>
+      <c r="JV13" s="9"/>
+      <c r="JW13" s="9"/>
+      <c r="JX13" s="9"/>
+      <c r="JY13" s="9"/>
+      <c r="JZ13" s="9"/>
+      <c r="KA13" s="9"/>
+      <c r="KB13" s="9"/>
+      <c r="KC13" s="9"/>
+      <c r="KD13" s="9"/>
+      <c r="KE13" s="9"/>
+      <c r="KF13" s="9"/>
+      <c r="KG13" s="9"/>
+      <c r="KH13" s="9"/>
+      <c r="KI13" s="9"/>
+      <c r="KJ13" s="9"/>
+      <c r="KK13" s="9"/>
+      <c r="KL13" s="9"/>
+      <c r="KM13" s="9"/>
+      <c r="KN13" s="9"/>
+      <c r="KO13" s="9"/>
+      <c r="KP13" s="9"/>
+      <c r="KQ13" s="9"/>
+      <c r="KR13" s="9"/>
+      <c r="KS13" s="9"/>
+      <c r="KT13" s="9"/>
+      <c r="KU13" s="9"/>
+      <c r="KV13" s="9"/>
+      <c r="KW13" s="9"/>
+      <c r="KX13" s="9"/>
+      <c r="KY13" s="9"/>
+      <c r="KZ13" s="9"/>
+      <c r="LA13" s="9"/>
+      <c r="LB13" s="9"/>
+      <c r="LC13" s="9"/>
+      <c r="LD13" s="9"/>
+      <c r="LE13" s="9"/>
+      <c r="LF13" s="9"/>
+      <c r="LG13" s="9"/>
+      <c r="LH13" s="9"/>
+      <c r="LI13" s="9"/>
+      <c r="LJ13" s="9"/>
+      <c r="LK13" s="9"/>
+      <c r="LL13" s="9"/>
+      <c r="LM13" s="9"/>
+      <c r="LN13" s="9"/>
+      <c r="LO13" s="9"/>
+      <c r="LP13" s="9"/>
+      <c r="LQ13" s="9"/>
+      <c r="LR13" s="9"/>
+      <c r="LS13" s="9"/>
+      <c r="LT13" s="9"/>
+      <c r="LU13" s="9"/>
+      <c r="LV13" s="9"/>
+      <c r="LW13" s="9"/>
+      <c r="LX13" s="9"/>
+      <c r="LY13" s="9"/>
+      <c r="LZ13" s="9"/>
+      <c r="MA13" s="9"/>
+      <c r="MB13" s="9"/>
+      <c r="MC13" s="9"/>
+      <c r="MD13" s="9"/>
+      <c r="ME13" s="9"/>
+      <c r="MF13" s="9"/>
+      <c r="MG13" s="9"/>
+      <c r="MH13" s="9"/>
+      <c r="MI13" s="9"/>
+      <c r="MJ13" s="9"/>
+      <c r="MK13" s="9"/>
+      <c r="ML13" s="9"/>
+      <c r="MM13" s="9"/>
+      <c r="MN13" s="9"/>
+      <c r="MO13" s="9"/>
+      <c r="MP13" s="9"/>
+      <c r="MQ13" s="9"/>
+      <c r="MR13" s="9"/>
+      <c r="MS13" s="9"/>
+      <c r="MT13" s="9"/>
+      <c r="MU13" s="9"/>
+      <c r="MV13" s="9"/>
+      <c r="MW13" s="9"/>
+      <c r="MX13" s="9"/>
+      <c r="MY13" s="9"/>
+      <c r="MZ13" s="9"/>
+      <c r="NA13" s="9"/>
+      <c r="NB13" s="9"/>
+      <c r="NC13" s="9"/>
+      <c r="ND13" s="9"/>
+      <c r="NE13" s="9"/>
+      <c r="NF13" s="9"/>
+      <c r="NG13" s="9"/>
+      <c r="NH13" s="9"/>
+      <c r="NI13" s="9"/>
+      <c r="NJ13" s="9"/>
+      <c r="NK13" s="9"/>
+      <c r="NL13" s="9"/>
+      <c r="NM13" s="9"/>
+      <c r="NN13" s="9"/>
+      <c r="NO13" s="9"/>
+      <c r="NP13" s="9"/>
+      <c r="NQ13" s="9"/>
+      <c r="NR13" s="9"/>
+      <c r="NS13" s="9"/>
+      <c r="NT13" s="9"/>
+      <c r="NU13" s="9"/>
+      <c r="NV13" s="9"/>
+      <c r="NW13" s="9"/>
+      <c r="NX13" s="9"/>
+      <c r="NY13" s="9"/>
+      <c r="NZ13" s="9"/>
+      <c r="OA13" s="9"/>
+      <c r="OB13" s="9"/>
+      <c r="OC13" s="9"/>
+      <c r="OD13" s="9"/>
+      <c r="OE13" s="9"/>
+      <c r="OF13" s="9"/>
+      <c r="OG13" s="9"/>
+      <c r="OH13" s="9"/>
+      <c r="OI13" s="9"/>
+      <c r="OJ13" s="9"/>
+      <c r="OK13" s="9"/>
+      <c r="OL13" s="9"/>
+      <c r="OM13" s="9"/>
+      <c r="ON13" s="9"/>
+      <c r="OO13" s="9"/>
+      <c r="OP13" s="9"/>
+      <c r="OQ13" s="9"/>
+      <c r="OR13" s="9"/>
+      <c r="OS13" s="9"/>
+      <c r="OT13" s="9"/>
+      <c r="OU13" s="9"/>
+      <c r="OV13" s="9"/>
+      <c r="OW13" s="9"/>
+      <c r="OX13" s="9"/>
+      <c r="OY13" s="9"/>
+      <c r="OZ13" s="9"/>
+      <c r="PA13" s="9"/>
+      <c r="PB13" s="9"/>
+      <c r="PC13" s="9"/>
+      <c r="PD13" s="9"/>
+      <c r="PE13" s="9"/>
+      <c r="PF13" s="9"/>
+      <c r="PG13" s="9"/>
+      <c r="PH13" s="9"/>
+      <c r="PI13" s="9"/>
+      <c r="PJ13" s="9"/>
+      <c r="PK13" s="9"/>
+      <c r="PL13" s="9"/>
+      <c r="PM13" s="9"/>
+      <c r="PN13" s="9"/>
+      <c r="PO13" s="9"/>
+      <c r="PP13" s="9"/>
+      <c r="PQ13" s="9"/>
+      <c r="PR13" s="9"/>
+      <c r="PS13" s="9"/>
+      <c r="PT13" s="9"/>
+      <c r="PU13" s="9"/>
+      <c r="PV13" s="9"/>
+      <c r="PW13" s="9"/>
+      <c r="PX13" s="9"/>
+      <c r="PY13" s="9"/>
+      <c r="PZ13" s="9"/>
+      <c r="QA13" s="9"/>
+      <c r="QB13" s="9"/>
+      <c r="QC13" s="9"/>
+      <c r="QD13" s="9"/>
+      <c r="QE13" s="9"/>
+      <c r="QF13" s="9"/>
+      <c r="QG13" s="9"/>
+      <c r="QH13" s="9"/>
+      <c r="QI13" s="9"/>
+      <c r="QJ13" s="9"/>
+      <c r="QK13" s="9"/>
+      <c r="QL13" s="9"/>
+      <c r="QM13" s="9"/>
+      <c r="QN13" s="9"/>
+      <c r="QO13" s="9"/>
+      <c r="QP13" s="9"/>
+      <c r="QQ13" s="9"/>
+      <c r="QR13" s="9"/>
+      <c r="QS13" s="9"/>
+      <c r="QT13" s="9"/>
+      <c r="QU13" s="9"/>
+      <c r="QV13" s="9"/>
+      <c r="QW13" s="9"/>
+      <c r="QX13" s="9"/>
+      <c r="QY13" s="9"/>
+      <c r="QZ13" s="9"/>
+      <c r="RA13" s="9"/>
+      <c r="RB13" s="9"/>
+      <c r="RC13" s="9"/>
+      <c r="RD13" s="9"/>
+      <c r="RE13" s="9"/>
+      <c r="RF13" s="9"/>
+      <c r="RG13" s="9"/>
+      <c r="RH13" s="9"/>
+      <c r="RI13" s="9"/>
+      <c r="RJ13" s="9"/>
+      <c r="RK13" s="9"/>
+      <c r="RL13" s="9"/>
+      <c r="RM13" s="9"/>
+      <c r="RN13" s="9"/>
+      <c r="RO13" s="9"/>
+      <c r="RP13" s="9"/>
+      <c r="RQ13" s="9"/>
+      <c r="RR13" s="9"/>
+      <c r="RS13" s="9"/>
+      <c r="RT13" s="9"/>
+      <c r="RU13" s="9"/>
+      <c r="RV13" s="9"/>
+      <c r="RW13" s="9"/>
+      <c r="RX13" s="9"/>
+      <c r="RY13" s="9"/>
+      <c r="RZ13" s="9"/>
+      <c r="SA13" s="9"/>
+      <c r="SB13" s="9"/>
+      <c r="SC13" s="9"/>
+      <c r="SD13" s="9"/>
+      <c r="SE13" s="9"/>
+      <c r="SF13" s="9"/>
+      <c r="SG13" s="9"/>
+      <c r="SH13" s="9"/>
+      <c r="SI13" s="9"/>
+      <c r="SJ13" s="9"/>
+      <c r="SK13" s="9"/>
+      <c r="SL13" s="9"/>
+      <c r="SM13" s="9"/>
+      <c r="SN13" s="9"/>
+      <c r="SO13" s="9"/>
+      <c r="SP13" s="9"/>
+      <c r="SQ13" s="9"/>
+      <c r="SR13" s="9"/>
+      <c r="SS13" s="9"/>
+      <c r="ST13" s="9"/>
+      <c r="SU13" s="9"/>
+      <c r="SV13" s="9"/>
+      <c r="SW13" s="9"/>
+      <c r="SX13" s="9"/>
+      <c r="SY13" s="9"/>
+      <c r="SZ13" s="9"/>
+      <c r="TA13" s="9"/>
+      <c r="TB13" s="9"/>
+      <c r="TC13" s="9"/>
+      <c r="TD13" s="9"/>
+      <c r="TE13" s="9"/>
+      <c r="TF13" s="9"/>
+      <c r="TG13" s="9"/>
+      <c r="TH13" s="9"/>
+      <c r="TI13" s="9"/>
+      <c r="TJ13" s="9"/>
+      <c r="TK13" s="9"/>
+      <c r="TL13" s="9"/>
+      <c r="TM13" s="9"/>
+      <c r="TN13" s="9"/>
+      <c r="TO13" s="9"/>
+      <c r="TP13" s="9"/>
+      <c r="TQ13" s="9"/>
+      <c r="TR13" s="9"/>
+      <c r="TS13" s="9"/>
+      <c r="TT13" s="9"/>
+      <c r="TU13" s="9"/>
+      <c r="TV13" s="9"/>
+      <c r="TW13" s="9"/>
+      <c r="TX13" s="9"/>
+      <c r="TY13" s="9"/>
+      <c r="TZ13" s="9"/>
+      <c r="UA13" s="9"/>
+      <c r="UB13" s="9"/>
+      <c r="UC13" s="9"/>
+      <c r="UD13" s="9"/>
+      <c r="UE13" s="9"/>
+      <c r="UF13" s="9"/>
+      <c r="UG13" s="9"/>
+      <c r="UH13" s="9"/>
+      <c r="UI13" s="9"/>
+      <c r="UJ13" s="9"/>
+      <c r="UK13" s="9"/>
+      <c r="UL13" s="9"/>
+      <c r="UM13" s="9"/>
+      <c r="UN13" s="9"/>
+      <c r="UO13" s="9"/>
+      <c r="UP13" s="9"/>
+      <c r="UQ13" s="9"/>
+      <c r="UR13" s="9"/>
+      <c r="US13" s="9"/>
+      <c r="UT13" s="9"/>
+      <c r="UU13" s="9"/>
+      <c r="UV13" s="9"/>
+      <c r="UW13" s="9"/>
+      <c r="UX13" s="9"/>
+      <c r="UY13" s="9"/>
+      <c r="UZ13" s="9"/>
+      <c r="VA13" s="9"/>
+      <c r="VB13" s="9"/>
+      <c r="VC13" s="9"/>
+      <c r="VD13" s="9"/>
+      <c r="VE13" s="9"/>
+      <c r="VF13" s="9"/>
+      <c r="VG13" s="9"/>
+      <c r="VH13" s="9"/>
+      <c r="VI13" s="9"/>
+      <c r="VJ13" s="9"/>
+      <c r="VK13" s="9"/>
+      <c r="VL13" s="9"/>
+      <c r="VM13" s="9"/>
+      <c r="VN13" s="9"/>
+      <c r="VO13" s="9"/>
+      <c r="VP13" s="9"/>
+      <c r="VQ13" s="9"/>
+      <c r="VR13" s="9"/>
+      <c r="VS13" s="9"/>
+      <c r="VT13" s="9"/>
+      <c r="VU13" s="9"/>
+      <c r="VV13" s="9"/>
+      <c r="VW13" s="9"/>
+      <c r="VX13" s="9"/>
+      <c r="VY13" s="9"/>
+      <c r="VZ13" s="9"/>
+      <c r="WA13" s="9"/>
+      <c r="WB13" s="9"/>
+      <c r="WC13" s="9"/>
+      <c r="WD13" s="9"/>
+      <c r="WE13" s="9"/>
+      <c r="WF13" s="9"/>
+      <c r="WG13" s="9"/>
+      <c r="WH13" s="9"/>
+      <c r="WI13" s="9"/>
+      <c r="WJ13" s="9"/>
+      <c r="WK13" s="9"/>
+      <c r="WL13" s="9"/>
+      <c r="WM13" s="9"/>
+      <c r="WN13" s="9"/>
+      <c r="WO13" s="9"/>
+      <c r="WP13" s="9"/>
+      <c r="WQ13" s="9"/>
+      <c r="WR13" s="9"/>
+      <c r="WS13" s="9"/>
+      <c r="WT13" s="9"/>
+      <c r="WU13" s="9"/>
+      <c r="WV13" s="9"/>
+      <c r="WW13" s="9"/>
+      <c r="WX13" s="9"/>
+      <c r="WY13" s="9"/>
+      <c r="WZ13" s="9"/>
+      <c r="XA13" s="9"/>
+      <c r="XB13" s="9"/>
+      <c r="XC13" s="9"/>
+      <c r="XD13" s="9"/>
+      <c r="XE13" s="9"/>
+      <c r="XF13" s="9"/>
+      <c r="XG13" s="9"/>
+      <c r="XH13" s="9"/>
+      <c r="XI13" s="9"/>
+      <c r="XJ13" s="9"/>
+      <c r="XK13" s="9"/>
+      <c r="XL13" s="9"/>
+      <c r="XM13" s="9"/>
+      <c r="XN13" s="9"/>
+      <c r="XO13" s="9"/>
+      <c r="XP13" s="9"/>
+      <c r="XQ13" s="9"/>
+      <c r="XR13" s="9"/>
+      <c r="XS13" s="9"/>
+      <c r="XT13" s="9"/>
+      <c r="XU13" s="9"/>
+      <c r="XV13" s="9"/>
+      <c r="XW13" s="9"/>
+      <c r="XX13" s="9"/>
+      <c r="XY13" s="9"/>
+      <c r="XZ13" s="9"/>
+      <c r="YA13" s="9"/>
+      <c r="YB13" s="9"/>
+      <c r="YC13" s="9"/>
+      <c r="YD13" s="9"/>
+      <c r="YE13" s="9"/>
+      <c r="YF13" s="9"/>
+      <c r="YG13" s="9"/>
+      <c r="YH13" s="9"/>
+      <c r="YI13" s="9"/>
+      <c r="YJ13" s="9"/>
+      <c r="YK13" s="9"/>
+      <c r="YL13" s="9"/>
+      <c r="YM13" s="9"/>
+      <c r="YN13" s="9"/>
+      <c r="YO13" s="9"/>
+      <c r="YP13" s="9"/>
+      <c r="YQ13" s="9"/>
+      <c r="YR13" s="9"/>
+      <c r="YS13" s="9"/>
+      <c r="YT13" s="9"/>
+      <c r="YU13" s="9"/>
+      <c r="YV13" s="9"/>
+      <c r="YW13" s="9"/>
+      <c r="YX13" s="9"/>
+      <c r="YY13" s="9"/>
+      <c r="YZ13" s="9"/>
+      <c r="ZA13" s="9"/>
+      <c r="ZB13" s="9"/>
+      <c r="ZC13" s="9"/>
+      <c r="ZD13" s="9"/>
+      <c r="ZE13" s="9"/>
+      <c r="ZF13" s="9"/>
+      <c r="ZG13" s="9"/>
+      <c r="ZH13" s="9"/>
+      <c r="ZI13" s="9"/>
+      <c r="ZJ13" s="9"/>
+      <c r="ZK13" s="9"/>
+      <c r="ZL13" s="9"/>
+      <c r="ZM13" s="9"/>
+      <c r="ZN13" s="9"/>
+      <c r="ZO13" s="9"/>
+      <c r="ZP13" s="9"/>
+      <c r="ZQ13" s="9"/>
+      <c r="ZR13" s="9"/>
+      <c r="ZS13" s="9"/>
+      <c r="ZT13" s="9"/>
+      <c r="ZU13" s="9"/>
+      <c r="ZV13" s="9"/>
+      <c r="ZW13" s="9"/>
+      <c r="ZX13" s="9"/>
+      <c r="ZY13" s="9"/>
+      <c r="ZZ13" s="9"/>
+      <c r="AAA13" s="9"/>
+      <c r="AAB13" s="9"/>
+      <c r="AAC13" s="9"/>
+      <c r="AAD13" s="9"/>
+      <c r="AAE13" s="9"/>
+      <c r="AAF13" s="9"/>
+      <c r="AAG13" s="9"/>
+      <c r="AAH13" s="9"/>
+      <c r="AAI13" s="9"/>
+      <c r="AAJ13" s="9"/>
+      <c r="AAK13" s="9"/>
+      <c r="AAL13" s="9"/>
+      <c r="AAM13" s="9"/>
+      <c r="AAN13" s="9"/>
+      <c r="AAO13" s="9"/>
+      <c r="AAP13" s="9"/>
+      <c r="AAQ13" s="9"/>
+      <c r="AAR13" s="9"/>
+      <c r="AAS13" s="9"/>
+      <c r="AAT13" s="9"/>
+      <c r="AAU13" s="9"/>
+      <c r="AAV13" s="9"/>
+      <c r="AAW13" s="9"/>
+      <c r="AAX13" s="9"/>
+      <c r="AAY13" s="9"/>
+      <c r="AAZ13" s="9"/>
+      <c r="ABA13" s="9"/>
+      <c r="ABB13" s="9"/>
+      <c r="ABC13" s="9"/>
+      <c r="ABD13" s="9"/>
+      <c r="ABE13" s="9"/>
+      <c r="ABF13" s="9"/>
+      <c r="ABG13" s="9"/>
+      <c r="ABH13" s="9"/>
+      <c r="ABI13" s="9"/>
+      <c r="ABJ13" s="9"/>
+      <c r="ABK13" s="9"/>
+      <c r="ABL13" s="9"/>
+      <c r="ABM13" s="9"/>
+      <c r="ABN13" s="9"/>
+      <c r="ABO13" s="9"/>
+      <c r="ABP13" s="9"/>
+      <c r="ABQ13" s="9"/>
+      <c r="ABR13" s="9"/>
+      <c r="ABS13" s="9"/>
+      <c r="ABT13" s="9"/>
+      <c r="ABU13" s="9"/>
+      <c r="ABV13" s="9"/>
+      <c r="ABW13" s="9"/>
+      <c r="ABX13" s="9"/>
+      <c r="ABY13" s="9"/>
+      <c r="ABZ13" s="9"/>
+      <c r="ACA13" s="9"/>
+      <c r="ACB13" s="9"/>
+      <c r="ACC13" s="9"/>
+      <c r="ACD13" s="9"/>
+      <c r="ACE13" s="9"/>
+      <c r="ACF13" s="9"/>
+      <c r="ACG13" s="9"/>
+      <c r="ACH13" s="9"/>
+      <c r="ACI13" s="9"/>
+      <c r="ACJ13" s="9"/>
+      <c r="ACK13" s="9"/>
+      <c r="ACL13" s="9"/>
+      <c r="ACM13" s="9"/>
+      <c r="ACN13" s="9"/>
+      <c r="ACO13" s="9"/>
+      <c r="ACP13" s="9"/>
+      <c r="ACQ13" s="9"/>
+      <c r="ACR13" s="9"/>
+      <c r="ACS13" s="9"/>
+      <c r="ACT13" s="9"/>
+      <c r="ACU13" s="9"/>
+      <c r="ACV13" s="9"/>
+      <c r="ACW13" s="9"/>
+      <c r="ACX13" s="9"/>
+      <c r="ACY13" s="9"/>
+      <c r="ACZ13" s="9"/>
+      <c r="ADA13" s="9"/>
+      <c r="ADB13" s="9"/>
+      <c r="ADC13" s="9"/>
+      <c r="ADD13" s="9"/>
+      <c r="ADE13" s="9"/>
+      <c r="ADF13" s="9"/>
+      <c r="ADG13" s="9"/>
+      <c r="ADH13" s="9"/>
+      <c r="ADI13" s="9"/>
+      <c r="ADJ13" s="9"/>
+      <c r="ADK13" s="9"/>
+      <c r="ADL13" s="9"/>
+      <c r="ADM13" s="9"/>
+      <c r="ADN13" s="9"/>
+      <c r="ADO13" s="9"/>
+      <c r="ADP13" s="9"/>
+      <c r="ADQ13" s="9"/>
+      <c r="ADR13" s="9"/>
+      <c r="ADS13" s="9"/>
+      <c r="ADT13" s="9"/>
+      <c r="ADU13" s="9"/>
+      <c r="ADV13" s="9"/>
+      <c r="ADW13" s="9"/>
+      <c r="ADX13" s="9"/>
+      <c r="ADY13" s="9"/>
+      <c r="ADZ13" s="9"/>
+      <c r="AEA13" s="9"/>
+      <c r="AEB13" s="9"/>
+      <c r="AEC13" s="9"/>
+      <c r="AED13" s="9"/>
+      <c r="AEE13" s="9"/>
+      <c r="AEF13" s="9"/>
+      <c r="AEG13" s="9"/>
+      <c r="AEH13" s="9"/>
+      <c r="AEI13" s="9"/>
+      <c r="AEJ13" s="9"/>
+      <c r="AEK13" s="9"/>
+      <c r="AEL13" s="9"/>
+      <c r="AEM13" s="9"/>
+      <c r="AEN13" s="9"/>
+      <c r="AEO13" s="9"/>
+      <c r="AEP13" s="9"/>
+      <c r="AEQ13" s="9"/>
+      <c r="AER13" s="9"/>
+      <c r="AES13" s="9"/>
+      <c r="AET13" s="9"/>
+      <c r="AEU13" s="9"/>
+      <c r="AEV13" s="9"/>
+      <c r="AEW13" s="9"/>
+      <c r="AEX13" s="9"/>
+      <c r="AEY13" s="9"/>
+      <c r="AEZ13" s="9"/>
+      <c r="AFA13" s="9"/>
+      <c r="AFB13" s="9"/>
+      <c r="AFC13" s="9"/>
+      <c r="AFD13" s="9"/>
+      <c r="AFE13" s="9"/>
+      <c r="AFF13" s="9"/>
+      <c r="AFG13" s="9"/>
+      <c r="AFH13" s="9"/>
+      <c r="AFI13" s="9"/>
+      <c r="AFJ13" s="9"/>
+      <c r="AFK13" s="9"/>
+      <c r="AFL13" s="9"/>
+      <c r="AFM13" s="9"/>
+      <c r="AFN13" s="9"/>
+      <c r="AFO13" s="9"/>
+      <c r="AFP13" s="9"/>
+      <c r="AFQ13" s="9"/>
+      <c r="AFR13" s="9"/>
+      <c r="AFS13" s="9"/>
+      <c r="AFT13" s="9"/>
+      <c r="AFU13" s="9"/>
+      <c r="AFV13" s="9"/>
+      <c r="AFW13" s="9"/>
+      <c r="AFX13" s="9"/>
+      <c r="AFY13" s="9"/>
+      <c r="AFZ13" s="9"/>
+      <c r="AGA13" s="9"/>
+      <c r="AGB13" s="9"/>
+      <c r="AGC13" s="9"/>
+      <c r="AGD13" s="9"/>
+      <c r="AGE13" s="9"/>
+      <c r="AGF13" s="9"/>
+      <c r="AGG13" s="9"/>
+      <c r="AGH13" s="9"/>
+      <c r="AGI13" s="9"/>
+      <c r="AGJ13" s="9"/>
+      <c r="AGK13" s="9"/>
+      <c r="AGL13" s="9"/>
+      <c r="AGM13" s="9"/>
+      <c r="AGN13" s="9"/>
+      <c r="AGO13" s="9"/>
+      <c r="AGP13" s="9"/>
+      <c r="AGQ13" s="9"/>
+      <c r="AGR13" s="9"/>
+      <c r="AGS13" s="9"/>
+      <c r="AGT13" s="9"/>
+      <c r="AGU13" s="9"/>
+      <c r="AGV13" s="9"/>
+      <c r="AGW13" s="9"/>
+      <c r="AGX13" s="9"/>
+      <c r="AGY13" s="9"/>
+      <c r="AGZ13" s="9"/>
+      <c r="AHA13" s="9"/>
+      <c r="AHB13" s="9"/>
+      <c r="AHC13" s="9"/>
+      <c r="AHD13" s="9"/>
+      <c r="AHE13" s="9"/>
+      <c r="AHF13" s="9"/>
+      <c r="AHG13" s="9"/>
+      <c r="AHH13" s="9"/>
+      <c r="AHI13" s="9"/>
+      <c r="AHJ13" s="9"/>
+      <c r="AHK13" s="9"/>
+      <c r="AHL13" s="9"/>
+      <c r="AHM13" s="9"/>
+      <c r="AHN13" s="9"/>
+      <c r="AHO13" s="9"/>
+      <c r="AHP13" s="9"/>
+      <c r="AHQ13" s="9"/>
+      <c r="AHR13" s="9"/>
+      <c r="AHS13" s="9"/>
+      <c r="AHT13" s="9"/>
+      <c r="AHU13" s="9"/>
+      <c r="AHV13" s="9"/>
+      <c r="AHW13" s="9"/>
+      <c r="AHX13" s="9"/>
+      <c r="AHY13" s="9"/>
+      <c r="AHZ13" s="9"/>
+      <c r="AIA13" s="9"/>
+      <c r="AIB13" s="9"/>
+      <c r="AIC13" s="9"/>
+      <c r="AID13" s="9"/>
+      <c r="AIE13" s="9"/>
+      <c r="AIF13" s="9"/>
+      <c r="AIG13" s="9"/>
+      <c r="AIH13" s="9"/>
+      <c r="AII13" s="9"/>
+      <c r="AIJ13" s="9"/>
+      <c r="AIK13" s="9"/>
+      <c r="AIL13" s="9"/>
+      <c r="AIM13" s="9"/>
+      <c r="AIN13" s="9"/>
+      <c r="AIO13" s="9"/>
+      <c r="AIP13" s="9"/>
+      <c r="AIQ13" s="9"/>
+      <c r="AIR13" s="9"/>
+      <c r="AIS13" s="9"/>
+      <c r="AIT13" s="9"/>
+      <c r="AIU13" s="9"/>
+      <c r="AIV13" s="9"/>
+      <c r="AIW13" s="9"/>
+      <c r="AIX13" s="9"/>
+      <c r="AIY13" s="9"/>
+      <c r="AIZ13" s="9"/>
+      <c r="AJA13" s="9"/>
+      <c r="AJB13" s="9"/>
+      <c r="AJC13" s="9"/>
+      <c r="AJD13" s="9"/>
+      <c r="AJE13" s="9"/>
+      <c r="AJF13" s="9"/>
+      <c r="AJG13" s="9"/>
+      <c r="AJH13" s="9"/>
+      <c r="AJI13" s="9"/>
+      <c r="AJJ13" s="9"/>
+      <c r="AJK13" s="9"/>
+      <c r="AJL13" s="9"/>
+      <c r="AJM13" s="9"/>
+      <c r="AJN13" s="9"/>
+      <c r="AJO13" s="9"/>
+      <c r="AJP13" s="9"/>
+      <c r="AJQ13" s="9"/>
+      <c r="AJR13" s="9"/>
+      <c r="AJS13" s="9"/>
+      <c r="AJT13" s="9"/>
+      <c r="AJU13" s="9"/>
+      <c r="AJV13" s="9"/>
+      <c r="AJW13" s="9"/>
+      <c r="AJX13" s="9"/>
+      <c r="AJY13" s="9"/>
+      <c r="AJZ13" s="9"/>
+      <c r="AKA13" s="9"/>
+      <c r="AKB13" s="9"/>
+      <c r="AKC13" s="9"/>
+      <c r="AKD13" s="9"/>
+      <c r="AKE13" s="9"/>
+      <c r="AKF13" s="9"/>
+      <c r="AKG13" s="9"/>
+      <c r="AKH13" s="9"/>
+      <c r="AKI13" s="9"/>
+      <c r="AKJ13" s="9"/>
+      <c r="AKK13" s="9"/>
+      <c r="AKL13" s="9"/>
+      <c r="AKM13" s="9"/>
+      <c r="AKN13" s="9"/>
+      <c r="AKO13" s="9"/>
+      <c r="AKP13" s="9"/>
+      <c r="AKQ13" s="9"/>
+      <c r="AKR13" s="9"/>
+      <c r="AKS13" s="9"/>
+      <c r="AKT13" s="9"/>
+      <c r="AKU13" s="9"/>
+      <c r="AKV13" s="9"/>
+      <c r="AKW13" s="9"/>
+      <c r="AKX13" s="9"/>
+      <c r="AKY13" s="9"/>
+      <c r="AKZ13" s="9"/>
+      <c r="ALA13" s="9"/>
+      <c r="ALB13" s="9"/>
+      <c r="ALC13" s="9"/>
+      <c r="ALD13" s="9"/>
+      <c r="ALE13" s="9"/>
+      <c r="ALF13" s="9"/>
+      <c r="ALG13" s="9"/>
+      <c r="ALH13" s="9"/>
+      <c r="ALI13" s="9"/>
+      <c r="ALJ13" s="9"/>
+      <c r="ALK13" s="9"/>
+      <c r="ALL13" s="9"/>
+      <c r="ALM13" s="9"/>
+      <c r="ALN13" s="9"/>
+      <c r="ALO13" s="9"/>
+      <c r="ALP13" s="9"/>
+      <c r="ALQ13" s="9"/>
+      <c r="ALR13" s="9"/>
+      <c r="ALS13" s="9"/>
+      <c r="ALT13" s="9"/>
+      <c r="ALU13" s="9"/>
+      <c r="ALV13" s="9"/>
+      <c r="ALW13" s="9"/>
+      <c r="ALX13" s="9"/>
+      <c r="ALY13" s="9"/>
+      <c r="ALZ13" s="9"/>
+      <c r="AMA13" s="9"/>
+      <c r="AMB13" s="9"/>
+      <c r="AMC13" s="9"/>
+      <c r="AMD13" s="9"/>
+      <c r="AME13" s="9"/>
+      <c r="AMF13" s="9"/>
+      <c r="AMG13" s="9"/>
+      <c r="AMH13" s="9"/>
+      <c r="AMI13" s="9"/>
+      <c r="AMJ13" s="9"/>
+      <c r="AMK13" s="9"/>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B31">
+      <c r="B14">
         <v>6.8223935269999994E-2</v>
       </c>
-      <c r="C31">
+      <c r="C14">
         <v>7.3936685089999996E-2</v>
       </c>
-      <c r="D31">
+      <c r="D14">
         <v>8.5411684939999996E-2</v>
       </c>
-      <c r="E31">
+      <c r="E14">
         <v>8.405112243E-2</v>
       </c>
-      <c r="F31">
+      <c r="F14">
         <v>9.2109111719999998E-2</v>
       </c>
-      <c r="G31">
+      <c r="G14">
         <v>9.7155784159999994E-2</v>
       </c>
-      <c r="H31">
+      <c r="H14">
         <v>0.10866043459999999</v>
       </c>
-      <c r="I31">
+      <c r="I14">
         <v>0.1094673027</v>
       </c>
-      <c r="J31">
+      <c r="J14">
         <v>0.1131639248</v>
       </c>
-      <c r="K31">
+      <c r="K14">
         <v>0.10874246630000001</v>
       </c>
-      <c r="L31">
+      <c r="L14">
         <v>0.1241078555</v>
       </c>
-      <c r="M31">
+      <c r="M14">
         <v>0.1215175407</v>
       </c>
-      <c r="N31">
+      <c r="N14">
         <v>0.12963685580000001</v>
       </c>
-      <c r="O31">
+      <c r="O14">
         <v>0.1253790307</v>
       </c>
-      <c r="P31">
+      <c r="P14">
         <v>0.13191821670000001</v>
       </c>
     </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B15" s="12">
         <f>29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="C32" s="12">
-        <f t="shared" ref="C32:P32" si="0">29/156</f>
+      <c r="C15" s="12">
+        <f t="shared" ref="C15:P15" si="0">29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N15" s="9">
         <f>29/156</f>
         <v>0.1858974358974359</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P15" s="12">
         <f t="shared" si="0"/>
         <v>0.1858974358974359</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9">
+      <c r="B16" s="12">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="9">
+      <c r="C16" s="12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="M16" s="9">
         <v>0.16500000000000001</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N16" s="9">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="O16" s="12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9">
+      <c r="B17" s="12">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="9">
+      <c r="C17" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.5749999999999998E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>8.3250000000000005E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>9.0750000000000011E-2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>9.4500000000000015E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>9.8250000000000018E-2</v>
+      </c>
+      <c r="M17" s="9">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N17" s="9">
         <v>0.10199999999999999</v>
       </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="W34" s="9" t="s">
+      <c r="O17" s="12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="W17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="9">
+      <c r="B18" s="12">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="9">
+      <c r="C18" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="L18" s="12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M18" s="9">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N18" s="9">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="O18" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P18" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="30">
+      <c r="B19" s="13">
         <v>0.1</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="30">
+      <c r="C19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>9.7870000000000013E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>9.574000000000002E-2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>9.3610000000000027E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>9.1480000000000034E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>8.9350000000000041E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <v>8.7220000000000047E-2</v>
+      </c>
+      <c r="L19" s="13">
+        <v>8.5090000000000054E-2</v>
+      </c>
+      <c r="M19" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N19" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
+      <c r="O19" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P19" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="36"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="39">
+        <v>0.22</v>
+      </c>
+      <c r="N27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="9">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="N37" s="9">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="36"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="36">
+        <v>2018</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="39">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="B32" s="36">
+        <v>9.5699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="36">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="39">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="B33" s="36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="36"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B36" s="36">
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="39">
-        <v>0.22</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="36">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="39">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="36">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="36"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="36">
-        <v>9.5699999999999993E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="36">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="36"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="36">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B38" s="31">
         <f>44/398</f>
         <v>0.11055276381909548</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B39" s="31">
         <v>7.5</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B40" s="31">
         <v>78.8</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B59" s="31"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="B41" s="31"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B42" s="31">
         <v>0.96899999999999997</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B44" s="40">
         <v>4893</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B45" s="40">
         <v>2877</v>
       </c>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B46" s="40">
         <v>107.5</v>
       </c>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="B47" s="40"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D55" s="9">
         <v>0.27800000000000002</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D63" s="9">
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D64" s="9">
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4808,7 +4480,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N19" formula="1"/>
+    <ignoredError sqref="N10" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4817,7 +4489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
